--- a/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
+++ b/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4547,6 +4547,7836 @@
         <v>0</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Allard-Poesi &amp; Hollet-Haudebert_2021_HR_The Sound of Silence Measuring Suffering at Work.pdf</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>F1_P11_Allard-Poesi &amp; Hollet-Haudebert_2021_HR_The Sound of Silence Measuring Suffering at Work.png</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E153" t="n">
+        <v>12</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Anthony_2021_ASQ_When Knowledge Work and Analytical Technology Collide.pdf</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>F2_P22_Anthony_2021_ASQ_When Knowledge Work and Analytical Technology Collide.png</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E154" t="n">
+        <v>23</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Anthony_2021_ASQ_When Knowledge Work and Analytical Technology Collide.pdf</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>F2_P23_Anthony_2021_ASQ_When Knowledge Work and Analytical Technology Collide.png</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E155" t="n">
+        <v>24</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Bloom et al._2021_ASQ_Stories of Calling - How Called Professionals Construct Narrative Identities.pdf</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>F1_P26_Bloom et al._2021_ASQ_Stories of Calling - How Called Professionals Construct Narrative Identities.png</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E156" t="n">
+        <v>27</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.pdf</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>F1_P8_Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.png</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E157" t="n">
+        <v>9</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.pdf</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>F2_P16_Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.png</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E158" t="n">
+        <v>17</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.pdf</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>F2_P17_Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.png</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E159" t="n">
+        <v>18</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.pdf</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>F3_P21_Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.png</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>3</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E160" t="n">
+        <v>22</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.pdf</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>F3_P22_Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.png</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>3</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E161" t="n">
+        <v>23</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.pdf</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>F4_P30_Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.png</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E162" t="n">
+        <v>31</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.pdf</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>F4_P31_Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.png</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E163" t="n">
+        <v>32</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.pdf</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>F5_P30_Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.png</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E164" t="n">
+        <v>31</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.pdf</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>F5_P32_Boghossian &amp; David_2021_ASQ_Goal-Derived Category Construction and Product Category Nesting.png</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E165" t="n">
+        <v>33</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Bowden et al._2021_OrgStudies_Turning Back the Rising Sea - Theory Performativity in the shift from climate science to popular authority.pdf</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>F1_P13_Bowden et al._2021_OrgStudies_Turning Back the Rising Sea - Theory Performativity in the shift from climate science to popular authority.png</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E166" t="n">
+        <v>14</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Bowden et al._2021_OrgStudies_Turning Back the Rising Sea - Theory Performativity in the shift from climate science to popular authority.pdf</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>F2_P15_Bowden et al._2021_OrgStudies_Turning Back the Rising Sea - Theory Performativity in the shift from climate science to popular authority.png</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>2</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E167" t="n">
+        <v>16</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Bowden et al._2021_OrgStudies_Turning Back the Rising Sea - Theory Performativity in the shift from climate science to popular authority.pdf</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>F2_P17_Bowden et al._2021_OrgStudies_Turning Back the Rising Sea - Theory Performativity in the shift from climate science to popular authority.png</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E168" t="n">
+        <v>18</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Buchter_2021_ASQ_Escaping the Ellipsis of Diversity.pdf</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>F1_P22_Buchter_2021_ASQ_Escaping the Ellipsis of Diversity.png</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E169" t="n">
+        <v>23</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Cardador et al._2021_ASQ_Unpacking the Status Leveling Burden for Women in Male Dominated occupations.pdf</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>F1_P12_Cardador et al._2021_ASQ_Unpacking the Status Leveling Burden for Women in Male Dominated occupations.png</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E170" t="n">
+        <v>13</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>F1_P10_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E171" t="n">
+        <v>11</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>F2_P10_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E172" t="n">
+        <v>11</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>F2_P11_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>2</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E173" t="n">
+        <v>12</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>F2_P12_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>2</v>
+      </c>
+      <c r="D174" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E174" t="n">
+        <v>13</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>F2_P27_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>2</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E175" t="n">
+        <v>28</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>F2_P28_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E176" t="n">
+        <v>29</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>F3_P14_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>3</v>
+      </c>
+      <c r="D177" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E177" t="n">
+        <v>15</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>F3_P15_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E178" t="n">
+        <v>16</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>F3_P16_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>3</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E179" t="n">
+        <v>17</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>F3_P20_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>3</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E180" t="n">
+        <v>21</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>F3_P21_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>3</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E181" t="n">
+        <v>22</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>F3_P26_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>3</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E182" t="n">
+        <v>27</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>F3_P28_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>3</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E183" t="n">
+        <v>29</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.pdf</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>F1_P12_Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.png</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E184" t="n">
+        <v>13</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.pdf</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>F2_P15_Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.png</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E185" t="n">
+        <v>16</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.pdf</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>F2_P16_Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.png</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>2</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E186" t="n">
+        <v>17</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.pdf</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>F3_P18_Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.png</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E187" t="n">
+        <v>19</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.pdf</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>F3_P19_Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.png</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>3</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E188" t="n">
+        <v>20</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.pdf</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>F4_P21_Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.png</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>4</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E189" t="n">
+        <v>22</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.pdf</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>F4_P22_Endrissat &amp; Islam_2021_OrgStudies_Hackathons as Affective Circuits.png</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>4</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E190" t="n">
+        <v>23</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.pdf</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>F1_P15_Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.png</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E191" t="n">
+        <v>16</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.pdf</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>F2_P33_Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.png</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>2</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E192" t="n">
+        <v>34</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.pdf</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>F2_P35_Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.png</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>2</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E193" t="n">
+        <v>36</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.pdf</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>F2_P40_Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.png</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>2</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E194" t="n">
+        <v>41</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.pdf</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>F3_P33_Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.png</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>3</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E195" t="n">
+        <v>34</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.pdf</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>F3_P35_Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.png</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>3</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E196" t="n">
+        <v>36</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Fiedler, Casey &amp; Fath_2021_HR_Transnational Employee Voice and Knowledge Exchange.pdf</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>F1_P12_Fiedler, Casey &amp; Fath_2021_HR_Transnational Employee Voice and Knowledge Exchange.png</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E197" t="n">
+        <v>13</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Fu_2021_HR_Social action as a total phenomenon.pdf</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>F1_P2_Fu_2021_HR_Social action as a total phenomenon.png</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Fu_2021_HR_Social action as a total phenomenon.pdf</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>F2_P11_Fu_2021_HR_Social action as a total phenomenon.png</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>2</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E199" t="n">
+        <v>12</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Fu_2021_HR_Social action as a total phenomenon.pdf</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>F2_P20_Fu_2021_HR_Social action as a total phenomenon.png</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>2</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E200" t="n">
+        <v>21</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Fu_2021_HR_Social action as a total phenomenon.pdf</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>F3_P13_Fu_2021_HR_Social action as a total phenomenon.png</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>3</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E201" t="n">
+        <v>14</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Fu_2021_HR_Social action as a total phenomenon.pdf</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>F4_P13_Fu_2021_HR_Social action as a total phenomenon.png</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>4</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E202" t="n">
+        <v>14</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Fu_2021_HR_Social action as a total phenomenon.pdf</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>F4_P14_Fu_2021_HR_Social action as a total phenomenon.png</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>4</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E203" t="n">
+        <v>15</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Fu_2021_HR_Social action as a total phenomenon.pdf</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>F5_P16_Fu_2021_HR_Social action as a total phenomenon.png</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>5</v>
+      </c>
+      <c r="D204" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E204" t="n">
+        <v>17</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Gegenhuber, Ellmer &amp; Schubler_2021_HR_Microphones not Megaphones - Functional Crowdworker Voice Regimes on Digital Work Platforms.pdf</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>F1_P12_Gegenhuber, Ellmer &amp; Schubler_2021_HR_Microphones not Megaphones - Functional Crowdworker Voice Regimes on Digital Work Platforms.png</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E205" t="n">
+        <v>13</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Gegenhuber, Ellmer &amp; Schubler_2021_HR_Microphones not Megaphones - Functional Crowdworker Voice Regimes on Digital Work Platforms.pdf</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>F2_P14_Gegenhuber, Ellmer &amp; Schubler_2021_HR_Microphones not Megaphones - Functional Crowdworker Voice Regimes on Digital Work Platforms.png</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E206" t="n">
+        <v>15</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Gegenhuber, Ellmer &amp; Schubler_2021_HR_Microphones not Megaphones - Functional Crowdworker Voice Regimes on Digital Work Platforms.pdf</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>F2_P15_Gegenhuber, Ellmer &amp; Schubler_2021_HR_Microphones not Megaphones - Functional Crowdworker Voice Regimes on Digital Work Platforms.png</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>2</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E207" t="n">
+        <v>16</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Gegenhuber, Ellmer &amp; Schubler_2021_HR_Microphones not Megaphones - Functional Crowdworker Voice Regimes on Digital Work Platforms.pdf</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>F3_P18_Gegenhuber, Ellmer &amp; Schubler_2021_HR_Microphones not Megaphones - Functional Crowdworker Voice Regimes on Digital Work Platforms.png</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>3</v>
+      </c>
+      <c r="D208" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E208" t="n">
+        <v>19</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Gegenhuber, Ellmer &amp; Schubler_2021_HR_Microphones not Megaphones - Functional Crowdworker Voice Regimes on Digital Work Platforms.pdf</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>F3_P19_Gegenhuber, Ellmer &amp; Schubler_2021_HR_Microphones not Megaphones - Functional Crowdworker Voice Regimes on Digital Work Platforms.png</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>3</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E209" t="n">
+        <v>20</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Gegenhuber, Ellmer &amp; Schubler_2021_HR_Microphones not Megaphones - Functional Crowdworker Voice Regimes on Digital Work Platforms.pdf</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>F4_P21_Gegenhuber, Ellmer &amp; Schubler_2021_HR_Microphones not Megaphones - Functional Crowdworker Voice Regimes on Digital Work Platforms.png</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>4</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E210" t="n">
+        <v>22</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>F1_P12_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E211" t="n">
+        <v>13</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>F2_P18_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>2</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E212" t="n">
+        <v>19</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>F2_P19_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>2</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E213" t="n">
+        <v>20</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>F2_P20_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>2</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E214" t="n">
+        <v>21</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>F2_P21_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>2</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E215" t="n">
+        <v>22</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>F3_P23_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>3</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E216" t="n">
+        <v>24</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>F3_P24_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>3</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E217" t="n">
+        <v>25</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>F3_P25_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>3</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E218" t="n">
+        <v>26</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>F4_P26_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>4</v>
+      </c>
+      <c r="D219" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E219" t="n">
+        <v>27</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>F4_P27_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>4</v>
+      </c>
+      <c r="D220" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E220" t="n">
+        <v>28</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>F5_P28_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>5</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E221" t="n">
+        <v>29</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>F5_P30_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>5</v>
+      </c>
+      <c r="D222" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E222" t="n">
+        <v>31</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>F5_P31_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>5</v>
+      </c>
+      <c r="D223" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E223" t="n">
+        <v>32</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>F6_P36_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>6</v>
+      </c>
+      <c r="D224" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E224" t="n">
+        <v>37</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>F6_P37_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>6</v>
+      </c>
+      <c r="D225" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E225" t="n">
+        <v>38</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.pdf</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>F2_P7_Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.png</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>2</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E226" t="n">
+        <v>8</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.pdf</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>F2_P8_Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.png</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>2</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E227" t="n">
+        <v>9</v>
+      </c>
+      <c r="F227" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.pdf</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>F3_P9_Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.png</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>3</v>
+      </c>
+      <c r="D228" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E228" t="n">
+        <v>10</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.pdf</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>F3_P10_Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.png</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>3</v>
+      </c>
+      <c r="D229" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E229" t="n">
+        <v>11</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.pdf</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>F4_P11_Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.png</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>4</v>
+      </c>
+      <c r="D230" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E230" t="n">
+        <v>12</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.pdf</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>F5_P14_Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.png</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>5</v>
+      </c>
+      <c r="D231" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E231" t="n">
+        <v>15</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.pdf</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>F5_P15_Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.png</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>5</v>
+      </c>
+      <c r="D232" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E232" t="n">
+        <v>16</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.pdf</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>F6_P16_Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.png</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>6</v>
+      </c>
+      <c r="D233" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E233" t="n">
+        <v>17</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.pdf</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>F7_P17_Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.png</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>7</v>
+      </c>
+      <c r="D234" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E234" t="n">
+        <v>18</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.pdf</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>F7_P18_Gollnhofer &amp; Bhatnagar_2021_OrgStudies_2021_Investigating Category Dynamics - An Archival Study of the German Food Market.png</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>7</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E235" t="n">
+        <v>19</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Harvey &amp; Mueller_2021_OrgSci_Staying Alive Toward a Diverging Consensus Model of Overcoming a Bias Against Novelty in Groups.pdf</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>F1_P9_Harvey &amp; Mueller_2021_OrgSci_Staying Alive Toward a Diverging Consensus Model of Overcoming a Bias Against Novelty in Groups.png</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E236" t="n">
+        <v>10</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.pdf</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>F1_P10_Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.png</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E237" t="n">
+        <v>11</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.pdf</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>F2_P20_Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.png</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>2</v>
+      </c>
+      <c r="D238" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E238" t="n">
+        <v>21</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.pdf</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>F2_P21_Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.png</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>2</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E239" t="n">
+        <v>22</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.pdf</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>F3_P29_Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.png</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>3</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E240" t="n">
+        <v>30</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.pdf</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>F3_P30_Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.png</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>3</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E241" t="n">
+        <v>31</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.pdf</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>F8_P20_Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.png</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>8</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E242" t="n">
+        <v>21</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.pdf</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>F8_P27_Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.png</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>8</v>
+      </c>
+      <c r="D243" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E243" t="n">
+        <v>28</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.pdf</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>F1_P6_Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.png</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E244" t="n">
+        <v>7</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.pdf</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>F2_P9_Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.png</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>2</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E245" t="n">
+        <v>10</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.pdf</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>F2_P10_Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.png</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>2</v>
+      </c>
+      <c r="D246" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E246" t="n">
+        <v>11</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.pdf</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>F3_P11_Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.png</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>3</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E247" t="n">
+        <v>12</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.pdf</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>F3_P12_Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.png</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>3</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E248" t="n">
+        <v>13</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.pdf</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>F3_P26_Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.png</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>3</v>
+      </c>
+      <c r="D249" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E249" t="n">
+        <v>27</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.pdf</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>F3_P27_Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.png</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>3</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E250" t="n">
+        <v>28</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
+      </c>
+      <c r="G250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Jiang_2021_ASQ_Sustaining Meaningful Work in a Crisis - Adopting and Conveying a Situational Purpose.pdf</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>F1_P34_Jiang_2021_ASQ_Sustaining Meaningful Work in a Crisis - Adopting and Conveying a Situational Purpose.png</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E251" t="n">
+        <v>35</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
+      </c>
+      <c r="G251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Kahn &amp; Rouse_2021_AMJ_Navigating Space for Personal Agency.pdf</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>F1_P4_Kahn &amp; Rouse_2021_AMJ_Navigating Space for Personal Agency.png</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E252" t="n">
+        <v>5</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Kahn &amp; Rouse_2021_AMJ_Navigating Space for Personal Agency.pdf</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>F2_P18_Kahn &amp; Rouse_2021_AMJ_Navigating Space for Personal Agency.png</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>2</v>
+      </c>
+      <c r="D253" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E253" t="n">
+        <v>19</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
+      </c>
+      <c r="G253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.pdf</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>F1_P10_Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.png</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E254" t="n">
+        <v>11</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.pdf</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>F2_P10_Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.png</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>2</v>
+      </c>
+      <c r="D255" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E255" t="n">
+        <v>11</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.pdf</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>F2_P12_Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.png</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>2</v>
+      </c>
+      <c r="D256" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E256" t="n">
+        <v>13</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
+      </c>
+      <c r="G256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.pdf</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>F3_P10_Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.png</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>3</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E257" t="n">
+        <v>11</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.pdf</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>F3_P13_Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.png</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>3</v>
+      </c>
+      <c r="D258" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E258" t="n">
+        <v>14</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.pdf</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>F4_P11_Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.png</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>4</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E259" t="n">
+        <v>12</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.pdf</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>F4_P18_Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.png</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>4</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E260" t="n">
+        <v>19</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.pdf</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>F1_P10_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E261" t="n">
+        <v>11</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.pdf</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>F2_P15_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>2</v>
+      </c>
+      <c r="D262" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E262" t="n">
+        <v>16</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.pdf</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>F2_P17_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>2</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E263" t="n">
+        <v>18</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.pdf</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>F3_P18_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>3</v>
+      </c>
+      <c r="D264" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E264" t="n">
+        <v>19</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0</v>
+      </c>
+      <c r="G264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.pdf</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>F3_P19_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>3</v>
+      </c>
+      <c r="D265" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E265" t="n">
+        <v>20</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.pdf</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>F3_P24_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>3</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E266" t="n">
+        <v>25</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.pdf</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>F4_P28_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>4</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E267" t="n">
+        <v>29</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.pdf</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>F4_P29_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>4</v>
+      </c>
+      <c r="D268" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E268" t="n">
+        <v>30</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.pdf</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>F5_P35_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>5</v>
+      </c>
+      <c r="D269" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E269" t="n">
+        <v>36</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0</v>
+      </c>
+      <c r="G269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.pdf</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>F5_P36_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>5</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E270" t="n">
+        <v>37</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.pdf</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>F5_P37_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>5</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E271" t="n">
+        <v>38</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.pdf</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>F1_P6_Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.png</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E272" t="n">
+        <v>7</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.pdf</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>F2_P10_Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.png</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>2</v>
+      </c>
+      <c r="D273" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E273" t="n">
+        <v>11</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.pdf</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>F3_P10_Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.png</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>3</v>
+      </c>
+      <c r="D274" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E274" t="n">
+        <v>11</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0</v>
+      </c>
+      <c r="G274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.pdf</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>F3_P14_Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.png</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>3</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E275" t="n">
+        <v>15</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0</v>
+      </c>
+      <c r="G275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.pdf</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>F1_P12_Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.png</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E276" t="n">
+        <v>13</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0</v>
+      </c>
+      <c r="G276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.pdf</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>F2_P15_Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.png</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>2</v>
+      </c>
+      <c r="D277" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E277" t="n">
+        <v>16</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.pdf</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>F3_P26_Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.png</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>3</v>
+      </c>
+      <c r="D278" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E278" t="n">
+        <v>27</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0</v>
+      </c>
+      <c r="G278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.pdf</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>F4_P27_Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.png</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>4</v>
+      </c>
+      <c r="D279" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E279" t="n">
+        <v>28</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0</v>
+      </c>
+      <c r="G279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.pdf</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>F4_P28_Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.png</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>4</v>
+      </c>
+      <c r="D280" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E280" t="n">
+        <v>29</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.pdf</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>F4_P29_Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.png</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>4</v>
+      </c>
+      <c r="D281" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E281" t="n">
+        <v>30</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0</v>
+      </c>
+      <c r="G281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.pdf</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>F1_P15_Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.png</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E282" t="n">
+        <v>16</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0</v>
+      </c>
+      <c r="G282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.pdf</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>F2_P16_Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.png</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>2</v>
+      </c>
+      <c r="D283" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E283" t="n">
+        <v>17</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0</v>
+      </c>
+      <c r="G283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.pdf</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>F2_P28_Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.png</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>2</v>
+      </c>
+      <c r="D284" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E284" t="n">
+        <v>29</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0</v>
+      </c>
+      <c r="G284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.pdf</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>F2_P33_Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.png</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>2</v>
+      </c>
+      <c r="D285" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E285" t="n">
+        <v>34</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0</v>
+      </c>
+      <c r="G285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.pdf</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>F3_P23_Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.png</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>3</v>
+      </c>
+      <c r="D286" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E286" t="n">
+        <v>24</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0</v>
+      </c>
+      <c r="G286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.pdf</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>F4_P29_Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.png</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>4</v>
+      </c>
+      <c r="D287" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E287" t="n">
+        <v>30</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0</v>
+      </c>
+      <c r="G287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.pdf</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>F5_P39_Krishnan et al._2021_ASQ_An Interaction Ritual Theory of Social Resource Exchange.png</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>5</v>
+      </c>
+      <c r="D288" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E288" t="n">
+        <v>40</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0</v>
+      </c>
+      <c r="G288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.pdf</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>F1_P1_Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.png</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+      <c r="D289" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E289" t="n">
+        <v>2</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0</v>
+      </c>
+      <c r="G289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.pdf</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>F2_P18_Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.png</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>2</v>
+      </c>
+      <c r="D290" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E290" t="n">
+        <v>19</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0</v>
+      </c>
+      <c r="G290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.pdf</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>F2_P26_Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.png</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>2</v>
+      </c>
+      <c r="D291" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E291" t="n">
+        <v>27</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0</v>
+      </c>
+      <c r="G291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.pdf</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>F3_P22_Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.png</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>3</v>
+      </c>
+      <c r="D292" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E292" t="n">
+        <v>23</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0</v>
+      </c>
+      <c r="G292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.pdf</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>F3_P23_Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.png</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>3</v>
+      </c>
+      <c r="D293" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E293" t="n">
+        <v>24</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0</v>
+      </c>
+      <c r="G293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.pdf</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>F3_P25_Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.png</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>3</v>
+      </c>
+      <c r="D294" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E294" t="n">
+        <v>26</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0</v>
+      </c>
+      <c r="G294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.pdf</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>F3_P28_Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.png</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>3</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E295" t="n">
+        <v>29</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0</v>
+      </c>
+      <c r="G295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.pdf</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>F4_P24_Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.png</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>4</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E296" t="n">
+        <v>25</v>
+      </c>
+      <c r="F296" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.pdf</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>F4_P25_Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.png</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>4</v>
+      </c>
+      <c r="D297" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E297" t="n">
+        <v>26</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0</v>
+      </c>
+      <c r="G297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.pdf</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>F4_P26_Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.png</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>4</v>
+      </c>
+      <c r="D298" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E298" t="n">
+        <v>27</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0</v>
+      </c>
+      <c r="G298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>F1_P4_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E299" t="n">
+        <v>5</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0</v>
+      </c>
+      <c r="G299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>F2_P10_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>2</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E300" t="n">
+        <v>11</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0</v>
+      </c>
+      <c r="G300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>F2_P11_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>2</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E301" t="n">
+        <v>12</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0</v>
+      </c>
+      <c r="G301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>F2_P12_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>2</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E302" t="n">
+        <v>13</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0</v>
+      </c>
+      <c r="G302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>F2_P13_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>2</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E303" t="n">
+        <v>14</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0</v>
+      </c>
+      <c r="G303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>F2_P14_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>2</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E304" t="n">
+        <v>15</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0</v>
+      </c>
+      <c r="G304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>F3_P14_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>3</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E305" t="n">
+        <v>15</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0</v>
+      </c>
+      <c r="G305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>F3_P15_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>3</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E306" t="n">
+        <v>16</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0</v>
+      </c>
+      <c r="G306" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>F3_P16_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>3</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E307" t="n">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0</v>
+      </c>
+      <c r="G307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>F3_P18_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>3</v>
+      </c>
+      <c r="D308" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E308" t="n">
+        <v>19</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0</v>
+      </c>
+      <c r="G308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>F3_P19_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>3</v>
+      </c>
+      <c r="D309" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E309" t="n">
+        <v>20</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0</v>
+      </c>
+      <c r="G309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>F3_P20_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>3</v>
+      </c>
+      <c r="D310" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E310" t="n">
+        <v>21</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0</v>
+      </c>
+      <c r="G310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Mannucci et al._2021_ASQ_Developing Improvisational Skills.pdf</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>F1_P11_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E311" t="n">
+        <v>12</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0</v>
+      </c>
+      <c r="G311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Mannucci et al._2021_ASQ_Developing Improvisational Skills.pdf</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>F2_P16_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>2</v>
+      </c>
+      <c r="D312" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E312" t="n">
+        <v>17</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0</v>
+      </c>
+      <c r="G312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Mannucci et al._2021_ASQ_Developing Improvisational Skills.pdf</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>F2_P17_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>2</v>
+      </c>
+      <c r="D313" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E313" t="n">
+        <v>18</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0</v>
+      </c>
+      <c r="G313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Mannucci et al._2021_ASQ_Developing Improvisational Skills.pdf</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>F3_P23_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>3</v>
+      </c>
+      <c r="D314" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E314" t="n">
+        <v>24</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0</v>
+      </c>
+      <c r="G314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Mannucci et al._2021_ASQ_Developing Improvisational Skills.pdf</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>F3_P24_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>3</v>
+      </c>
+      <c r="D315" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E315" t="n">
+        <v>25</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0</v>
+      </c>
+      <c r="G315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Mannucci et al._2021_ASQ_Developing Improvisational Skills.pdf</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>F4_P25_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>4</v>
+      </c>
+      <c r="D316" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E316" t="n">
+        <v>26</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0</v>
+      </c>
+      <c r="G316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Mannucci et al._2021_ASQ_Developing Improvisational Skills.pdf</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>F5_P27_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>5</v>
+      </c>
+      <c r="D317" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E317" t="n">
+        <v>28</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0</v>
+      </c>
+      <c r="G317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Mannucci et al._2021_ASQ_Developing Improvisational Skills.pdf</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>F6_P29_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>6</v>
+      </c>
+      <c r="D318" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E318" t="n">
+        <v>30</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0</v>
+      </c>
+      <c r="G318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Mannucci et al._2021_ASQ_Developing Improvisational Skills.pdf</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>F6_P30_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>6</v>
+      </c>
+      <c r="D319" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E319" t="n">
+        <v>31</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0</v>
+      </c>
+      <c r="G319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Mannucci et al._2021_ASQ_Developing Improvisational Skills.pdf</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>F7_P31_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>7</v>
+      </c>
+      <c r="D320" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E320" t="n">
+        <v>32</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0</v>
+      </c>
+      <c r="G320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Mannucci et al._2021_ASQ_Developing Improvisational Skills.pdf</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>F7_P32_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>7</v>
+      </c>
+      <c r="D321" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E321" t="n">
+        <v>33</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0</v>
+      </c>
+      <c r="G321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Martin et al._2021_Org Studies_Changing Logics in Healthcare and their effects on the Identity Motivates and Identity Work of Doctors.pdf</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>F1_P7_Martin et al._2021_Org Studies_Changing Logics in Healthcare and their effects on the Identity Motivates and Identity Work of Doctors.png</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E322" t="n">
+        <v>8</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0</v>
+      </c>
+      <c r="G322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.pdf</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>F1_P9_Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.png</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E323" t="n">
+        <v>10</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0</v>
+      </c>
+      <c r="G323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.pdf</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>F2_P27_Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.png</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>2</v>
+      </c>
+      <c r="D324" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E324" t="n">
+        <v>28</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0</v>
+      </c>
+      <c r="G324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.pdf</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>F2_P28_Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.png</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>2</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E325" t="n">
+        <v>29</v>
+      </c>
+      <c r="F325" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.pdf</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>F2_P29_Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.png</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>2</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E326" t="n">
+        <v>30</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0</v>
+      </c>
+      <c r="G326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.pdf</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>F2_P31_Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.png</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>2</v>
+      </c>
+      <c r="D327" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E327" t="n">
+        <v>32</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0</v>
+      </c>
+      <c r="G327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.pdf</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>F3_P29_Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.png</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>3</v>
+      </c>
+      <c r="D328" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E328" t="n">
+        <v>30</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0</v>
+      </c>
+      <c r="G328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.pdf</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>F3_P30_Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.png</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>3</v>
+      </c>
+      <c r="D329" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E329" t="n">
+        <v>31</v>
+      </c>
+      <c r="F329" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.pdf</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>F3_P31_Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.png</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>3</v>
+      </c>
+      <c r="D330" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E330" t="n">
+        <v>32</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0</v>
+      </c>
+      <c r="G330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Mikkelsen_2021_HR_Looking over your shoulder.pdf</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>F1_P20_Mikkelsen_2021_HR_Looking over your shoulder.png</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>1</v>
+      </c>
+      <c r="D331" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E331" t="n">
+        <v>21</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0</v>
+      </c>
+      <c r="G331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Montanari et al._2021_HR_City Context and Subjective Career Success.pdf</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>F1_P6_Montanari et al._2021_HR_City Context and Subjective Career Success.png</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E332" t="n">
+        <v>7</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0</v>
+      </c>
+      <c r="G332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>F1_P10_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E333" t="n">
+        <v>11</v>
+      </c>
+      <c r="F333" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>F2_P7_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>2</v>
+      </c>
+      <c r="D334" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E334" t="n">
+        <v>8</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0</v>
+      </c>
+      <c r="G334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>F2_P11_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>2</v>
+      </c>
+      <c r="D335" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E335" t="n">
+        <v>12</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0</v>
+      </c>
+      <c r="G335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>F2_P18_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>2</v>
+      </c>
+      <c r="D336" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E336" t="n">
+        <v>19</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0</v>
+      </c>
+      <c r="G336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>F3_P9_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>3</v>
+      </c>
+      <c r="D337" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E337" t="n">
+        <v>10</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0</v>
+      </c>
+      <c r="G337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>F3_P11_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>3</v>
+      </c>
+      <c r="D338" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E338" t="n">
+        <v>12</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0</v>
+      </c>
+      <c r="G338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>F4_P9_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>4</v>
+      </c>
+      <c r="D339" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E339" t="n">
+        <v>10</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0</v>
+      </c>
+      <c r="G339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>F4_P12_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>4</v>
+      </c>
+      <c r="D340" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E340" t="n">
+        <v>13</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0</v>
+      </c>
+      <c r="G340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>F5_P21_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>5</v>
+      </c>
+      <c r="D341" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E341" t="n">
+        <v>22</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0</v>
+      </c>
+      <c r="G341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>F5_P22_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>5</v>
+      </c>
+      <c r="D342" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E342" t="n">
+        <v>23</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0</v>
+      </c>
+      <c r="G342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>F6_P25_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>6</v>
+      </c>
+      <c r="D343" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E343" t="n">
+        <v>26</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0</v>
+      </c>
+      <c r="G343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>F6_P26_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>6</v>
+      </c>
+      <c r="D344" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E344" t="n">
+        <v>27</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0</v>
+      </c>
+      <c r="G344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.pdf</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>F1_P4_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+      <c r="D345" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E345" t="n">
+        <v>5</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0</v>
+      </c>
+      <c r="G345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.pdf</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>F2_P2_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>2</v>
+      </c>
+      <c r="D346" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E346" t="n">
+        <v>3</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0</v>
+      </c>
+      <c r="G346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.pdf</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>F2_P4_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>2</v>
+      </c>
+      <c r="D347" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E347" t="n">
+        <v>5</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0</v>
+      </c>
+      <c r="G347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.pdf</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>F2_P5_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>2</v>
+      </c>
+      <c r="D348" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E348" t="n">
+        <v>6</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0</v>
+      </c>
+      <c r="G348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.pdf</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>F2_P6_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>2</v>
+      </c>
+      <c r="D349" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E349" t="n">
+        <v>7</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0</v>
+      </c>
+      <c r="G349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.pdf</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>F2_P13_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>2</v>
+      </c>
+      <c r="D350" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E350" t="n">
+        <v>14</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0</v>
+      </c>
+      <c r="G350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.pdf</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>F2_P25_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>2</v>
+      </c>
+      <c r="D351" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E351" t="n">
+        <v>26</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0</v>
+      </c>
+      <c r="G351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.pdf</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>F2_P26_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>2</v>
+      </c>
+      <c r="D352" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E352" t="n">
+        <v>27</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0</v>
+      </c>
+      <c r="G352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.pdf</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>F2_P27_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>2</v>
+      </c>
+      <c r="D353" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E353" t="n">
+        <v>28</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0</v>
+      </c>
+      <c r="G353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.pdf</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>F3_P10_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>3</v>
+      </c>
+      <c r="D354" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E354" t="n">
+        <v>11</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0</v>
+      </c>
+      <c r="G354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.pdf</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>F3_P11_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>3</v>
+      </c>
+      <c r="D355" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E355" t="n">
+        <v>12</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0</v>
+      </c>
+      <c r="G355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.pdf</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>F3_P12_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>3</v>
+      </c>
+      <c r="D356" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E356" t="n">
+        <v>13</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0</v>
+      </c>
+      <c r="G356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.pdf</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>F3_P13_Murthy_2021_J Management Studies _Overcoming the Early‐stage Conundrum of Digital Platform Ecosystem Emergence  A.png</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>3</v>
+      </c>
+      <c r="D357" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E357" t="n">
+        <v>14</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0</v>
+      </c>
+      <c r="G357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Pascucci et al._2021_Org Studies_Forging Forms of Authority through the Sociomateriality of Food in Partial Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>F1_P7_Pascucci et al._2021_Org Studies_Forging Forms of Authority through the Sociomateriality of Food in Partial Organizations.png</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>1</v>
+      </c>
+      <c r="D358" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E358" t="n">
+        <v>8</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0</v>
+      </c>
+      <c r="G358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Rahman_2021_ASQ_The Invisible Cage - Worker's Reactivity to Opaque Algorithmic Evaluations.pdf</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>F1_P15_Rahman_2021_ASQ_The Invisible Cage - Worker's Reactivity to Opaque Algorithmic Evaluations.png</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>1</v>
+      </c>
+      <c r="D359" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E359" t="n">
+        <v>16</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0</v>
+      </c>
+      <c r="G359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Rahman_2021_ASQ_The Invisible Cage - Worker's Reactivity to Opaque Algorithmic Evaluations.pdf</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>F2_P17_Rahman_2021_ASQ_The Invisible Cage - Worker's Reactivity to Opaque Algorithmic Evaluations.png</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>2</v>
+      </c>
+      <c r="D360" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E360" t="n">
+        <v>18</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0</v>
+      </c>
+      <c r="G360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Rahman_2021_ASQ_The Invisible Cage - Worker's Reactivity to Opaque Algorithmic Evaluations.pdf</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>F3_P21_Rahman_2021_ASQ_The Invisible Cage - Worker's Reactivity to Opaque Algorithmic Evaluations.png</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>3</v>
+      </c>
+      <c r="D361" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E361" t="n">
+        <v>22</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0</v>
+      </c>
+      <c r="G361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Rahman_2021_ASQ_The Invisible Cage - Worker's Reactivity to Opaque Algorithmic Evaluations.pdf</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>F3_P22_Rahman_2021_ASQ_The Invisible Cage - Worker's Reactivity to Opaque Algorithmic Evaluations.png</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>3</v>
+      </c>
+      <c r="D362" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E362" t="n">
+        <v>23</v>
+      </c>
+      <c r="F362" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Reypens, Lievens &amp; Blazevic_2021_OrgStudies_Hybrid Orchestration in Multi-stakeholder Innovation Networks.pdf</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>F1_P8_Reypens, Lievens &amp; Blazevic_2021_OrgStudies_Hybrid Orchestration in Multi-stakeholder Innovation Networks.png</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>1</v>
+      </c>
+      <c r="D363" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E363" t="n">
+        <v>9</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0</v>
+      </c>
+      <c r="G363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Reypens, Lievens &amp; Blazevic_2021_OrgStudies_Hybrid Orchestration in Multi-stakeholder Innovation Networks.pdf</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>F1_P14_Reypens, Lievens &amp; Blazevic_2021_OrgStudies_Hybrid Orchestration in Multi-stakeholder Innovation Networks.png</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>1</v>
+      </c>
+      <c r="D364" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E364" t="n">
+        <v>15</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0</v>
+      </c>
+      <c r="G364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Ruebottom &amp; Toubiana_2021_AMJ_Constraints and Opportunities of Stigma Enterpreneurial Emancipation in the Sex Industry.pdf</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>F1_P7_Ruebottom &amp; Toubiana_2021_AMJ_Constraints and Opportunities of Stigma Enterpreneurial Emancipation in the Sex Industry.png</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>1</v>
+      </c>
+      <c r="D365" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E365" t="n">
+        <v>8</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0</v>
+      </c>
+      <c r="G365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Satterstrom et al._2021_ASQ_The Voice Cultivation Process.pdf</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>F1_P31_Satterstrom et al._2021_ASQ_The Voice Cultivation Process.png</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>1</v>
+      </c>
+      <c r="D366" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E366" t="n">
+        <v>32</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0</v>
+      </c>
+      <c r="G366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Scholz &amp; Ingold_2021_HR_Activating hte Ideal JobSeeker Experiences of individuals with Mental Health Conditions on the UK Work Programme.pdf</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>F1_P8_Scholz &amp; Ingold_2021_HR_Activating hte Ideal JobSeeker Experiences of individuals with Mental Health Conditions on the UK Work Programme.png</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>1</v>
+      </c>
+      <c r="D367" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E367" t="n">
+        <v>9</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0</v>
+      </c>
+      <c r="G367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Scholz &amp; Ingold_2021_HR_Activating hte Ideal JobSeeker Experiences of individuals with Mental Health Conditions on the UK Work Programme.pdf</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>F2_P18_Scholz &amp; Ingold_2021_HR_Activating hte Ideal JobSeeker Experiences of individuals with Mental Health Conditions on the UK Work Programme.png</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>2</v>
+      </c>
+      <c r="D368" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E368" t="n">
+        <v>19</v>
+      </c>
+      <c r="F368" t="n">
+        <v>0</v>
+      </c>
+      <c r="G368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>F1_P3_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>1</v>
+      </c>
+      <c r="D369" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E369" t="n">
+        <v>4</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0</v>
+      </c>
+      <c r="G369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>F2_P7_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>2</v>
+      </c>
+      <c r="D370" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E370" t="n">
+        <v>8</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0</v>
+      </c>
+      <c r="G370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>F2_P8_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>2</v>
+      </c>
+      <c r="D371" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E371" t="n">
+        <v>9</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0</v>
+      </c>
+      <c r="G371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>F2_P9_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>2</v>
+      </c>
+      <c r="D372" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E372" t="n">
+        <v>10</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0</v>
+      </c>
+      <c r="G372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>F3_P13_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>3</v>
+      </c>
+      <c r="D373" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E373" t="n">
+        <v>14</v>
+      </c>
+      <c r="F373" t="n">
+        <v>0</v>
+      </c>
+      <c r="G373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>F3_P14_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>3</v>
+      </c>
+      <c r="D374" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E374" t="n">
+        <v>15</v>
+      </c>
+      <c r="F374" t="n">
+        <v>0</v>
+      </c>
+      <c r="G374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>F4_P19_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>4</v>
+      </c>
+      <c r="D375" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E375" t="n">
+        <v>20</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0</v>
+      </c>
+      <c r="G375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>F4_P20_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>4</v>
+      </c>
+      <c r="D376" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E376" t="n">
+        <v>21</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0</v>
+      </c>
+      <c r="G376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>F4_P21_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>4</v>
+      </c>
+      <c r="D377" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E377" t="n">
+        <v>22</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0</v>
+      </c>
+      <c r="G377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>F5_P22_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>5</v>
+      </c>
+      <c r="D378" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E378" t="n">
+        <v>23</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0</v>
+      </c>
+      <c r="G378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>F6_P24_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>6</v>
+      </c>
+      <c r="D379" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E379" t="n">
+        <v>25</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0</v>
+      </c>
+      <c r="G379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>F6_P25_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>6</v>
+      </c>
+      <c r="D380" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E380" t="n">
+        <v>26</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0</v>
+      </c>
+      <c r="G380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>F7_P25_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>7</v>
+      </c>
+      <c r="D381" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E381" t="n">
+        <v>26</v>
+      </c>
+      <c r="F381" t="n">
+        <v>0</v>
+      </c>
+      <c r="G381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>F7_P26_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>7</v>
+      </c>
+      <c r="D382" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E382" t="n">
+        <v>27</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0</v>
+      </c>
+      <c r="G382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>F8_P32_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>8</v>
+      </c>
+      <c r="D383" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E383" t="n">
+        <v>33</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0</v>
+      </c>
+      <c r="G383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>F8_P33_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>8</v>
+      </c>
+      <c r="D384" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E384" t="n">
+        <v>34</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0</v>
+      </c>
+      <c r="G384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>F9_P37_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>9</v>
+      </c>
+      <c r="D385" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E385" t="n">
+        <v>38</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0</v>
+      </c>
+      <c r="G385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>F9_P38_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>9</v>
+      </c>
+      <c r="D386" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E386" t="n">
+        <v>39</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0</v>
+      </c>
+      <c r="G386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>F1_P6_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>1</v>
+      </c>
+      <c r="D387" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E387" t="n">
+        <v>7</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0</v>
+      </c>
+      <c r="G387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>F2_P7_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>2</v>
+      </c>
+      <c r="D388" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E388" t="n">
+        <v>8</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0</v>
+      </c>
+      <c r="G388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>F2_P9_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>2</v>
+      </c>
+      <c r="D389" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E389" t="n">
+        <v>10</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0</v>
+      </c>
+      <c r="G389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>F3_P7_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>3</v>
+      </c>
+      <c r="D390" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E390" t="n">
+        <v>8</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0</v>
+      </c>
+      <c r="G390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>F3_P10_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>3</v>
+      </c>
+      <c r="D391" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E391" t="n">
+        <v>11</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0</v>
+      </c>
+      <c r="G391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>F3_P14_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>3</v>
+      </c>
+      <c r="D392" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E392" t="n">
+        <v>15</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0</v>
+      </c>
+      <c r="G392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>F3_P15_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>3</v>
+      </c>
+      <c r="D393" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E393" t="n">
+        <v>16</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0</v>
+      </c>
+      <c r="G393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>F3_P17_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>3</v>
+      </c>
+      <c r="D394" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E394" t="n">
+        <v>18</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0</v>
+      </c>
+      <c r="G394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>F4_P7_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>4</v>
+      </c>
+      <c r="D395" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E395" t="n">
+        <v>8</v>
+      </c>
+      <c r="F395" t="n">
+        <v>0</v>
+      </c>
+      <c r="G395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>F4_P11_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>4</v>
+      </c>
+      <c r="D396" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E396" t="n">
+        <v>12</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0</v>
+      </c>
+      <c r="G396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>F5_P9_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>5</v>
+      </c>
+      <c r="D397" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E397" t="n">
+        <v>10</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0</v>
+      </c>
+      <c r="G397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>F5_P10_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>5</v>
+      </c>
+      <c r="D398" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E398" t="n">
+        <v>11</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0</v>
+      </c>
+      <c r="G398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>F5_P11_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>5</v>
+      </c>
+      <c r="D399" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E399" t="n">
+        <v>12</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0</v>
+      </c>
+      <c r="G399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>F6_P15_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>6</v>
+      </c>
+      <c r="D400" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E400" t="n">
+        <v>16</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0</v>
+      </c>
+      <c r="G400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>F6_P17_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>6</v>
+      </c>
+      <c r="D401" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E401" t="n">
+        <v>18</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0</v>
+      </c>
+      <c r="G401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>F7_P15_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>7</v>
+      </c>
+      <c r="D402" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E402" t="n">
+        <v>16</v>
+      </c>
+      <c r="F402" t="n">
+        <v>0</v>
+      </c>
+      <c r="G402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>F7_P16_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>7</v>
+      </c>
+      <c r="D403" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E403" t="n">
+        <v>17</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0</v>
+      </c>
+      <c r="G403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>F8_P18_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>8</v>
+      </c>
+      <c r="D404" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E404" t="n">
+        <v>19</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0</v>
+      </c>
+      <c r="G404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.pdf</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>F8_P19_Steigenberg &amp; Lubcke_2021_OrgStudies_Space and sensemaking in high reliability task concepts.png</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>8</v>
+      </c>
+      <c r="D405" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E405" t="n">
+        <v>20</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0</v>
+      </c>
+      <c r="G405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.pdf</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>F1_P12_Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.png</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>1</v>
+      </c>
+      <c r="D406" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E406" t="n">
+        <v>13</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0</v>
+      </c>
+      <c r="G406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Tassabehji et al._2021_HR_From Female Computers to Male Computers.pdf</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>F1_P6_Tassabehji et al._2021_HR_From Female Computers to Male Computers.png</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>1</v>
+      </c>
+      <c r="D407" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E407" t="n">
+        <v>7</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0</v>
+      </c>
+      <c r="G407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Vallaster et al._2021_OrgStudies_Serving Multiple Masters - the Role of micro-foundations of dynamic capabilities in addressing tensions in for-profit hybrid organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>F2_P12_Vallaster et al._2021_OrgStudies_Serving Multiple Masters - the Role of micro-foundations of dynamic capabilities in addressing tensions in for-profit hybrid organizations.png</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>2</v>
+      </c>
+      <c r="D408" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E408" t="n">
+        <v>13</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0</v>
+      </c>
+      <c r="G408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Vallaster et al._2021_OrgStudies_Serving Multiple Masters - the Role of micro-foundations of dynamic capabilities in addressing tensions in for-profit hybrid organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>F2_P13_Vallaster et al._2021_OrgStudies_Serving Multiple Masters - the Role of micro-foundations of dynamic capabilities in addressing tensions in for-profit hybrid organizations.png</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>2</v>
+      </c>
+      <c r="D409" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E409" t="n">
+        <v>14</v>
+      </c>
+      <c r="F409" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Vardaman et al._2021_HR_Reframing Childhood Obesity.pdf</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>F1_P7_Vardaman et al._2021_HR_Reframing Childhood Obesity.png</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>1</v>
+      </c>
+      <c r="D410" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E410" t="n">
+        <v>8</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0</v>
+      </c>
+      <c r="G410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Vardaman et al._2021_HR_Reframing Childhood Obesity.pdf</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>F2_P18_Vardaman et al._2021_HR_Reframing Childhood Obesity.png</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>2</v>
+      </c>
+      <c r="D411" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E411" t="n">
+        <v>19</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0</v>
+      </c>
+      <c r="G411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Vardaman et al._2021_HR_Reframing Childhood Obesity.pdf</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>F2_P20_Vardaman et al._2021_HR_Reframing Childhood Obesity.png</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>2</v>
+      </c>
+      <c r="D412" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E412" t="n">
+        <v>21</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0</v>
+      </c>
+      <c r="G412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Veltrop et al._2021_AMJ_Too Unsafe to Monitor.pdf</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>F1_P12_Veltrop et al._2021_AMJ_Too Unsafe to Monitor.png</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>1</v>
+      </c>
+      <c r="D413" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E413" t="n">
+        <v>13</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0</v>
+      </c>
+      <c r="G413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Veltrop et al._2021_AMJ_Too Unsafe to Monitor.pdf</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>F2_P14_Veltrop et al._2021_AMJ_Too Unsafe to Monitor.png</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>2</v>
+      </c>
+      <c r="D414" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E414" t="n">
+        <v>15</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0</v>
+      </c>
+      <c r="G414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Veltrop et al._2021_AMJ_Too Unsafe to Monitor.pdf</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>F2_P16_Veltrop et al._2021_AMJ_Too Unsafe to Monitor.png</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>2</v>
+      </c>
+      <c r="D415" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E415" t="n">
+        <v>17</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0</v>
+      </c>
+      <c r="G415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.pdf</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>F1_P11_Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.png</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>1</v>
+      </c>
+      <c r="D416" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E416" t="n">
+        <v>12</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0</v>
+      </c>
+      <c r="G416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.pdf</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>F2_P11_Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.png</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>2</v>
+      </c>
+      <c r="D417" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E417" t="n">
+        <v>12</v>
+      </c>
+      <c r="F417" t="n">
+        <v>0</v>
+      </c>
+      <c r="G417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.pdf</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>F2_P13_Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.png</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>2</v>
+      </c>
+      <c r="D418" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E418" t="n">
+        <v>14</v>
+      </c>
+      <c r="F418" t="n">
+        <v>0</v>
+      </c>
+      <c r="G418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.pdf</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>F2_P17_Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.png</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>2</v>
+      </c>
+      <c r="D419" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E419" t="n">
+        <v>18</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0</v>
+      </c>
+      <c r="G419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.pdf</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>F3_P19_Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.png</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>3</v>
+      </c>
+      <c r="D420" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E420" t="n">
+        <v>20</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0</v>
+      </c>
+      <c r="G420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.pdf</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>F3_P20_Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.png</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>3</v>
+      </c>
+      <c r="D421" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E421" t="n">
+        <v>21</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0</v>
+      </c>
+      <c r="G421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.pdf</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>F3_P21_Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.png</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>3</v>
+      </c>
+      <c r="D422" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E422" t="n">
+        <v>22</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0</v>
+      </c>
+      <c r="G422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Wilhelm_2021_J Management Studies _ When  Are Dynamic Capabilities Routine  A Mixed‐Methods Configurational Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>F1_P14_Wilhelm_2021_J Management Studies _ When  Are Dynamic Capabilities Routine  A Mixed‐Methods Configurational Analysis.png</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>1</v>
+      </c>
+      <c r="D423" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E423" t="n">
+        <v>15</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0</v>
+      </c>
+      <c r="G423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Wilhelm_2021_J Management Studies _ When  Are Dynamic Capabilities Routine  A Mixed‐Methods Configurational Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>F2_P20_Wilhelm_2021_J Management Studies _ When  Are Dynamic Capabilities Routine  A Mixed‐Methods Configurational Analysis.png</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>2</v>
+      </c>
+      <c r="D424" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E424" t="n">
+        <v>21</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0</v>
+      </c>
+      <c r="G424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Wilhelm_2021_J Management Studies _ When  Are Dynamic Capabilities Routine  A Mixed‐Methods Configurational Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>F2_P21_Wilhelm_2021_J Management Studies _ When  Are Dynamic Capabilities Routine  A Mixed‐Methods Configurational Analysis.png</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>2</v>
+      </c>
+      <c r="D425" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E425" t="n">
+        <v>22</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0</v>
+      </c>
+      <c r="G425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.pdf</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>F1_P5_Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.png</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>1</v>
+      </c>
+      <c r="D426" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E426" t="n">
+        <v>6</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0</v>
+      </c>
+      <c r="G426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.pdf</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>F2_P9_Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.png</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>2</v>
+      </c>
+      <c r="D427" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E427" t="n">
+        <v>10</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0</v>
+      </c>
+      <c r="G427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.pdf</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>F2_P10_Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.png</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>2</v>
+      </c>
+      <c r="D428" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E428" t="n">
+        <v>11</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0</v>
+      </c>
+      <c r="G428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.pdf</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>F3_P10_Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.png</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>3</v>
+      </c>
+      <c r="D429" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E429" t="n">
+        <v>11</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0</v>
+      </c>
+      <c r="G429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.pdf</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>F3_P11_Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.png</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>3</v>
+      </c>
+      <c r="D430" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E430" t="n">
+        <v>12</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0</v>
+      </c>
+      <c r="G430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.pdf</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>F3_P16_Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.png</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>3</v>
+      </c>
+      <c r="D431" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E431" t="n">
+        <v>17</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0</v>
+      </c>
+      <c r="G431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.pdf</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>F3_P25_Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.png</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>3</v>
+      </c>
+      <c r="D432" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E432" t="n">
+        <v>26</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0</v>
+      </c>
+      <c r="G432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Wright et al._2021_ASQ_Maintaining Places of Social Inclusion - Ebola and the Emergency Department.pdf</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>F1_P28_Wright et al._2021_ASQ_Maintaining Places of Social Inclusion - Ebola and the Emergency Department.png</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>1</v>
+      </c>
+      <c r="D433" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E433" t="n">
+        <v>29</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0</v>
+      </c>
+      <c r="G433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.pdf</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>F1_P8_Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.png</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>1</v>
+      </c>
+      <c r="D434" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E434" t="n">
+        <v>9</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0</v>
+      </c>
+      <c r="G434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.pdf</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>F2_P7_Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.png</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>2</v>
+      </c>
+      <c r="D435" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E435" t="n">
+        <v>8</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0</v>
+      </c>
+      <c r="G435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.pdf</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>F2_P11_Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.png</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>2</v>
+      </c>
+      <c r="D436" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E436" t="n">
+        <v>12</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0</v>
+      </c>
+      <c r="G436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.pdf</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>F2_P12_Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.png</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>2</v>
+      </c>
+      <c r="D437" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E437" t="n">
+        <v>13</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0</v>
+      </c>
+      <c r="G437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.pdf</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>F2_P14_Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.png</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>2</v>
+      </c>
+      <c r="D438" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E438" t="n">
+        <v>15</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0</v>
+      </c>
+      <c r="G438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.pdf</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>F2_P15_Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.png</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>2</v>
+      </c>
+      <c r="D439" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E439" t="n">
+        <v>16</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0</v>
+      </c>
+      <c r="G439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.pdf</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>F2_P16_Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.png</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>2</v>
+      </c>
+      <c r="D440" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E440" t="n">
+        <v>17</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0</v>
+      </c>
+      <c r="G440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.pdf</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>F2_P19_Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.png</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>2</v>
+      </c>
+      <c r="D441" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E441" t="n">
+        <v>20</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0</v>
+      </c>
+      <c r="G441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.pdf</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>F3_P17_Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.png</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>3</v>
+      </c>
+      <c r="D442" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E442" t="n">
+        <v>18</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0</v>
+      </c>
+      <c r="G442" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
+++ b/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G841"/>
+  <dimension ref="A1:G1088"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23150,6 +23150,6675 @@
         <v>0</v>
       </c>
     </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>F2_P15_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C842" t="n">
+        <v>2</v>
+      </c>
+      <c r="D842" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E842" t="n">
+        <v>16</v>
+      </c>
+      <c r="F842" t="n">
+        <v>0</v>
+      </c>
+      <c r="G842" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>F2_P16_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C843" t="n">
+        <v>2</v>
+      </c>
+      <c r="D843" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E843" t="n">
+        <v>17</v>
+      </c>
+      <c r="F843" t="n">
+        <v>0</v>
+      </c>
+      <c r="G843" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>F2_P17_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C844" t="n">
+        <v>2</v>
+      </c>
+      <c r="D844" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E844" t="n">
+        <v>18</v>
+      </c>
+      <c r="F844" t="n">
+        <v>0</v>
+      </c>
+      <c r="G844" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>F2_P20_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C845" t="n">
+        <v>2</v>
+      </c>
+      <c r="D845" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E845" t="n">
+        <v>21</v>
+      </c>
+      <c r="F845" t="n">
+        <v>0</v>
+      </c>
+      <c r="G845" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>F3_P21_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C846" t="n">
+        <v>3</v>
+      </c>
+      <c r="D846" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E846" t="n">
+        <v>22</v>
+      </c>
+      <c r="F846" t="n">
+        <v>0</v>
+      </c>
+      <c r="G846" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>F3_P22_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C847" t="n">
+        <v>3</v>
+      </c>
+      <c r="D847" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E847" t="n">
+        <v>23</v>
+      </c>
+      <c r="F847" t="n">
+        <v>0</v>
+      </c>
+      <c r="G847" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>F3_P23_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C848" t="n">
+        <v>3</v>
+      </c>
+      <c r="D848" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E848" t="n">
+        <v>24</v>
+      </c>
+      <c r="F848" t="n">
+        <v>0</v>
+      </c>
+      <c r="G848" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>F3_P24_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C849" t="n">
+        <v>3</v>
+      </c>
+      <c r="D849" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E849" t="n">
+        <v>25</v>
+      </c>
+      <c r="F849" t="n">
+        <v>0</v>
+      </c>
+      <c r="G849" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.pdf</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>F1_P9_Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.png</t>
+        </is>
+      </c>
+      <c r="C850" t="n">
+        <v>1</v>
+      </c>
+      <c r="D850" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E850" t="n">
+        <v>10</v>
+      </c>
+      <c r="F850" t="n">
+        <v>0</v>
+      </c>
+      <c r="G850" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.pdf</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>F2_P26_Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.png</t>
+        </is>
+      </c>
+      <c r="C851" t="n">
+        <v>2</v>
+      </c>
+      <c r="D851" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E851" t="n">
+        <v>27</v>
+      </c>
+      <c r="F851" t="n">
+        <v>0</v>
+      </c>
+      <c r="G851" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.pdf</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>F2_P27_Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.png</t>
+        </is>
+      </c>
+      <c r="C852" t="n">
+        <v>2</v>
+      </c>
+      <c r="D852" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E852" t="n">
+        <v>28</v>
+      </c>
+      <c r="F852" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G852" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>Bruning &amp; Campion_2018_AMJ_Role Resource Approach Avoidance Model of Job Crafting.pdf</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>F1_P7_Bruning &amp; Campion_2018_AMJ_Role Resource Approach Avoidance Model of Job Crafting.png</t>
+        </is>
+      </c>
+      <c r="C853" t="n">
+        <v>1</v>
+      </c>
+      <c r="D853" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E853" t="n">
+        <v>8</v>
+      </c>
+      <c r="F853" t="n">
+        <v>0</v>
+      </c>
+      <c r="G853" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.pdf</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>F1_P13_Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.png</t>
+        </is>
+      </c>
+      <c r="C854" t="n">
+        <v>1</v>
+      </c>
+      <c r="D854" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E854" t="n">
+        <v>14</v>
+      </c>
+      <c r="F854" t="n">
+        <v>0</v>
+      </c>
+      <c r="G854" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.pdf</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>F2_P16_Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.png</t>
+        </is>
+      </c>
+      <c r="C855" t="n">
+        <v>2</v>
+      </c>
+      <c r="D855" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E855" t="n">
+        <v>17</v>
+      </c>
+      <c r="F855" t="n">
+        <v>0</v>
+      </c>
+      <c r="G855" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.pdf</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>F2_P17_Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.png</t>
+        </is>
+      </c>
+      <c r="C856" t="n">
+        <v>2</v>
+      </c>
+      <c r="D856" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E856" t="n">
+        <v>18</v>
+      </c>
+      <c r="F856" t="n">
+        <v>0</v>
+      </c>
+      <c r="G856" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.pdf</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>F3_P28_Carton_2018_ASQ_I'm Not Mopping the Floors I'm Putting a Man on the Moon.png</t>
+        </is>
+      </c>
+      <c r="C857" t="n">
+        <v>3</v>
+      </c>
+      <c r="D857" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E857" t="n">
+        <v>29</v>
+      </c>
+      <c r="F857" t="n">
+        <v>0</v>
+      </c>
+      <c r="G857" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>DiBenigno_2018_ASQ_Anchored Personalization in Managing Goal Conflict.pdf</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>F1_P28_DiBenigno_2018_ASQ_Anchored Personalization in Managing Goal Conflict.png</t>
+        </is>
+      </c>
+      <c r="C858" t="n">
+        <v>1</v>
+      </c>
+      <c r="D858" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E858" t="n">
+        <v>29</v>
+      </c>
+      <c r="F858" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G858" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.pdf</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>F1_P8_Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.png</t>
+        </is>
+      </c>
+      <c r="C859" t="n">
+        <v>1</v>
+      </c>
+      <c r="D859" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E859" t="n">
+        <v>9</v>
+      </c>
+      <c r="F859" t="n">
+        <v>0</v>
+      </c>
+      <c r="G859" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.pdf</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>F2_P19_Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.png</t>
+        </is>
+      </c>
+      <c r="C860" t="n">
+        <v>2</v>
+      </c>
+      <c r="D860" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E860" t="n">
+        <v>20</v>
+      </c>
+      <c r="F860" t="n">
+        <v>0</v>
+      </c>
+      <c r="G860" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.pdf</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>F2_P20_Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.png</t>
+        </is>
+      </c>
+      <c r="C861" t="n">
+        <v>2</v>
+      </c>
+      <c r="D861" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E861" t="n">
+        <v>21</v>
+      </c>
+      <c r="F861" t="n">
+        <v>0</v>
+      </c>
+      <c r="G861" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.pdf</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>F2_P21_Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.png</t>
+        </is>
+      </c>
+      <c r="C862" t="n">
+        <v>2</v>
+      </c>
+      <c r="D862" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E862" t="n">
+        <v>22</v>
+      </c>
+      <c r="F862" t="n">
+        <v>0</v>
+      </c>
+      <c r="G862" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.pdf</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>F2_P23_Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.png</t>
+        </is>
+      </c>
+      <c r="C863" t="n">
+        <v>2</v>
+      </c>
+      <c r="D863" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E863" t="n">
+        <v>24</v>
+      </c>
+      <c r="F863" t="n">
+        <v>0</v>
+      </c>
+      <c r="G863" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>Dupret_2018_OrgStudies_Performative Silences.pdf</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>F1_P8_Dupret_2018_OrgStudies_Performative Silences.png</t>
+        </is>
+      </c>
+      <c r="C864" t="n">
+        <v>1</v>
+      </c>
+      <c r="D864" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E864" t="n">
+        <v>9</v>
+      </c>
+      <c r="F864" t="n">
+        <v>0</v>
+      </c>
+      <c r="G864" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>Dupret_2018_OrgStudies_Performative Silences.pdf</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>F2_P12_Dupret_2018_OrgStudies_Performative Silences.png</t>
+        </is>
+      </c>
+      <c r="C865" t="n">
+        <v>2</v>
+      </c>
+      <c r="D865" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E865" t="n">
+        <v>13</v>
+      </c>
+      <c r="F865" t="n">
+        <v>0</v>
+      </c>
+      <c r="G865" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>Dupret_2018_OrgStudies_Performative Silences.pdf</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>F3_P14_Dupret_2018_OrgStudies_Performative Silences.png</t>
+        </is>
+      </c>
+      <c r="C866" t="n">
+        <v>3</v>
+      </c>
+      <c r="D866" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E866" t="n">
+        <v>15</v>
+      </c>
+      <c r="F866" t="n">
+        <v>0</v>
+      </c>
+      <c r="G866" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>Dupret_2018_OrgStudies_Performative Silences.pdf</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>F3_P15_Dupret_2018_OrgStudies_Performative Silences.png</t>
+        </is>
+      </c>
+      <c r="C867" t="n">
+        <v>3</v>
+      </c>
+      <c r="D867" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E867" t="n">
+        <v>16</v>
+      </c>
+      <c r="F867" t="n">
+        <v>0</v>
+      </c>
+      <c r="G867" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>Dwivedi, Joshi &amp; Misangyi_2018_AMJ_Gender Inclusive Gatekeeping.pdf</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>F1_P19_Dwivedi, Joshi &amp; Misangyi_2018_AMJ_Gender Inclusive Gatekeeping.png</t>
+        </is>
+      </c>
+      <c r="C868" t="n">
+        <v>1</v>
+      </c>
+      <c r="D868" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E868" t="n">
+        <v>20</v>
+      </c>
+      <c r="F868" t="n">
+        <v>0</v>
+      </c>
+      <c r="G868" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.pdf</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>F1_P6_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="C869" t="n">
+        <v>1</v>
+      </c>
+      <c r="D869" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E869" t="n">
+        <v>7</v>
+      </c>
+      <c r="F869" t="n">
+        <v>0</v>
+      </c>
+      <c r="G869" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.pdf</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>F2_P10_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="C870" t="n">
+        <v>2</v>
+      </c>
+      <c r="D870" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E870" t="n">
+        <v>11</v>
+      </c>
+      <c r="F870" t="n">
+        <v>0</v>
+      </c>
+      <c r="G870" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.pdf</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>F2_P12_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="C871" t="n">
+        <v>2</v>
+      </c>
+      <c r="D871" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E871" t="n">
+        <v>13</v>
+      </c>
+      <c r="F871" t="n">
+        <v>0</v>
+      </c>
+      <c r="G871" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.pdf</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>F3_P11_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="C872" t="n">
+        <v>3</v>
+      </c>
+      <c r="D872" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E872" t="n">
+        <v>12</v>
+      </c>
+      <c r="F872" t="n">
+        <v>0</v>
+      </c>
+      <c r="G872" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.pdf</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>F3_P17_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="C873" t="n">
+        <v>3</v>
+      </c>
+      <c r="D873" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E873" t="n">
+        <v>18</v>
+      </c>
+      <c r="F873" t="n">
+        <v>0</v>
+      </c>
+      <c r="G873" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.pdf</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>F4_P15_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="C874" t="n">
+        <v>4</v>
+      </c>
+      <c r="D874" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E874" t="n">
+        <v>16</v>
+      </c>
+      <c r="F874" t="n">
+        <v>0</v>
+      </c>
+      <c r="G874" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.pdf</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>F4_P16_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="C875" t="n">
+        <v>4</v>
+      </c>
+      <c r="D875" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E875" t="n">
+        <v>17</v>
+      </c>
+      <c r="F875" t="n">
+        <v>0</v>
+      </c>
+      <c r="G875" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>F1_P2_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C876" t="n">
+        <v>1</v>
+      </c>
+      <c r="D876" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E876" t="n">
+        <v>3</v>
+      </c>
+      <c r="F876" t="n">
+        <v>0</v>
+      </c>
+      <c r="G876" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>F2_P6_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C877" t="n">
+        <v>2</v>
+      </c>
+      <c r="D877" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E877" t="n">
+        <v>7</v>
+      </c>
+      <c r="F877" t="n">
+        <v>0</v>
+      </c>
+      <c r="G877" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>F2_P7_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C878" t="n">
+        <v>2</v>
+      </c>
+      <c r="D878" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E878" t="n">
+        <v>8</v>
+      </c>
+      <c r="F878" t="n">
+        <v>0</v>
+      </c>
+      <c r="G878" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>F2_P9_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C879" t="n">
+        <v>2</v>
+      </c>
+      <c r="D879" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E879" t="n">
+        <v>10</v>
+      </c>
+      <c r="F879" t="n">
+        <v>0</v>
+      </c>
+      <c r="G879" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>F2_P10_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C880" t="n">
+        <v>2</v>
+      </c>
+      <c r="D880" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E880" t="n">
+        <v>11</v>
+      </c>
+      <c r="F880" t="n">
+        <v>0</v>
+      </c>
+      <c r="G880" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>F2_P11_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C881" t="n">
+        <v>2</v>
+      </c>
+      <c r="D881" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E881" t="n">
+        <v>12</v>
+      </c>
+      <c r="F881" t="n">
+        <v>0</v>
+      </c>
+      <c r="G881" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>F2_P13_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C882" t="n">
+        <v>2</v>
+      </c>
+      <c r="D882" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E882" t="n">
+        <v>14</v>
+      </c>
+      <c r="F882" t="n">
+        <v>0</v>
+      </c>
+      <c r="G882" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>F2_P14_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C883" t="n">
+        <v>2</v>
+      </c>
+      <c r="D883" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E883" t="n">
+        <v>15</v>
+      </c>
+      <c r="F883" t="n">
+        <v>0</v>
+      </c>
+      <c r="G883" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>F2_P15_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C884" t="n">
+        <v>2</v>
+      </c>
+      <c r="D884" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E884" t="n">
+        <v>16</v>
+      </c>
+      <c r="F884" t="n">
+        <v>0</v>
+      </c>
+      <c r="G884" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>F2_P16_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C885" t="n">
+        <v>2</v>
+      </c>
+      <c r="D885" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E885" t="n">
+        <v>17</v>
+      </c>
+      <c r="F885" t="n">
+        <v>0</v>
+      </c>
+      <c r="G885" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>F2_P18_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C886" t="n">
+        <v>2</v>
+      </c>
+      <c r="D886" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E886" t="n">
+        <v>19</v>
+      </c>
+      <c r="F886" t="n">
+        <v>0</v>
+      </c>
+      <c r="G886" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>F2_P19_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C887" t="n">
+        <v>2</v>
+      </c>
+      <c r="D887" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E887" t="n">
+        <v>20</v>
+      </c>
+      <c r="F887" t="n">
+        <v>0</v>
+      </c>
+      <c r="G887" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>F2_P20_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C888" t="n">
+        <v>2</v>
+      </c>
+      <c r="D888" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E888" t="n">
+        <v>21</v>
+      </c>
+      <c r="F888" t="n">
+        <v>0</v>
+      </c>
+      <c r="G888" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>F3_P10_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C889" t="n">
+        <v>3</v>
+      </c>
+      <c r="D889" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E889" t="n">
+        <v>11</v>
+      </c>
+      <c r="F889" t="n">
+        <v>0</v>
+      </c>
+      <c r="G889" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>F3_P11_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C890" t="n">
+        <v>3</v>
+      </c>
+      <c r="D890" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E890" t="n">
+        <v>12</v>
+      </c>
+      <c r="F890" t="n">
+        <v>0</v>
+      </c>
+      <c r="G890" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>F3_P12_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C891" t="n">
+        <v>3</v>
+      </c>
+      <c r="D891" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E891" t="n">
+        <v>13</v>
+      </c>
+      <c r="F891" t="n">
+        <v>0</v>
+      </c>
+      <c r="G891" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>F3_P13_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C892" t="n">
+        <v>3</v>
+      </c>
+      <c r="D892" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E892" t="n">
+        <v>14</v>
+      </c>
+      <c r="F892" t="n">
+        <v>0</v>
+      </c>
+      <c r="G892" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>F3_P14_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C893" t="n">
+        <v>3</v>
+      </c>
+      <c r="D893" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E893" t="n">
+        <v>15</v>
+      </c>
+      <c r="F893" t="n">
+        <v>0</v>
+      </c>
+      <c r="G893" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>F3_P18_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C894" t="n">
+        <v>3</v>
+      </c>
+      <c r="D894" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E894" t="n">
+        <v>19</v>
+      </c>
+      <c r="F894" t="n">
+        <v>0</v>
+      </c>
+      <c r="G894" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.pdf</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>F1_P6_Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.png</t>
+        </is>
+      </c>
+      <c r="C895" t="n">
+        <v>1</v>
+      </c>
+      <c r="D895" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E895" t="n">
+        <v>7</v>
+      </c>
+      <c r="F895" t="n">
+        <v>0</v>
+      </c>
+      <c r="G895" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>Follmer et al._2018_AMJ_Resolution, Relief and Resignation.pdf</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>F1_P2_Follmer et al._2018_AMJ_Resolution, Relief and Resignation.png</t>
+        </is>
+      </c>
+      <c r="C896" t="n">
+        <v>1</v>
+      </c>
+      <c r="D896" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E896" t="n">
+        <v>3</v>
+      </c>
+      <c r="F896" t="n">
+        <v>0</v>
+      </c>
+      <c r="G896" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>Follmer et al._2018_AMJ_Resolution, Relief and Resignation.pdf</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>F2_P7_Follmer et al._2018_AMJ_Resolution, Relief and Resignation.png</t>
+        </is>
+      </c>
+      <c r="C897" t="n">
+        <v>2</v>
+      </c>
+      <c r="D897" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E897" t="n">
+        <v>8</v>
+      </c>
+      <c r="F897" t="n">
+        <v>0</v>
+      </c>
+      <c r="G897" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>Follmer et al._2018_AMJ_Resolution, Relief and Resignation.pdf</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>F2_P8_Follmer et al._2018_AMJ_Resolution, Relief and Resignation.png</t>
+        </is>
+      </c>
+      <c r="C898" t="n">
+        <v>2</v>
+      </c>
+      <c r="D898" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E898" t="n">
+        <v>9</v>
+      </c>
+      <c r="F898" t="n">
+        <v>0</v>
+      </c>
+      <c r="G898" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>Follmer et al._2018_AMJ_Resolution, Relief and Resignation.pdf</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>F2_P17_Follmer et al._2018_AMJ_Resolution, Relief and Resignation.png</t>
+        </is>
+      </c>
+      <c r="C899" t="n">
+        <v>2</v>
+      </c>
+      <c r="D899" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E899" t="n">
+        <v>18</v>
+      </c>
+      <c r="F899" t="n">
+        <v>0</v>
+      </c>
+      <c r="G899" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>F1_P14_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C900" t="n">
+        <v>1</v>
+      </c>
+      <c r="D900" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E900" t="n">
+        <v>15</v>
+      </c>
+      <c r="F900" t="n">
+        <v>0</v>
+      </c>
+      <c r="G900" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>F2_P15_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C901" t="n">
+        <v>2</v>
+      </c>
+      <c r="D901" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E901" t="n">
+        <v>16</v>
+      </c>
+      <c r="F901" t="n">
+        <v>0</v>
+      </c>
+      <c r="G901" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>F3_P16_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C902" t="n">
+        <v>3</v>
+      </c>
+      <c r="D902" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E902" t="n">
+        <v>17</v>
+      </c>
+      <c r="F902" t="n">
+        <v>0</v>
+      </c>
+      <c r="G902" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>F4_P17_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C903" t="n">
+        <v>4</v>
+      </c>
+      <c r="D903" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E903" t="n">
+        <v>18</v>
+      </c>
+      <c r="F903" t="n">
+        <v>0</v>
+      </c>
+      <c r="G903" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>F5_P18_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C904" t="n">
+        <v>5</v>
+      </c>
+      <c r="D904" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E904" t="n">
+        <v>19</v>
+      </c>
+      <c r="F904" t="n">
+        <v>0</v>
+      </c>
+      <c r="G904" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>F6_P21_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C905" t="n">
+        <v>6</v>
+      </c>
+      <c r="D905" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E905" t="n">
+        <v>22</v>
+      </c>
+      <c r="F905" t="n">
+        <v>0</v>
+      </c>
+      <c r="G905" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>F7_P24_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C906" t="n">
+        <v>7</v>
+      </c>
+      <c r="D906" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E906" t="n">
+        <v>25</v>
+      </c>
+      <c r="F906" t="n">
+        <v>0</v>
+      </c>
+      <c r="G906" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>F7_P25_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C907" t="n">
+        <v>7</v>
+      </c>
+      <c r="D907" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E907" t="n">
+        <v>26</v>
+      </c>
+      <c r="F907" t="n">
+        <v>0</v>
+      </c>
+      <c r="G907" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>F8_P27_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C908" t="n">
+        <v>8</v>
+      </c>
+      <c r="D908" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E908" t="n">
+        <v>28</v>
+      </c>
+      <c r="F908" t="n">
+        <v>0</v>
+      </c>
+      <c r="G908" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>F9_P32_Habersand_2018_J Management Studies _ A Process Perspective on Organizational Failure  A Qualitative Meta‐Analysis.png</t>
+        </is>
+      </c>
+      <c r="C909" t="n">
+        <v>9</v>
+      </c>
+      <c r="D909" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E909" t="n">
+        <v>33</v>
+      </c>
+      <c r="F909" t="n">
+        <v>0</v>
+      </c>
+      <c r="G909" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>F1_P15_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C910" t="n">
+        <v>1</v>
+      </c>
+      <c r="D910" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E910" t="n">
+        <v>16</v>
+      </c>
+      <c r="F910" t="n">
+        <v>0</v>
+      </c>
+      <c r="G910" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>F2_P14_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C911" t="n">
+        <v>2</v>
+      </c>
+      <c r="D911" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E911" t="n">
+        <v>15</v>
+      </c>
+      <c r="F911" t="n">
+        <v>0</v>
+      </c>
+      <c r="G911" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>F2_P24_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C912" t="n">
+        <v>2</v>
+      </c>
+      <c r="D912" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E912" t="n">
+        <v>25</v>
+      </c>
+      <c r="F912" t="n">
+        <v>0</v>
+      </c>
+      <c r="G912" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>F2_P25_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C913" t="n">
+        <v>2</v>
+      </c>
+      <c r="D913" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E913" t="n">
+        <v>26</v>
+      </c>
+      <c r="F913" t="n">
+        <v>0</v>
+      </c>
+      <c r="G913" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>F2_P30_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C914" t="n">
+        <v>2</v>
+      </c>
+      <c r="D914" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E914" t="n">
+        <v>31</v>
+      </c>
+      <c r="F914" t="n">
+        <v>0</v>
+      </c>
+      <c r="G914" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>F2_P31_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C915" t="n">
+        <v>2</v>
+      </c>
+      <c r="D915" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E915" t="n">
+        <v>32</v>
+      </c>
+      <c r="F915" t="n">
+        <v>0</v>
+      </c>
+      <c r="G915" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>F2_P32_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C916" t="n">
+        <v>2</v>
+      </c>
+      <c r="D916" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E916" t="n">
+        <v>33</v>
+      </c>
+      <c r="F916" t="n">
+        <v>0</v>
+      </c>
+      <c r="G916" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>F2_P35_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C917" t="n">
+        <v>2</v>
+      </c>
+      <c r="D917" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E917" t="n">
+        <v>36</v>
+      </c>
+      <c r="F917" t="n">
+        <v>0</v>
+      </c>
+      <c r="G917" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>F2_P36_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C918" t="n">
+        <v>2</v>
+      </c>
+      <c r="D918" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E918" t="n">
+        <v>37</v>
+      </c>
+      <c r="F918" t="n">
+        <v>0</v>
+      </c>
+      <c r="G918" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>F3_P25_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C919" t="n">
+        <v>3</v>
+      </c>
+      <c r="D919" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E919" t="n">
+        <v>26</v>
+      </c>
+      <c r="F919" t="n">
+        <v>0</v>
+      </c>
+      <c r="G919" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>F3_P29_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C920" t="n">
+        <v>3</v>
+      </c>
+      <c r="D920" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E920" t="n">
+        <v>30</v>
+      </c>
+      <c r="F920" t="n">
+        <v>0</v>
+      </c>
+      <c r="G920" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>F3_P31_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C921" t="n">
+        <v>3</v>
+      </c>
+      <c r="D921" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E921" t="n">
+        <v>32</v>
+      </c>
+      <c r="F921" t="n">
+        <v>0</v>
+      </c>
+      <c r="G921" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>F3_P32_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C922" t="n">
+        <v>3</v>
+      </c>
+      <c r="D922" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E922" t="n">
+        <v>33</v>
+      </c>
+      <c r="F922" t="n">
+        <v>0</v>
+      </c>
+      <c r="G922" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>F3_P36_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C923" t="n">
+        <v>3</v>
+      </c>
+      <c r="D923" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E923" t="n">
+        <v>37</v>
+      </c>
+      <c r="F923" t="n">
+        <v>0</v>
+      </c>
+      <c r="G923" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>Lee, Ramus &amp; Vaccaro_2018_AMJ_From Protest to Product.pdf</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>F1_P10_Lee, Ramus &amp; Vaccaro_2018_AMJ_From Protest to Product.png</t>
+        </is>
+      </c>
+      <c r="C924" t="n">
+        <v>1</v>
+      </c>
+      <c r="D924" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E924" t="n">
+        <v>11</v>
+      </c>
+      <c r="F924" t="n">
+        <v>0</v>
+      </c>
+      <c r="G924" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>Lee, Ramus &amp; Vaccaro_2018_AMJ_From Protest to Product.pdf</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>F2_P21_Lee, Ramus &amp; Vaccaro_2018_AMJ_From Protest to Product.png</t>
+        </is>
+      </c>
+      <c r="C925" t="n">
+        <v>2</v>
+      </c>
+      <c r="D925" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E925" t="n">
+        <v>22</v>
+      </c>
+      <c r="F925" t="n">
+        <v>0</v>
+      </c>
+      <c r="G925" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>F1_P1_Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.png</t>
+        </is>
+      </c>
+      <c r="C926" t="n">
+        <v>1</v>
+      </c>
+      <c r="D926" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E926" t="n">
+        <v>2</v>
+      </c>
+      <c r="F926" t="n">
+        <v>0</v>
+      </c>
+      <c r="G926" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>F2_P7_Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.png</t>
+        </is>
+      </c>
+      <c r="C927" t="n">
+        <v>2</v>
+      </c>
+      <c r="D927" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E927" t="n">
+        <v>8</v>
+      </c>
+      <c r="F927" t="n">
+        <v>0</v>
+      </c>
+      <c r="G927" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>F2_P9_Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.png</t>
+        </is>
+      </c>
+      <c r="C928" t="n">
+        <v>2</v>
+      </c>
+      <c r="D928" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E928" t="n">
+        <v>10</v>
+      </c>
+      <c r="F928" t="n">
+        <v>0</v>
+      </c>
+      <c r="G928" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>F3_P13_Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.png</t>
+        </is>
+      </c>
+      <c r="C929" t="n">
+        <v>3</v>
+      </c>
+      <c r="D929" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E929" t="n">
+        <v>14</v>
+      </c>
+      <c r="F929" t="n">
+        <v>0</v>
+      </c>
+      <c r="G929" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>F3_P14_Li et al._2018_AMJ_Network View of Advice Giving and Individual Creativity in Teams.png</t>
+        </is>
+      </c>
+      <c r="C930" t="n">
+        <v>3</v>
+      </c>
+      <c r="D930" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E930" t="n">
+        <v>15</v>
+      </c>
+      <c r="F930" t="n">
+        <v>0</v>
+      </c>
+      <c r="G930" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>Lifshitz-Assaf_2018_ASQ_Dismantling Knowledge Boundaries at NASA The Critical Role of Professional Identity in Open Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>F1_P22_Lifshitz-Assaf_2018_ASQ_Dismantling Knowledge Boundaries at NASA The Critical Role of Professional Identity in Open Innovation.png</t>
+        </is>
+      </c>
+      <c r="C931" t="n">
+        <v>1</v>
+      </c>
+      <c r="D931" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E931" t="n">
+        <v>23</v>
+      </c>
+      <c r="F931" t="n">
+        <v>0</v>
+      </c>
+      <c r="G931" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>Lifshitz-Assaf_2018_ASQ_Dismantling Knowledge Boundaries at NASA The Critical Role of Professional Identity in Open Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>F8_P9_Lifshitz-Assaf_2018_ASQ_Dismantling Knowledge Boundaries at NASA The Critical Role of Professional Identity in Open Innovation.png</t>
+        </is>
+      </c>
+      <c r="C932" t="n">
+        <v>8</v>
+      </c>
+      <c r="D932" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E932" t="n">
+        <v>10</v>
+      </c>
+      <c r="F932" t="n">
+        <v>0</v>
+      </c>
+      <c r="G932" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>Maslach et al._2018_OrgSci_Noise as Signal in Learning from Rare Events.pdf</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>F1_P13_Maslach et al._2018_OrgSci_Noise as Signal in Learning from Rare Events.png</t>
+        </is>
+      </c>
+      <c r="C933" t="n">
+        <v>1</v>
+      </c>
+      <c r="D933" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E933" t="n">
+        <v>14</v>
+      </c>
+      <c r="F933" t="n">
+        <v>0</v>
+      </c>
+      <c r="G933" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>Maslach et al._2018_OrgSci_Noise as Signal in Learning from Rare Events.pdf</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>F2_P15_Maslach et al._2018_OrgSci_Noise as Signal in Learning from Rare Events.png</t>
+        </is>
+      </c>
+      <c r="C934" t="n">
+        <v>2</v>
+      </c>
+      <c r="D934" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E934" t="n">
+        <v>16</v>
+      </c>
+      <c r="F934" t="n">
+        <v>0</v>
+      </c>
+      <c r="G934" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>Mazmanian &amp; Beckman_2018_OrgSci_Making Your Numbers - Engendering Organizational Control Through a Ritual of Quantification.pdf</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>F1_P10_Mazmanian &amp; Beckman_2018_OrgSci_Making Your Numbers - Engendering Organizational Control Through a Ritual of Quantification.png</t>
+        </is>
+      </c>
+      <c r="C935" t="n">
+        <v>1</v>
+      </c>
+      <c r="D935" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E935" t="n">
+        <v>11</v>
+      </c>
+      <c r="F935" t="n">
+        <v>0</v>
+      </c>
+      <c r="G935" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>Mellewigt, Hoetker &amp; Lutkewitte_2018_OrgSci_Avoiding High Opportunism is Easy.pdf</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>F1_P6_Mellewigt, Hoetker &amp; Lutkewitte_2018_OrgSci_Avoiding High Opportunism is Easy.png</t>
+        </is>
+      </c>
+      <c r="C936" t="n">
+        <v>1</v>
+      </c>
+      <c r="D936" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E936" t="n">
+        <v>7</v>
+      </c>
+      <c r="F936" t="n">
+        <v>0</v>
+      </c>
+      <c r="G936" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>Petriglieri et al._2018_ASQ_Fast Tracks and Portable Selves for Contemporary Careers.pdf</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>F1_P30_Petriglieri et al._2018_ASQ_Fast Tracks and Portable Selves for Contemporary Careers.png</t>
+        </is>
+      </c>
+      <c r="C937" t="n">
+        <v>1</v>
+      </c>
+      <c r="D937" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E937" t="n">
+        <v>31</v>
+      </c>
+      <c r="F937" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G937" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.pdf</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>F1_P5_Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.png</t>
+        </is>
+      </c>
+      <c r="C938" t="n">
+        <v>1</v>
+      </c>
+      <c r="D938" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E938" t="n">
+        <v>6</v>
+      </c>
+      <c r="F938" t="n">
+        <v>0</v>
+      </c>
+      <c r="G938" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.pdf</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>F2_P5_Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.png</t>
+        </is>
+      </c>
+      <c r="C939" t="n">
+        <v>2</v>
+      </c>
+      <c r="D939" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E939" t="n">
+        <v>6</v>
+      </c>
+      <c r="F939" t="n">
+        <v>0</v>
+      </c>
+      <c r="G939" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.pdf</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>F2_P6_Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.png</t>
+        </is>
+      </c>
+      <c r="C940" t="n">
+        <v>2</v>
+      </c>
+      <c r="D940" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E940" t="n">
+        <v>7</v>
+      </c>
+      <c r="F940" t="n">
+        <v>0</v>
+      </c>
+      <c r="G940" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.pdf</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>F3_P7_Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.png</t>
+        </is>
+      </c>
+      <c r="C941" t="n">
+        <v>3</v>
+      </c>
+      <c r="D941" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E941" t="n">
+        <v>8</v>
+      </c>
+      <c r="F941" t="n">
+        <v>0</v>
+      </c>
+      <c r="G941" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.pdf</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>F3_P9_Qureshi, Sutter &amp; Bhatt_2018_OrgStudies_The Transformative Power of Knowledge Sharing in Settings of Poverty and Social Inequality.png</t>
+        </is>
+      </c>
+      <c r="C942" t="n">
+        <v>3</v>
+      </c>
+      <c r="D942" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E942" t="n">
+        <v>10</v>
+      </c>
+      <c r="F942" t="n">
+        <v>0</v>
+      </c>
+      <c r="G942" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>F1_P7_Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.png</t>
+        </is>
+      </c>
+      <c r="C943" t="n">
+        <v>1</v>
+      </c>
+      <c r="D943" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E943" t="n">
+        <v>8</v>
+      </c>
+      <c r="F943" t="n">
+        <v>0</v>
+      </c>
+      <c r="G943" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>F2_P16_Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.png</t>
+        </is>
+      </c>
+      <c r="C944" t="n">
+        <v>2</v>
+      </c>
+      <c r="D944" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E944" t="n">
+        <v>17</v>
+      </c>
+      <c r="F944" t="n">
+        <v>0</v>
+      </c>
+      <c r="G944" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>F3_P20_Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.png</t>
+        </is>
+      </c>
+      <c r="C945" t="n">
+        <v>3</v>
+      </c>
+      <c r="D945" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E945" t="n">
+        <v>21</v>
+      </c>
+      <c r="F945" t="n">
+        <v>0</v>
+      </c>
+      <c r="G945" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>F3_P21_Ranganathan_2018_ASQ_The Artisan and His Audience_Identification with Work and Price Setting.png</t>
+        </is>
+      </c>
+      <c r="C946" t="n">
+        <v>3</v>
+      </c>
+      <c r="D946" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E946" t="n">
+        <v>22</v>
+      </c>
+      <c r="F946" t="n">
+        <v>0</v>
+      </c>
+      <c r="G946" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_Train them to Retain Them.pdf</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>F1_P14_Ranganathan_2018_ASQ_Train them to Retain Them.png</t>
+        </is>
+      </c>
+      <c r="C947" t="n">
+        <v>1</v>
+      </c>
+      <c r="D947" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E947" t="n">
+        <v>15</v>
+      </c>
+      <c r="F947" t="n">
+        <v>0</v>
+      </c>
+      <c r="G947" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_Train them to Retain Them.pdf</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>F2_P14_Ranganathan_2018_ASQ_Train them to Retain Them.png</t>
+        </is>
+      </c>
+      <c r="C948" t="n">
+        <v>2</v>
+      </c>
+      <c r="D948" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E948" t="n">
+        <v>15</v>
+      </c>
+      <c r="F948" t="n">
+        <v>0</v>
+      </c>
+      <c r="G948" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_Train them to Retain Them.pdf</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>F2_P15_Ranganathan_2018_ASQ_Train them to Retain Them.png</t>
+        </is>
+      </c>
+      <c r="C949" t="n">
+        <v>2</v>
+      </c>
+      <c r="D949" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E949" t="n">
+        <v>16</v>
+      </c>
+      <c r="F949" t="n">
+        <v>0</v>
+      </c>
+      <c r="G949" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_Train them to Retain Them.pdf</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>F2_P16_Ranganathan_2018_ASQ_Train them to Retain Them.png</t>
+        </is>
+      </c>
+      <c r="C950" t="n">
+        <v>2</v>
+      </c>
+      <c r="D950" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E950" t="n">
+        <v>17</v>
+      </c>
+      <c r="F950" t="n">
+        <v>0</v>
+      </c>
+      <c r="G950" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_Train them to Retain Them.pdf</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>F3_P16_Ranganathan_2018_ASQ_Train them to Retain Them.png</t>
+        </is>
+      </c>
+      <c r="C951" t="n">
+        <v>3</v>
+      </c>
+      <c r="D951" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E951" t="n">
+        <v>17</v>
+      </c>
+      <c r="F951" t="n">
+        <v>0</v>
+      </c>
+      <c r="G951" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>Reinecke_2018_OrgStudies_Social Movements and Prefigurative Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>F1_P14_Reinecke_2018_OrgStudies_Social Movements and Prefigurative Organizing.png</t>
+        </is>
+      </c>
+      <c r="C952" t="n">
+        <v>1</v>
+      </c>
+      <c r="D952" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E952" t="n">
+        <v>15</v>
+      </c>
+      <c r="F952" t="n">
+        <v>0</v>
+      </c>
+      <c r="G952" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>Salvato &amp; Rerup_2018_ASQ_Routine Regulation - Balancing Conflicting Goals in Organizational Routines.pdf</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>F1_P15_Salvato &amp; Rerup_2018_ASQ_Routine Regulation - Balancing Conflicting Goals in Organizational Routines.png</t>
+        </is>
+      </c>
+      <c r="C953" t="n">
+        <v>1</v>
+      </c>
+      <c r="D953" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E953" t="n">
+        <v>16</v>
+      </c>
+      <c r="F953" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G953" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>Salvato &amp; Rerup_2018_ASQ_Routine Regulation - Balancing Conflicting Goals in Organizational Routines.pdf</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>F2_P26_Salvato &amp; Rerup_2018_ASQ_Routine Regulation - Balancing Conflicting Goals in Organizational Routines.png</t>
+        </is>
+      </c>
+      <c r="C954" t="n">
+        <v>2</v>
+      </c>
+      <c r="D954" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E954" t="n">
+        <v>27</v>
+      </c>
+      <c r="F954" t="n">
+        <v>0</v>
+      </c>
+      <c r="G954" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>Salvato &amp; Rerup_2018_ASQ_Routine Regulation - Balancing Conflicting Goals in Organizational Routines.pdf</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>F2_P27_Salvato &amp; Rerup_2018_ASQ_Routine Regulation - Balancing Conflicting Goals in Organizational Routines.png</t>
+        </is>
+      </c>
+      <c r="C955" t="n">
+        <v>2</v>
+      </c>
+      <c r="D955" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E955" t="n">
+        <v>28</v>
+      </c>
+      <c r="F955" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G955" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>Schepker et al_2018_AMJ_Planning for Future Leadership.pdf</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>F1_P2_Schepker et al_2018_AMJ_Planning for Future Leadership.png</t>
+        </is>
+      </c>
+      <c r="C956" t="n">
+        <v>1</v>
+      </c>
+      <c r="D956" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E956" t="n">
+        <v>3</v>
+      </c>
+      <c r="F956" t="n">
+        <v>0</v>
+      </c>
+      <c r="G956" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>Soundararajan, Khan &amp; Tarba_2018_HR_Beyond Brokering.pdf</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>F1_P12_Soundararajan, Khan &amp; Tarba_2018_HR_Beyond Brokering.png</t>
+        </is>
+      </c>
+      <c r="C957" t="n">
+        <v>1</v>
+      </c>
+      <c r="D957" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E957" t="n">
+        <v>13</v>
+      </c>
+      <c r="F957" t="n">
+        <v>0</v>
+      </c>
+      <c r="G957" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>Spektor et al._2018_AMJ_Microfoundations of Organizational Paradox The Problem is How we Think about the Problem.pdf</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>F1_P10_Spektor et al._2018_AMJ_Microfoundations of Organizational Paradox The Problem is How we Think about the Problem.png</t>
+        </is>
+      </c>
+      <c r="C958" t="n">
+        <v>1</v>
+      </c>
+      <c r="D958" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E958" t="n">
+        <v>11</v>
+      </c>
+      <c r="F958" t="n">
+        <v>0</v>
+      </c>
+      <c r="G958" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>Valentine_2018_AMJ_When Equity Seems Unfair.pdf</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>F1_P18_Valentine_2018_AMJ_When Equity Seems Unfair.png</t>
+        </is>
+      </c>
+      <c r="C959" t="n">
+        <v>1</v>
+      </c>
+      <c r="D959" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E959" t="n">
+        <v>19</v>
+      </c>
+      <c r="F959" t="n">
+        <v>0</v>
+      </c>
+      <c r="G959" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>Valentine_2018_ASQ_Renegotiating Spheres of Obligation - The Role of Hierarchy in Organizational Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>F1_P11_Valentine_2018_ASQ_Renegotiating Spheres of Obligation - The Role of Hierarchy in Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="C960" t="n">
+        <v>1</v>
+      </c>
+      <c r="D960" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E960" t="n">
+        <v>12</v>
+      </c>
+      <c r="F960" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G960" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>Wolbers, Boersma &amp; Groenewegen_2018_OrgStudies_Introducing a Fragmentation PErspective on Coordination in Crisis Management.pdf</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>F1_P8_Wolbers, Boersma &amp; Groenewegen_2018_OrgStudies_Introducing a Fragmentation PErspective on Coordination in Crisis Management.png</t>
+        </is>
+      </c>
+      <c r="C961" t="n">
+        <v>1</v>
+      </c>
+      <c r="D961" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E961" t="n">
+        <v>9</v>
+      </c>
+      <c r="F961" t="n">
+        <v>0</v>
+      </c>
+      <c r="G961" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>Wolbers, Boersma &amp; Groenewegen_2018_OrgStudies_Introducing a Fragmentation PErspective on Coordination in Crisis Management.pdf</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>F2_P14_Wolbers, Boersma &amp; Groenewegen_2018_OrgStudies_Introducing a Fragmentation PErspective on Coordination in Crisis Management.png</t>
+        </is>
+      </c>
+      <c r="C962" t="n">
+        <v>2</v>
+      </c>
+      <c r="D962" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E962" t="n">
+        <v>15</v>
+      </c>
+      <c r="F962" t="n">
+        <v>0</v>
+      </c>
+      <c r="G962" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>Wolbers, Boersma &amp; Groenewegen_2018_OrgStudies_Introducing a Fragmentation PErspective on Coordination in Crisis Management.pdf</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>F2_P15_Wolbers, Boersma &amp; Groenewegen_2018_OrgStudies_Introducing a Fragmentation PErspective on Coordination in Crisis Management.png</t>
+        </is>
+      </c>
+      <c r="C963" t="n">
+        <v>2</v>
+      </c>
+      <c r="D963" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E963" t="n">
+        <v>16</v>
+      </c>
+      <c r="F963" t="n">
+        <v>0</v>
+      </c>
+      <c r="G963" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>Belfrage &amp; Hauf_2017_OrgStudies_The Gentle Art of Retroduction.pdf</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>F1_P6_Belfrage &amp; Hauf_2017_OrgStudies_The Gentle Art of Retroduction.png</t>
+        </is>
+      </c>
+      <c r="C964" t="n">
+        <v>1</v>
+      </c>
+      <c r="D964" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E964" t="n">
+        <v>7</v>
+      </c>
+      <c r="F964" t="n">
+        <v>0</v>
+      </c>
+      <c r="G964" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>Banerjee &amp; Jackson_2016_HR_Microfinance and the business of poverty reduction.pdf</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>F1_P9_Banerjee &amp; Jackson_2016_HR_Microfinance and the business of poverty reduction.png</t>
+        </is>
+      </c>
+      <c r="C965" t="n">
+        <v>1</v>
+      </c>
+      <c r="D965" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E965" t="n">
+        <v>10</v>
+      </c>
+      <c r="F965" t="n">
+        <v>0</v>
+      </c>
+      <c r="G965" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>Belfrage &amp; Hauf_2017_OrgStudies_The Gentle Art of Retroduction.pdf</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>F2_P9_Belfrage &amp; Hauf_2017_OrgStudies_The Gentle Art of Retroduction.png</t>
+        </is>
+      </c>
+      <c r="C966" t="n">
+        <v>2</v>
+      </c>
+      <c r="D966" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E966" t="n">
+        <v>10</v>
+      </c>
+      <c r="F966" t="n">
+        <v>0</v>
+      </c>
+      <c r="G966" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>Belfrage &amp; Hauf_2017_OrgStudies_The Gentle Art of Retroduction.pdf</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>F2_P10_Belfrage &amp; Hauf_2017_OrgStudies_The Gentle Art of Retroduction.png</t>
+        </is>
+      </c>
+      <c r="C967" t="n">
+        <v>2</v>
+      </c>
+      <c r="D967" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E967" t="n">
+        <v>11</v>
+      </c>
+      <c r="F967" t="n">
+        <v>0</v>
+      </c>
+      <c r="G967" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>Burris, Rockmann &amp; Kimmons_2017_AMJ_The Value of Voice to Managers.pdf</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>F1_P2_Burris, Rockmann &amp; Kimmons_2017_AMJ_The Value of Voice to Managers.png</t>
+        </is>
+      </c>
+      <c r="C968" t="n">
+        <v>1</v>
+      </c>
+      <c r="D968" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E968" t="n">
+        <v>3</v>
+      </c>
+      <c r="F968" t="n">
+        <v>0</v>
+      </c>
+      <c r="G968" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>Busch et al._2017_HR_Evaluation of an Organizational Health Intervention for Low-Skilled workers and Immigrants.pdf</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>F1_P4_Busch et al._2017_HR_Evaluation of an Organizational Health Intervention for Low-Skilled workers and Immigrants.png</t>
+        </is>
+      </c>
+      <c r="C969" t="n">
+        <v>1</v>
+      </c>
+      <c r="D969" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E969" t="n">
+        <v>5</v>
+      </c>
+      <c r="F969" t="n">
+        <v>0</v>
+      </c>
+      <c r="G969" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>Comi &amp; White_2017_OrgStudies_Future Making and Visual Artefacts.pdf</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>F1_P15_Comi &amp; White_2017_OrgStudies_Future Making and Visual Artefacts.png</t>
+        </is>
+      </c>
+      <c r="C970" t="n">
+        <v>1</v>
+      </c>
+      <c r="D970" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E970" t="n">
+        <v>16</v>
+      </c>
+      <c r="F970" t="n">
+        <v>0</v>
+      </c>
+      <c r="G970" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>Comi &amp; White_2017_OrgStudies_Future Making and Visual Artefacts.pdf</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>F2_P17_Comi &amp; White_2017_OrgStudies_Future Making and Visual Artefacts.png</t>
+        </is>
+      </c>
+      <c r="C971" t="n">
+        <v>2</v>
+      </c>
+      <c r="D971" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E971" t="n">
+        <v>18</v>
+      </c>
+      <c r="F971" t="n">
+        <v>0</v>
+      </c>
+      <c r="G971" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>Comi &amp; White_2017_OrgStudies_Future Making and Visual Artefacts.pdf</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>F3_P17_Comi &amp; White_2017_OrgStudies_Future Making and Visual Artefacts.png</t>
+        </is>
+      </c>
+      <c r="C972" t="n">
+        <v>3</v>
+      </c>
+      <c r="D972" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E972" t="n">
+        <v>18</v>
+      </c>
+      <c r="F972" t="n">
+        <v>0</v>
+      </c>
+      <c r="G972" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>Comi &amp; White_2017_OrgStudies_Future Making and Visual Artefacts.pdf</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>F3_P18_Comi &amp; White_2017_OrgStudies_Future Making and Visual Artefacts.png</t>
+        </is>
+      </c>
+      <c r="C973" t="n">
+        <v>3</v>
+      </c>
+      <c r="D973" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E973" t="n">
+        <v>19</v>
+      </c>
+      <c r="F973" t="n">
+        <v>0</v>
+      </c>
+      <c r="G973" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>Fan &amp; Zietsma_2017_AMJ_Constructing a Shared Governance Logic The Role of Emotions in Enabling Dually Embedded Agency.pdf</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>F1_P20_Fan &amp; Zietsma_2017_AMJ_Constructing a Shared Governance Logic The Role of Emotions in Enabling Dually Embedded Agency.png</t>
+        </is>
+      </c>
+      <c r="C974" t="n">
+        <v>1</v>
+      </c>
+      <c r="D974" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E974" t="n">
+        <v>21</v>
+      </c>
+      <c r="F974" t="n">
+        <v>0</v>
+      </c>
+      <c r="G974" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>Fortwengel_2017_OrgSci_Practice Transfer in Organizations The Role of Governance.pdf</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>F1_P14_Fortwengel_2017_OrgSci_Practice Transfer in Organizations The Role of Governance.png</t>
+        </is>
+      </c>
+      <c r="C975" t="n">
+        <v>1</v>
+      </c>
+      <c r="D975" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E975" t="n">
+        <v>15</v>
+      </c>
+      <c r="F975" t="n">
+        <v>0</v>
+      </c>
+      <c r="G975" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>Garg &amp; Eisenhardt_2017_AMJ_Unpacking the CEO-Board Relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>F1_P9_Garg &amp; Eisenhardt_2017_AMJ_Unpacking the CEO-Board Relationship.png</t>
+        </is>
+      </c>
+      <c r="C976" t="n">
+        <v>1</v>
+      </c>
+      <c r="D976" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E976" t="n">
+        <v>10</v>
+      </c>
+      <c r="F976" t="n">
+        <v>0</v>
+      </c>
+      <c r="G976" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>Garrett, Spreitzer &amp; Bacevice_2017_OrgStudies_Co-constructing a sense of Community at work - the emergence of community in coworking spaces.pdf</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>F1_P5_Garrett, Spreitzer &amp; Bacevice_2017_OrgStudies_Co-constructing a sense of Community at work - the emergence of community in coworking spaces.png</t>
+        </is>
+      </c>
+      <c r="C977" t="n">
+        <v>1</v>
+      </c>
+      <c r="D977" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E977" t="n">
+        <v>6</v>
+      </c>
+      <c r="F977" t="n">
+        <v>0</v>
+      </c>
+      <c r="G977" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>Garrett, Spreitzer &amp; Bacevice_2017_OrgStudies_Co-constructing a sense of Community at work - the emergence of community in coworking spaces.pdf</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>F2_P14_Garrett, Spreitzer &amp; Bacevice_2017_OrgStudies_Co-constructing a sense of Community at work - the emergence of community in coworking spaces.png</t>
+        </is>
+      </c>
+      <c r="C978" t="n">
+        <v>2</v>
+      </c>
+      <c r="D978" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E978" t="n">
+        <v>15</v>
+      </c>
+      <c r="F978" t="n">
+        <v>0</v>
+      </c>
+      <c r="G978" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>Garrett, Spreitzer &amp; Bacevice_2017_OrgStudies_Co-constructing a sense of Community at work - the emergence of community in coworking spaces.pdf</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>F2_P15_Garrett, Spreitzer &amp; Bacevice_2017_OrgStudies_Co-constructing a sense of Community at work - the emergence of community in coworking spaces.png</t>
+        </is>
+      </c>
+      <c r="C979" t="n">
+        <v>2</v>
+      </c>
+      <c r="D979" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E979" t="n">
+        <v>16</v>
+      </c>
+      <c r="F979" t="n">
+        <v>0</v>
+      </c>
+      <c r="G979" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>Gist-Mackey_2017_Disembodied Job Search Communicaiton Training.pdf</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>F1_P11_Gist-Mackey_2017_Disembodied Job Search Communicaiton Training.png</t>
+        </is>
+      </c>
+      <c r="C980" t="n">
+        <v>1</v>
+      </c>
+      <c r="D980" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E980" t="n">
+        <v>12</v>
+      </c>
+      <c r="F980" t="n">
+        <v>0</v>
+      </c>
+      <c r="G980" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>Glaser_2017_AMJ_Design Performances.pdf</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>F1_P7_Glaser_2017_AMJ_Design Performances.png</t>
+        </is>
+      </c>
+      <c r="C981" t="n">
+        <v>1</v>
+      </c>
+      <c r="D981" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E981" t="n">
+        <v>8</v>
+      </c>
+      <c r="F981" t="n">
+        <v>0</v>
+      </c>
+      <c r="G981" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>Glaser_2017_AMJ_Design Performances.pdf</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>F2_P7_Glaser_2017_AMJ_Design Performances.png</t>
+        </is>
+      </c>
+      <c r="C982" t="n">
+        <v>2</v>
+      </c>
+      <c r="D982" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E982" t="n">
+        <v>8</v>
+      </c>
+      <c r="F982" t="n">
+        <v>0</v>
+      </c>
+      <c r="G982" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>Glaser_2017_AMJ_Design Performances.pdf</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>F2_P8_Glaser_2017_AMJ_Design Performances.png</t>
+        </is>
+      </c>
+      <c r="C983" t="n">
+        <v>2</v>
+      </c>
+      <c r="D983" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E983" t="n">
+        <v>9</v>
+      </c>
+      <c r="F983" t="n">
+        <v>0</v>
+      </c>
+      <c r="G983" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>Glaser_2017_AMJ_Design Performances.pdf</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>F2_P16_Glaser_2017_AMJ_Design Performances.png</t>
+        </is>
+      </c>
+      <c r="C984" t="n">
+        <v>2</v>
+      </c>
+      <c r="D984" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E984" t="n">
+        <v>17</v>
+      </c>
+      <c r="F984" t="n">
+        <v>0</v>
+      </c>
+      <c r="G984" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>Grodal &amp; O'Mahony_2017_AMJ_How Does a Grand Challenge Become Displaced.pdf</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>F1_P5_Grodal &amp; O'Mahony_2017_AMJ_How Does a Grand Challenge Become Displaced.png</t>
+        </is>
+      </c>
+      <c r="C985" t="n">
+        <v>1</v>
+      </c>
+      <c r="D985" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E985" t="n">
+        <v>6</v>
+      </c>
+      <c r="F985" t="n">
+        <v>0</v>
+      </c>
+      <c r="G985" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>Grodal &amp; O'Mahony_2017_AMJ_How Does a Grand Challenge Become Displaced.pdf</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>F2_P16_Grodal &amp; O'Mahony_2017_AMJ_How Does a Grand Challenge Become Displaced.png</t>
+        </is>
+      </c>
+      <c r="C986" t="n">
+        <v>2</v>
+      </c>
+      <c r="D986" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E986" t="n">
+        <v>17</v>
+      </c>
+      <c r="F986" t="n">
+        <v>0</v>
+      </c>
+      <c r="G986" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>Grodal &amp; O'Mahony_2017_AMJ_How Does a Grand Challenge Become Displaced.pdf</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>F3_P17_Grodal &amp; O'Mahony_2017_AMJ_How Does a Grand Challenge Become Displaced.png</t>
+        </is>
+      </c>
+      <c r="C987" t="n">
+        <v>3</v>
+      </c>
+      <c r="D987" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E987" t="n">
+        <v>18</v>
+      </c>
+      <c r="F987" t="n">
+        <v>0</v>
+      </c>
+      <c r="G987" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>Grodal &amp; O'Mahony_2017_AMJ_How Does a Grand Challenge Become Displaced.pdf</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>F3_P18_Grodal &amp; O'Mahony_2017_AMJ_How Does a Grand Challenge Become Displaced.png</t>
+        </is>
+      </c>
+      <c r="C988" t="n">
+        <v>3</v>
+      </c>
+      <c r="D988" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E988" t="n">
+        <v>19</v>
+      </c>
+      <c r="F988" t="n">
+        <v>0</v>
+      </c>
+      <c r="G988" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>Hajro, Gibson &amp; Pudelko_2017_AMJ_Knowledge Exchange Processes in Multicultural Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>F1_P18_Hajro, Gibson &amp; Pudelko_2017_AMJ_Knowledge Exchange Processes in Multicultural Teams.png</t>
+        </is>
+      </c>
+      <c r="C989" t="n">
+        <v>1</v>
+      </c>
+      <c r="D989" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E989" t="n">
+        <v>19</v>
+      </c>
+      <c r="F989" t="n">
+        <v>0</v>
+      </c>
+      <c r="G989" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>Hatch &amp; Schultz_2017_ASQ_Toward a Theory of Using History Authentically.pdf</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>F1_P5_Hatch &amp; Schultz_2017_ASQ_Toward a Theory of Using History Authentically.png</t>
+        </is>
+      </c>
+      <c r="C990" t="n">
+        <v>1</v>
+      </c>
+      <c r="D990" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E990" t="n">
+        <v>6</v>
+      </c>
+      <c r="F990" t="n">
+        <v>0</v>
+      </c>
+      <c r="G990" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>Hatch &amp; Schultz_2017_ASQ_Toward a Theory of Using History Authentically.pdf</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>F2_P7_Hatch &amp; Schultz_2017_ASQ_Toward a Theory of Using History Authentically.png</t>
+        </is>
+      </c>
+      <c r="C991" t="n">
+        <v>2</v>
+      </c>
+      <c r="D991" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E991" t="n">
+        <v>8</v>
+      </c>
+      <c r="F991" t="n">
+        <v>0</v>
+      </c>
+      <c r="G991" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>Hatch &amp; Schultz_2017_ASQ_Toward a Theory of Using History Authentically.pdf</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>F3_P18_Hatch &amp; Schultz_2017_ASQ_Toward a Theory of Using History Authentically.png</t>
+        </is>
+      </c>
+      <c r="C992" t="n">
+        <v>3</v>
+      </c>
+      <c r="D992" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E992" t="n">
+        <v>19</v>
+      </c>
+      <c r="F992" t="n">
+        <v>0</v>
+      </c>
+      <c r="G992" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>Hatch &amp; Schultz_2017_ASQ_Toward a Theory of Using History Authentically.pdf</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>F4_P27_Hatch &amp; Schultz_2017_ASQ_Toward a Theory of Using History Authentically.png</t>
+        </is>
+      </c>
+      <c r="C993" t="n">
+        <v>4</v>
+      </c>
+      <c r="D993" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E993" t="n">
+        <v>28</v>
+      </c>
+      <c r="F993" t="n">
+        <v>0</v>
+      </c>
+      <c r="G993" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>Hatch &amp; Schultz_2017_ASQ_Toward a Theory of Using History Authentically.pdf</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>F4_P28_Hatch &amp; Schultz_2017_ASQ_Toward a Theory of Using History Authentically.png</t>
+        </is>
+      </c>
+      <c r="C994" t="n">
+        <v>4</v>
+      </c>
+      <c r="D994" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E994" t="n">
+        <v>29</v>
+      </c>
+      <c r="F994" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G994" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>Heaphy_2017_AMJ_Dancing on Hot Coals.pdf</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>F1_P18_Heaphy_2017_AMJ_Dancing on Hot Coals.png</t>
+        </is>
+      </c>
+      <c r="C995" t="n">
+        <v>1</v>
+      </c>
+      <c r="D995" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E995" t="n">
+        <v>19</v>
+      </c>
+      <c r="F995" t="n">
+        <v>0</v>
+      </c>
+      <c r="G995" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>Howard-Grenville et al_2017_ASQ_If Chemists Don't Do it Who is Going to</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>F1_P22_Howard-Grenville et al_2017_ASQ_If Chemists Don't Do it Who is Going to.png</t>
+        </is>
+      </c>
+      <c r="C996" t="n">
+        <v>1</v>
+      </c>
+      <c r="D996" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E996" t="n">
+        <v>23</v>
+      </c>
+      <c r="F996" t="n">
+        <v>0</v>
+      </c>
+      <c r="G996" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>Jung, Vissa &amp; Pich_2017_AMJ_How Do Entrepreneurial Founding Teams Allocate Task Positions.pdf</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>F1_P23_Jung, Vissa &amp; Pich_2017_AMJ_How Do Entrepreneurial Founding Teams Allocate Task Positions.png</t>
+        </is>
+      </c>
+      <c r="C997" t="n">
+        <v>1</v>
+      </c>
+      <c r="D997" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E997" t="n">
+        <v>24</v>
+      </c>
+      <c r="F997" t="n">
+        <v>0</v>
+      </c>
+      <c r="G997" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>Jung, Vissa &amp; Pich_2017_AMJ_How Do Entrepreneurial Founding Teams Allocate Task Positions.pdf</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>F2_P26_Jung, Vissa &amp; Pich_2017_AMJ_How Do Entrepreneurial Founding Teams Allocate Task Positions.png</t>
+        </is>
+      </c>
+      <c r="C998" t="n">
+        <v>2</v>
+      </c>
+      <c r="D998" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E998" t="n">
+        <v>27</v>
+      </c>
+      <c r="F998" t="n">
+        <v>0</v>
+      </c>
+      <c r="G998" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>Kyratsis et al._2017_AMJ_Health Systems in Transition.pdf</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>F1_P8_Kyratsis et al._2017_AMJ_Health Systems in Transition.png</t>
+        </is>
+      </c>
+      <c r="C999" t="n">
+        <v>1</v>
+      </c>
+      <c r="D999" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E999" t="n">
+        <v>9</v>
+      </c>
+      <c r="F999" t="n">
+        <v>0</v>
+      </c>
+      <c r="G999" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>Kyratsis et al._2017_AMJ_Health Systems in Transition.pdf</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>F2_P25_Kyratsis et al._2017_AMJ_Health Systems in Transition.png</t>
+        </is>
+      </c>
+      <c r="C1000" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1000" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>Lewellyn &amp; Fainschmidt_2017_OrgStudies_Effectiveness of CEO Power Bundles and Discretion Context.pdf</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>F1_P13_Lewellyn &amp; Fainschmidt_2017_OrgStudies_Effectiveness of CEO Power Bundles and Discretion Context.png</t>
+        </is>
+      </c>
+      <c r="C1001" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1001" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>Lucas, Manikas, Mattingly &amp; Crider_2017_OrgStudies_Engaging and Misbehaving.pdf</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>F2_P8_Lucas, Manikas, Mattingly &amp; Crider_2017_OrgStudies_Engaging and Misbehaving.png</t>
+        </is>
+      </c>
+      <c r="C1002" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1002" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>Lucas, Manikas, Mattingly &amp; Crider_2017_OrgStudies_Engaging and Misbehaving.pdf</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>F2_P12_Lucas, Manikas, Mattingly &amp; Crider_2017_OrgStudies_Engaging and Misbehaving.png</t>
+        </is>
+      </c>
+      <c r="C1003" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1003" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>Massa, Helms, Voronov &amp; Wang_2017_AMJ_Emotions Uncorked.pdf</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>F1_P4_Massa, Helms, Voronov &amp; Wang_2017_AMJ_Emotions Uncorked.png</t>
+        </is>
+      </c>
+      <c r="C1004" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1004" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>Massa, Helms, Voronov &amp; Wang_2017_AMJ_Emotions Uncorked.pdf</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>F2_P9_Massa, Helms, Voronov &amp; Wang_2017_AMJ_Emotions Uncorked.png</t>
+        </is>
+      </c>
+      <c r="C1005" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1005" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>Massa, Helms, Voronov &amp; Wang_2017_AMJ_Emotions Uncorked.pdf</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>F3_P25_Massa, Helms, Voronov &amp; Wang_2017_AMJ_Emotions Uncorked.png</t>
+        </is>
+      </c>
+      <c r="C1006" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1006" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>Massa, Helms, Voronov &amp; Wang_2017_AMJ_Emotions Uncorked.pdf</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>F3_P26_Massa, Helms, Voronov &amp; Wang_2017_AMJ_Emotions Uncorked.png</t>
+        </is>
+      </c>
+      <c r="C1007" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1007" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>Muller_2017_OrgStudies_Brand centred control - a study of internal branding and normative control.pdf</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>F1_P6_Muller_2017_OrgStudies_Brand centred control - a study of internal branding and normative control.png</t>
+        </is>
+      </c>
+      <c r="C1008" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1008" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>Muller_2017_OrgStudies_Brand centred control - a study of internal branding and normative control.pdf</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>F2_P13_Muller_2017_OrgStudies_Brand centred control - a study of internal branding and normative control.png</t>
+        </is>
+      </c>
+      <c r="C1009" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1009" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>Muller_2017_OrgStudies_Brand centred control - a study of internal branding and normative control.pdf</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>F2_P14_Muller_2017_OrgStudies_Brand centred control - a study of internal branding and normative control.png</t>
+        </is>
+      </c>
+      <c r="C1010" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1010" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>Muller_2017_OrgStudies_Brand centred control - a study of internal branding and normative control.pdf</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>F2_P15_Muller_2017_OrgStudies_Brand centred control - a study of internal branding and normative control.png</t>
+        </is>
+      </c>
+      <c r="C1011" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1011" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>Muller_2017_OrgStudies_Brand centred control - a study of internal branding and normative control.pdf</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>F2_P16_Muller_2017_OrgStudies_Brand centred control - a study of internal branding and normative control.png</t>
+        </is>
+      </c>
+      <c r="C1012" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1012" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>O'Neill &amp; Rothbard_2017_AMJ_Is Love All you Need.pdf</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>F1_P19_O'Neill &amp; Rothbard_2017_AMJ_Is Love All you Need.png</t>
+        </is>
+      </c>
+      <c r="C1013" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1013" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>O'Neill &amp; Rothbard_2017_AMJ_Is Love All you Need.pdf</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>F2_P19_O'Neill &amp; Rothbard_2017_AMJ_Is Love All you Need.png</t>
+        </is>
+      </c>
+      <c r="C1014" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1014" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>O'Neill &amp; Rothbard_2017_AMJ_Is Love All you Need.pdf</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>F2_P21_O'Neill &amp; Rothbard_2017_AMJ_Is Love All you Need.png</t>
+        </is>
+      </c>
+      <c r="C1015" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1015" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>O'Neill &amp; Rothbard_2017_AMJ_Is Love All you Need.pdf</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>F3_P19_O'Neill &amp; Rothbard_2017_AMJ_Is Love All you Need.png</t>
+        </is>
+      </c>
+      <c r="C1016" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1016" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>O'Neill &amp; Rothbard_2017_AMJ_Is Love All you Need.pdf</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>F3_P22_O'Neill &amp; Rothbard_2017_AMJ_Is Love All you Need.png</t>
+        </is>
+      </c>
+      <c r="C1017" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1017" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>Obodaru_AMJ_2017_Forgone but not Forgotten Toward a Theory of Forgone Professional Identities.pdf</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>F1_P7_Obodaru_AMJ_2017_Forgone but not Forgotten Toward a Theory of Forgone Professional Identities.png</t>
+        </is>
+      </c>
+      <c r="C1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1018" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>Obodaru_AMJ_2017_Forgone but not Forgotten Toward a Theory of Forgone Professional Identities.pdf</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>F2_P10_Obodaru_AMJ_2017_Forgone but not Forgotten Toward a Theory of Forgone Professional Identities.png</t>
+        </is>
+      </c>
+      <c r="C1019" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1019" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.pdf</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>F1_P7_Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.png</t>
+        </is>
+      </c>
+      <c r="C1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1020" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.pdf</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>F2_P9_Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.png</t>
+        </is>
+      </c>
+      <c r="C1021" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1021" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.pdf</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>F2_P14_Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.png</t>
+        </is>
+      </c>
+      <c r="C1022" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1022" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.pdf</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>F2_P18_Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.png</t>
+        </is>
+      </c>
+      <c r="C1023" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1023" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.pdf</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>F2_P19_Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.png</t>
+        </is>
+      </c>
+      <c r="C1024" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1024" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.pdf</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>F2_P21_Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.png</t>
+        </is>
+      </c>
+      <c r="C1025" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1025" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.pdf</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>F1_P5_Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.png</t>
+        </is>
+      </c>
+      <c r="C1026" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1026" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.pdf</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>F2_P7_Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.png</t>
+        </is>
+      </c>
+      <c r="C1027" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1027" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.pdf</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>F2_P8_Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.png</t>
+        </is>
+      </c>
+      <c r="C1028" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1028" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.pdf</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>F3_P10_Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.png</t>
+        </is>
+      </c>
+      <c r="C1029" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1029" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.pdf</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>F3_P11_Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.png</t>
+        </is>
+      </c>
+      <c r="C1030" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1030" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.pdf</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>F3_P12_Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.png</t>
+        </is>
+      </c>
+      <c r="C1031" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1031" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.pdf</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>F4_P14_Olsen_2017_OrgStudies_Rethinking Collective Action and Co-Evolution of the State and Institutional Entrepreneurs in Emerging Economies.png</t>
+        </is>
+      </c>
+      <c r="C1032" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1032" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>Pine &amp; Mazmanian_2017_AMJ_Artful and Contorted Coordinating.pdf</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>F1_P15_Pine &amp; Mazmanian_2017_AMJ_Artful and Contorted Coordinating.png</t>
+        </is>
+      </c>
+      <c r="C1033" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1033" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>Pine &amp; Mazmanian_2017_AMJ_Artful and Contorted Coordinating.pdf</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>F2_P16_Pine &amp; Mazmanian_2017_AMJ_Artful and Contorted Coordinating.png</t>
+        </is>
+      </c>
+      <c r="C1034" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1034" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>Pine &amp; Mazmanian_2017_AMJ_Artful and Contorted Coordinating.pdf</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>F2_P17_Pine &amp; Mazmanian_2017_AMJ_Artful and Contorted Coordinating.png</t>
+        </is>
+      </c>
+      <c r="C1035" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1035" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>Powell &amp; Baker_2017_AMJ_In the Beginning Identity Processes and Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>F1_P5_Powell &amp; Baker_2017_AMJ_In the Beginning Identity Processes and Organizing.png</t>
+        </is>
+      </c>
+      <c r="C1036" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1036" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>Powell &amp; Baker_2017_AMJ_In the Beginning Identity Processes and Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>F1_P26_Powell &amp; Baker_2017_AMJ_In the Beginning Identity Processes and Organizing.png</t>
+        </is>
+      </c>
+      <c r="C1037" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1037" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>Powell &amp; Baker_2017_AMJ_In the Beginning Identity Processes and Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>F2_P12_Powell &amp; Baker_2017_AMJ_In the Beginning Identity Processes and Organizing.png</t>
+        </is>
+      </c>
+      <c r="C1038" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1038" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>Powell &amp; Baker_2017_AMJ_In the Beginning Identity Processes and Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>F2_P14_Powell &amp; Baker_2017_AMJ_In the Beginning Identity Processes and Organizing.png</t>
+        </is>
+      </c>
+      <c r="C1039" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1039" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>Powell &amp; Baker_2017_AMJ_In the Beginning Identity Processes and Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>F2_P19_Powell &amp; Baker_2017_AMJ_In the Beginning Identity Processes and Organizing.png</t>
+        </is>
+      </c>
+      <c r="C1040" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1040" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>Rogers et al._2017_ASQ_Seeing More than Orange - Organizational Respect and Positive Identity Transformation in a Prison Context.pdf</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>F1_P10_Rogers et al._2017_ASQ_Seeing More than Orange - Organizational Respect and Positive Identity Transformation in a Prison Context.png</t>
+        </is>
+      </c>
+      <c r="C1041" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1041" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>Rogers et al._2017_ASQ_Seeing More than Orange - Organizational Respect and Positive Identity Transformation in a Prison Context.pdf</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>F2_P37_Rogers et al._2017_ASQ_Seeing More than Orange - Organizational Respect and Positive Identity Transformation in a Prison Context.png</t>
+        </is>
+      </c>
+      <c r="C1042" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>38</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G1042" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>Shymko &amp; Roulet_2017_AMJ_Where does Medici Hurt Da Vinci.pdf</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>F1_P20_Shymko &amp; Roulet_2017_AMJ_Where does Medici Hurt Da Vinci.png</t>
+        </is>
+      </c>
+      <c r="C1043" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1043" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>Shymko &amp; Roulet_2017_AMJ_Where does Medici Hurt Da Vinci.pdf</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>F2_P22_Shymko &amp; Roulet_2017_AMJ_Where does Medici Hurt Da Vinci.png</t>
+        </is>
+      </c>
+      <c r="C1044" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1044" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>Shymko &amp; Roulet_2017_AMJ_Where does Medici Hurt Da Vinci.pdf</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>F3_P23_Shymko &amp; Roulet_2017_AMJ_Where does Medici Hurt Da Vinci.png</t>
+        </is>
+      </c>
+      <c r="C1045" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1045" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.pdf</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>F1_P1_Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.png</t>
+        </is>
+      </c>
+      <c r="C1046" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1046" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.pdf</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>F2_P1_Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.png</t>
+        </is>
+      </c>
+      <c r="C1047" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1047" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.pdf</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>F2_P2_Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.png</t>
+        </is>
+      </c>
+      <c r="C1048" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1048" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.pdf</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>F3_P10_Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.png</t>
+        </is>
+      </c>
+      <c r="C1049" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1049" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.pdf</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>F3_P14_Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.png</t>
+        </is>
+      </c>
+      <c r="C1050" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1050" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.pdf</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>F4_P10_Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.png</t>
+        </is>
+      </c>
+      <c r="C1051" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1051" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.pdf</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>F5_P11_Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.png</t>
+        </is>
+      </c>
+      <c r="C1052" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1052" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.pdf</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>F5_P12_Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.png</t>
+        </is>
+      </c>
+      <c r="C1053" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1053" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.pdf</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>F6_P12_Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.png</t>
+        </is>
+      </c>
+      <c r="C1054" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1054" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.pdf</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>F7_P12_Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.png</t>
+        </is>
+      </c>
+      <c r="C1055" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1055" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.pdf</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>F7_P13_Siebert, Wilson &amp; Hamilton_2017_AMJ_Devils May Sit Here.png</t>
+        </is>
+      </c>
+      <c r="C1056" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1056" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>Smith, Haslam &amp; Nielsen_2017_OrgStudies_In Search of Identity Leaders.pdf</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>F1_P7_Smith, Haslam &amp; Nielsen_2017_OrgStudies_In Search of Identity Leaders.png</t>
+        </is>
+      </c>
+      <c r="C1057" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1057" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>Sonenshein et al._2017_ASQ_Competition of a Different Flavor - How a Strategic Group Identity Shapes Competition and Cooperation.pdf</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>F1_P6_Sonenshein et al._2017_ASQ_Competition of a Different Flavor - How a Strategic Group Identity Shapes Competition and Cooperation.png</t>
+        </is>
+      </c>
+      <c r="C1058" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1058" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>Sonenshein et al._2017_ASQ_Competition of a Different Flavor - How a Strategic Group Identity Shapes Competition and Cooperation.pdf</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>F2_P18_Sonenshein et al._2017_ASQ_Competition of a Different Flavor - How a Strategic Group Identity Shapes Competition and Cooperation.png</t>
+        </is>
+      </c>
+      <c r="C1059" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1059" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>Stewart et al._2017_AMJ_Those with the Most Find it Hardest to Share.pdf</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>F1_P2_Stewart et al._2017_AMJ_Those with the Most Find it Hardest to Share.png</t>
+        </is>
+      </c>
+      <c r="C1060" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1060" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>Stewart et al._2017_AMJ_Those with the Most Find it Hardest to Share.pdf</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>F2_P7_Stewart et al._2017_AMJ_Those with the Most Find it Hardest to Share.png</t>
+        </is>
+      </c>
+      <c r="C1061" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1061" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>Stewart et al._2017_AMJ_Those with the Most Find it Hardest to Share.pdf</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>F2_P9_Stewart et al._2017_AMJ_Those with the Most Find it Hardest to Share.png</t>
+        </is>
+      </c>
+      <c r="C1062" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1062" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>Stewart et al._2017_AMJ_Those with the Most Find it Hardest to Share.pdf</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>F3_P15_Stewart et al._2017_AMJ_Those with the Most Find it Hardest to Share.png</t>
+        </is>
+      </c>
+      <c r="C1063" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1063" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1063" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1063" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>Stewart et al._2017_AMJ_Those with the Most Find it Hardest to Share.pdf</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>F3_P16_Stewart et al._2017_AMJ_Those with the Most Find it Hardest to Share.png</t>
+        </is>
+      </c>
+      <c r="C1064" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1064" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>Timming_2017_HR_Body Art as Branded Labour.pdf</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>F1_P5_Timming_2017_HR_Body Art as Branded Labour.png</t>
+        </is>
+      </c>
+      <c r="C1065" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1065" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>Timming_2017_HR_Body Art as Branded Labour.pdf</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>F2_P8_Timming_2017_HR_Body Art as Branded Labour.png</t>
+        </is>
+      </c>
+      <c r="C1066" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1066" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>Timming_2017_HR_Body Art as Branded Labour.pdf</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>F2_P9_Timming_2017_HR_Body Art as Branded Labour.png</t>
+        </is>
+      </c>
+      <c r="C1067" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1067" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>Timming_2017_HR_Body Art as Branded Labour.pdf</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>F3_P11_Timming_2017_HR_Body Art as Branded Labour.png</t>
+        </is>
+      </c>
+      <c r="C1068" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1068" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>Timming_2017_HR_Body Art as Branded Labour.pdf</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>F3_P12_Timming_2017_HR_Body Art as Branded Labour.png</t>
+        </is>
+      </c>
+      <c r="C1069" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1069" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>Timming_2017_HR_Body Art as Branded Labour.pdf</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>F3_P13_Timming_2017_HR_Body Art as Branded Labour.png</t>
+        </is>
+      </c>
+      <c r="C1070" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1070" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>Vough, Bindl &amp; Parker_2017_HR_Proactivity Routines - The Role of Social Processes in how Employees Self-Initiate Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>F1_P8_Vough, Bindl &amp; Parker_2017_HR_Proactivity Routines - The Role of Social Processes in how Employees Self-Initiate Change.png</t>
+        </is>
+      </c>
+      <c r="C1071" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1071" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>Vough, Bindl &amp; Parker_2017_HR_Proactivity Routines - The Role of Social Processes in how Employees Self-Initiate Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>F8_P18_Vough, Bindl &amp; Parker_2017_HR_Proactivity Routines - The Role of Social Processes in how Employees Self-Initiate Change.png</t>
+        </is>
+      </c>
+      <c r="C1072" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1072" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.pdf</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>F1_P4_Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.png</t>
+        </is>
+      </c>
+      <c r="C1073" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1073" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.pdf</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>F2_P15_Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.png</t>
+        </is>
+      </c>
+      <c r="C1074" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1074" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.pdf</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>F3_P21_Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.png</t>
+        </is>
+      </c>
+      <c r="C1075" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1075" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.pdf</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>F3_P22_Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.png</t>
+        </is>
+      </c>
+      <c r="C1076" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1076" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.pdf</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>F3_P23_Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.png</t>
+        </is>
+      </c>
+      <c r="C1077" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1077" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.pdf</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>F3_P24_Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.png</t>
+        </is>
+      </c>
+      <c r="C1078" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1078" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>Wijaya &amp; Heugens_2017_OrgStudies_Give me a Hallelujah.pdf</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>F1_P15_Wijaya &amp; Heugens_2017_OrgStudies_Give me a Hallelujah.png</t>
+        </is>
+      </c>
+      <c r="C1079" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1079" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.pdf</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>F1_P8_Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.png</t>
+        </is>
+      </c>
+      <c r="C1080" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1080" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.pdf</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>F2_P9_Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.png</t>
+        </is>
+      </c>
+      <c r="C1081" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1081" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.pdf</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>F2_P10_Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.png</t>
+        </is>
+      </c>
+      <c r="C1082" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1082" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.pdf</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>F2_P12_Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.png</t>
+        </is>
+      </c>
+      <c r="C1083" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1083" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.pdf</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>F2_P19_Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.png</t>
+        </is>
+      </c>
+      <c r="C1084" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1084" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.pdf</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>F3_P19_Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.png</t>
+        </is>
+      </c>
+      <c r="C1085" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1085" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.pdf</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>F3_P20_Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.png</t>
+        </is>
+      </c>
+      <c r="C1086" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1086" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.pdf</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>F3_P21_Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.png</t>
+        </is>
+      </c>
+      <c r="C1087" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1087" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>Wright, Zammuto &amp; Liesch_2017_AMJ_Maintaining the Values of a Profession.pdf</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>F1_P28_Wright, Zammuto &amp; Liesch_2017_AMJ_Maintaining the Values of a Profession.png</t>
+        </is>
+      </c>
+      <c r="C1088" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1088" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
+++ b/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1693"/>
+  <dimension ref="A1:G2036"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46154,6 +46154,9267 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>Ambrosini, Bowman &amp; Burton-Talor_2007_HR_Inter-team coordination activities as a source of customer satisfaction.pdf</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>F1_P28_Ambrosini, Bowman &amp; Burton-Talor_2007_HR_Inter-team coordination activities as a source of customer satisfaction.png</t>
+        </is>
+      </c>
+      <c r="C1694" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1694" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>F1_P5_Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.png</t>
+        </is>
+      </c>
+      <c r="C1695" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1695" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>F1_P6_Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.png</t>
+        </is>
+      </c>
+      <c r="C1696" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1696" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>F2_P6_Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.png</t>
+        </is>
+      </c>
+      <c r="C1697" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1697" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>F3_P7_Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.png</t>
+        </is>
+      </c>
+      <c r="C1698" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1698" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>F4_P8_Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.png</t>
+        </is>
+      </c>
+      <c r="C1699" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1699" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>F5_P13_Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.png</t>
+        </is>
+      </c>
+      <c r="C1700" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1700" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>F5_P18_Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.png</t>
+        </is>
+      </c>
+      <c r="C1701" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1701" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>F6_P14_Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.png</t>
+        </is>
+      </c>
+      <c r="C1702" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1702" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>F6_P15_Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.png</t>
+        </is>
+      </c>
+      <c r="C1703" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1703" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>F7_P16_Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.png</t>
+        </is>
+      </c>
+      <c r="C1704" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1704" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.pdf</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>F7_P17_Anand, Gardner &amp; Morris_2007_AMJ_Knowledge Based Innovation.png</t>
+        </is>
+      </c>
+      <c r="C1705" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1705" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>Antcliff, Saundry &amp; Stuart_2007_HR_Networks and social capital in the UK Television industry.pdf</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>F1_P19_Antcliff, Saundry &amp; Stuart_2007_HR_Networks and social capital in the UK Television industry.png</t>
+        </is>
+      </c>
+      <c r="C1706" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1706" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.pdf</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>F1_P7_Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.png</t>
+        </is>
+      </c>
+      <c r="C1707" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1707" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>Fayard &amp; Weeks_2007_OrgSci_Photocopiers and Water-coolers - the affordances of informal interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>F1_P10_Fayard &amp; Weeks_2007_OrgSci_Photocopiers and Water-coolers - the affordances of informal interaction.png</t>
+        </is>
+      </c>
+      <c r="C1708" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1708" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>Fayard &amp; Weeks_2007_OrgSci_Photocopiers and Water-coolers - the affordances of informal interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>F2_P10_Fayard &amp; Weeks_2007_OrgSci_Photocopiers and Water-coolers - the affordances of informal interaction.png</t>
+        </is>
+      </c>
+      <c r="C1709" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1709" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>Fayard &amp; Weeks_2007_OrgSci_Photocopiers and Water-coolers - the affordances of informal interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>F2_P12_Fayard &amp; Weeks_2007_OrgSci_Photocopiers and Water-coolers - the affordances of informal interaction.png</t>
+        </is>
+      </c>
+      <c r="C1710" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1710" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>Fayard &amp; Weeks_2007_OrgSci_Photocopiers and Water-coolers - the affordances of informal interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>F3_P11_Fayard &amp; Weeks_2007_OrgSci_Photocopiers and Water-coolers - the affordances of informal interaction.png</t>
+        </is>
+      </c>
+      <c r="C1711" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1711" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>Fayard &amp; Weeks_2007_OrgSci_Photocopiers and Water-coolers - the affordances of informal interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>F3_P13_Fayard &amp; Weeks_2007_OrgSci_Photocopiers and Water-coolers - the affordances of informal interaction.png</t>
+        </is>
+      </c>
+      <c r="C1712" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1712" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>Hoon_2007_HR_Committees as strategic practice.pdf</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>F1_P19_Hoon_2007_HR_Committees as strategic practice.png</t>
+        </is>
+      </c>
+      <c r="C1713" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1713" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>Howard-Grenville_2007_OrgSci_Developing Issue-Selling Effectiveness over Time.pdf</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>F1_P6_Howard-Grenville_2007_OrgSci_Developing Issue-Selling Effectiveness over Time.png</t>
+        </is>
+      </c>
+      <c r="C1714" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1714" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>Howard-Grenville_2007_OrgSci_Developing Issue-Selling Effectiveness over Time.pdf</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>F2_P13_Howard-Grenville_2007_OrgSci_Developing Issue-Selling Effectiveness over Time.png</t>
+        </is>
+      </c>
+      <c r="C1715" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1715" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>F1_P8_Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="C1716" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1716" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>F2_P8_Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="C1717" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1717" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>F2_P9_Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="C1718" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1718" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>F2_P10_Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="C1719" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1719" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>F3_P9_Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="C1720" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1720" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>F3_P10_Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="C1721" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1721" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>F4_P11_Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="C1722" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1722" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>F4_P13_Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="C1723" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1723" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>F5_P11_Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="C1724" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1724" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>F6_P12_Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="C1725" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1725" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>Lanzara &amp; Patriotta_2007_OrgSci_The Institutionalization of Knowledge as an Automotive Factory - Tempolates, Inscriptions and the Problem of Durability.pdf</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>F1_P14_Lanzara &amp; Patriotta_2007_OrgSci_The Institutionalization of Knowledge as an Automotive Factory - Tempolates, Inscriptions and the Problem of Durability.png</t>
+        </is>
+      </c>
+      <c r="C1726" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1726" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>Leonardi_2007_OrgSci_Activating the Informational Capabilities of Informational Technology for Org Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>F1_P5_Leonardi_2007_OrgSci_Activating the Informational Capabilities of Informational Technology for Org Change.png</t>
+        </is>
+      </c>
+      <c r="C1727" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1727" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>Leonardi_2007_OrgSci_Activating the Informational Capabilities of Informational Technology for Org Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>F2_P6_Leonardi_2007_OrgSci_Activating the Informational Capabilities of Informational Technology for Org Change.png</t>
+        </is>
+      </c>
+      <c r="C1728" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1728" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>Leonardi_2007_OrgSci_Activating the Informational Capabilities of Informational Technology for Org Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>F2_P10_Leonardi_2007_OrgSci_Activating the Informational Capabilities of Informational Technology for Org Change.png</t>
+        </is>
+      </c>
+      <c r="C1729" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1729" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>Leonardi_2007_OrgSci_Activating the Informational Capabilities of Informational Technology for Org Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>F3_P13_Leonardi_2007_OrgSci_Activating the Informational Capabilities of Informational Technology for Org Change.png</t>
+        </is>
+      </c>
+      <c r="C1730" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1730" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>Leonardi_2007_OrgSci_Activating the Informational Capabilities of Informational Technology for Org Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>F4_P14_Leonardi_2007_OrgSci_Activating the Informational Capabilities of Informational Technology for Org Change.png</t>
+        </is>
+      </c>
+      <c r="C1731" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1731" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>Martens, Jennings &amp; Jennings_2007_AMJ_Do the Stories they tell get them the money they need.pdf</t>
+        </is>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>F1_P8_Martens, Jennings &amp; Jennings_2007_AMJ_Do the Stories they tell get them the money they need.png</t>
+        </is>
+      </c>
+      <c r="C1732" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1732" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>McGivern &amp; Ferlie_2007_HR_Playing tick-box games interrelating defences in professional appraisal.pdf</t>
+        </is>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>F1_P13_McGivern &amp; Ferlie_2007_HR_Playing tick-box games interrelating defences in professional appraisal.png</t>
+        </is>
+      </c>
+      <c r="C1733" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1733" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>Michel_2007_ASQ_A Distributed Cognition Perspective on Newcomers' Change Processes.pdf</t>
+        </is>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>F1_P36_Michel_2007_ASQ_A Distributed Cognition Perspective on Newcomers' Change Processes.png</t>
+        </is>
+      </c>
+      <c r="C1734" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>37</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1734" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>Plowman et al._2007_AMJ_Radical Change Accidentally The Emergence and Amplification of Small Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>F1_P2_Plowman et al._2007_AMJ_Radical Change Accidentally The Emergence and Amplification of Small Change.png</t>
+        </is>
+      </c>
+      <c r="C1735" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1735" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>Ross_2007_OrgSci_Backstage with the Knowledge Boys and Girls.pdf</t>
+        </is>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>F1_P3_Ross_2007_OrgSci_Backstage with the Knowledge Boys and Girls.png</t>
+        </is>
+      </c>
+      <c r="C1736" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1736" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>Schaefer_2007_J Management Studies _ Contrasting Institutional and Performance Accounts of Environmental Management.pdf</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>F1_P4_Schaefer_2007_J Management Studies _ Contrasting Institutional and Performance Accounts of Environmental Management.png</t>
+        </is>
+      </c>
+      <c r="C1737" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1737" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>Schaefer_2007_J Management Studies _ Contrasting Institutional and Performance Accounts of Environmental Management.pdf</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>F2_P21_Schaefer_2007_J Management Studies _ Contrasting Institutional and Performance Accounts of Environmental Management.png</t>
+        </is>
+      </c>
+      <c r="C1738" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1738" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>Schaefer_2007_J Management Studies _ Contrasting Institutional and Performance Accounts of Environmental Management.pdf</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>F2_P22_Schaefer_2007_J Management Studies _ Contrasting Institutional and Performance Accounts of Environmental Management.png</t>
+        </is>
+      </c>
+      <c r="C1739" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1739" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>Schaefer_2007_J Management Studies _ Contrasting Institutional and Performance Accounts of Environmental Management.pdf</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>F3_P22_Schaefer_2007_J Management Studies _ Contrasting Institutional and Performance Accounts of Environmental Management.png</t>
+        </is>
+      </c>
+      <c r="C1740" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1740" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>Schaefer_2007_J Management Studies _ Contrasting Institutional and Performance Accounts of Environmental Management.pdf</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>F3_P23_Schaefer_2007_J Management Studies _ Contrasting Institutional and Performance Accounts of Environmental Management.png</t>
+        </is>
+      </c>
+      <c r="C1741" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1741" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>Snell_2007_J Management Studies _Differentiating Good Soldiers from Good Actors.pdf</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>F1_P13_Snell_2007_J Management Studies _Differentiating Good Soldiers from Good Actors.png</t>
+        </is>
+      </c>
+      <c r="C1742" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1742" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>Tschang_2007_OrgSci_Balancing the Tensions Between Rationalization and Creativity.pdf</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>F1_P7_Tschang_2007_OrgSci_Balancing the Tensions Between Rationalization and Creativity.png</t>
+        </is>
+      </c>
+      <c r="C1743" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1743" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>Tschang_2007_OrgSci_Balancing the Tensions Between Rationalization and Creativity.pdf</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>F2_P11_Tschang_2007_OrgSci_Balancing the Tensions Between Rationalization and Creativity.png</t>
+        </is>
+      </c>
+      <c r="C1744" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1744" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>Tschang_2007_OrgSci_Balancing the Tensions Between Rationalization and Creativity.pdf</t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>F2_P12_Tschang_2007_OrgSci_Balancing the Tensions Between Rationalization and Creativity.png</t>
+        </is>
+      </c>
+      <c r="C1745" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1745" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>Zanoni_2007_J Management Studies _Minority Employees Engaging with  Diversity  Management  An Analysis of Control.pdf</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>F1_P3_Zanoni_2007_J Management Studies _Minority Employees Engaging with  Diversity  Management  An Analysis of Control.png</t>
+        </is>
+      </c>
+      <c r="C1746" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1746" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>Zott &amp; Huy_2007_ASQ_How Entrepreneurs Use Symbolic Management to Acquire Resources.pdf</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>F1_P27_Zott &amp; Huy_2007_ASQ_How Entrepreneurs Use Symbolic Management to Acquire Resources.png</t>
+        </is>
+      </c>
+      <c r="C1747" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1747" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>Busby_2006_J Management Studies _Failure to Mobilize in Reliability‐Seeking Organizations  Two Cases from the UK.pdf</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>F1_P6_Busby_2006_J Management Studies _Failure to Mobilize in Reliability‐Seeking Organizations  Two Cases from the UK.png</t>
+        </is>
+      </c>
+      <c r="C1748" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1748" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>Busby_2006_J Management Studies _Failure to Mobilize in Reliability‐Seeking Organizations  Two Cases from the UK.pdf</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>F2_P12_Busby_2006_J Management Studies _Failure to Mobilize in Reliability‐Seeking Organizations  Two Cases from the UK.png</t>
+        </is>
+      </c>
+      <c r="C1749" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1749" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>Busby_2006_J Management Studies _Failure to Mobilize in Reliability‐Seeking Organizations  Two Cases from the UK.pdf</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>F2_P13_Busby_2006_J Management Studies _Failure to Mobilize in Reliability‐Seeking Organizations  Two Cases from the UK.png</t>
+        </is>
+      </c>
+      <c r="C1750" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1750" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>Busby_2006_J Management Studies _Failure to Mobilize in Reliability‐Seeking Organizations  Two Cases from the UK.pdf</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>F3_P13_Busby_2006_J Management Studies _Failure to Mobilize in Reliability‐Seeking Organizations  Two Cases from the UK.png</t>
+        </is>
+      </c>
+      <c r="C1751" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1751" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>Busby_2006_J Management Studies _Failure to Mobilize in Reliability‐Seeking Organizations  Two Cases from the UK.pdf</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>F4_P14_Busby_2006_J Management Studies _Failure to Mobilize in Reliability‐Seeking Organizations  Two Cases from the UK.png</t>
+        </is>
+      </c>
+      <c r="C1752" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1752" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>Busby_2006_J Management Studies _Failure to Mobilize in Reliability‐Seeking Organizations  Two Cases from the UK.pdf</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>F4_P15_Busby_2006_J Management Studies _Failure to Mobilize in Reliability‐Seeking Organizations  Two Cases from the UK.png</t>
+        </is>
+      </c>
+      <c r="C1753" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1753" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>Delmestri_2006_HR_Streams of inconsistent institutional influences.pdf</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>F1_P4_Delmestri_2006_HR_Streams of inconsistent institutional influences.png</t>
+        </is>
+      </c>
+      <c r="C1754" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1754" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>Delmestri_2006_HR_Streams of inconsistent institutional influences.pdf</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>F2_P10_Delmestri_2006_HR_Streams of inconsistent institutional influences.png</t>
+        </is>
+      </c>
+      <c r="C1755" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1755" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>Delmestri_2006_HR_Streams of inconsistent institutional influences.pdf</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>F2_P13_Delmestri_2006_HR_Streams of inconsistent institutional influences.png</t>
+        </is>
+      </c>
+      <c r="C1756" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1756" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>Delmestri_2006_HR_Streams of inconsistent institutional influences.pdf</t>
+        </is>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>F2_P14_Delmestri_2006_HR_Streams of inconsistent institutional influences.png</t>
+        </is>
+      </c>
+      <c r="C1757" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1757" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>Delmestri_2006_HR_Streams of inconsistent institutional influences.pdf</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>F2_P15_Delmestri_2006_HR_Streams of inconsistent institutional influences.png</t>
+        </is>
+      </c>
+      <c r="C1758" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1758" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>Delmestri_2006_HR_Streams of inconsistent institutional influences.pdf</t>
+        </is>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>F3_P11_Delmestri_2006_HR_Streams of inconsistent institutional influences.png</t>
+        </is>
+      </c>
+      <c r="C1759" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1759" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="inlineStr">
+        <is>
+          <t>Delmestri_2006_HR_Streams of inconsistent institutional influences.pdf</t>
+        </is>
+      </c>
+      <c r="B1760" t="inlineStr">
+        <is>
+          <t>F3_P12_Delmestri_2006_HR_Streams of inconsistent institutional influences.png</t>
+        </is>
+      </c>
+      <c r="C1760" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1760" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="inlineStr">
+        <is>
+          <t>Delmestri_2006_HR_Streams of inconsistent institutional influences.pdf</t>
+        </is>
+      </c>
+      <c r="B1761" t="inlineStr">
+        <is>
+          <t>F4_P15_Delmestri_2006_HR_Streams of inconsistent institutional influences.png</t>
+        </is>
+      </c>
+      <c r="C1761" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1761" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="inlineStr">
+        <is>
+          <t>Delmestri_2006_HR_Streams of inconsistent institutional influences.pdf</t>
+        </is>
+      </c>
+      <c r="B1762" t="inlineStr">
+        <is>
+          <t>F4_P16_Delmestri_2006_HR_Streams of inconsistent institutional influences.png</t>
+        </is>
+      </c>
+      <c r="C1762" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1762" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="inlineStr">
+        <is>
+          <t>Dutton et al._2006_ASQ_Explaining Compassion Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B1763" t="inlineStr">
+        <is>
+          <t>F1_P23_Dutton et al._2006_ASQ_Explaining Compassion Organizing.png</t>
+        </is>
+      </c>
+      <c r="C1763" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1763" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="inlineStr">
+        <is>
+          <t>Gibson &amp; Gibbs_2006_ASQ_Unpacking the Concept of Virtuality.pdf</t>
+        </is>
+      </c>
+      <c r="B1764" t="inlineStr">
+        <is>
+          <t>F1_P30_Gibson &amp; Gibbs_2006_ASQ_Unpacking the Concept of Virtuality.png</t>
+        </is>
+      </c>
+      <c r="C1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1764" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>Hargadon &amp; Bechky_2006_OrgSci_When Collections of Creatives Become Creative Collectives.pdf</t>
+        </is>
+      </c>
+      <c r="B1765" t="inlineStr">
+        <is>
+          <t>F1_P5_Hargadon &amp; Bechky_2006_OrgSci_When Collections of Creatives Become Creative Collectives.png</t>
+        </is>
+      </c>
+      <c r="C1765" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1765" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" t="inlineStr">
+        <is>
+          <t>Hsiao, Tsai &amp; Lee_2006_OrgSci_The Problems of Embeddedness - Knowledge Transfer, Coordination and Reuse in Information Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B1766" t="inlineStr">
+        <is>
+          <t>F1_P3_Hsiao, Tsai &amp; Lee_2006_OrgSci_The Problems of Embeddedness - Knowledge Transfer, Coordination and Reuse in Information Systems.png</t>
+        </is>
+      </c>
+      <c r="C1766" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1766" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>Hsiao, Tsai &amp; Lee_2006_OrgSci_The Problems of Embeddedness - Knowledge Transfer, Coordination and Reuse in Information Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>F2_P12_Hsiao, Tsai &amp; Lee_2006_OrgSci_The Problems of Embeddedness - Knowledge Transfer, Coordination and Reuse in Information Systems.png</t>
+        </is>
+      </c>
+      <c r="C1767" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1767" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>Hsiao, Tsai &amp; Lee_2006_OrgSci_The Problems of Embeddedness - Knowledge Transfer, Coordination and Reuse in Information Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B1768" t="inlineStr">
+        <is>
+          <t>F2_P13_Hsiao, Tsai &amp; Lee_2006_OrgSci_The Problems of Embeddedness - Knowledge Transfer, Coordination and Reuse in Information Systems.png</t>
+        </is>
+      </c>
+      <c r="C1768" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1768" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>Hsiao, Tsai &amp; Lee_2006_OrgSci_The Problems of Embeddedness - Knowledge Transfer, Coordination and Reuse in Information Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B1769" t="inlineStr">
+        <is>
+          <t>F2_P14_Hsiao, Tsai &amp; Lee_2006_OrgSci_The Problems of Embeddedness - Knowledge Transfer, Coordination and Reuse in Information Systems.png</t>
+        </is>
+      </c>
+      <c r="C1769" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1769" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>Hsiao, Tsai &amp; Lee_2006_OrgSci_The Problems of Embeddedness - Knowledge Transfer, Coordination and Reuse in Information Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B1770" t="inlineStr">
+        <is>
+          <t>F2_P17_Hsiao, Tsai &amp; Lee_2006_OrgSci_The Problems of Embeddedness - Knowledge Transfer, Coordination and Reuse in Information Systems.png</t>
+        </is>
+      </c>
+      <c r="C1770" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1770" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>Hsiao, Tsai &amp; Lee_2006_OrgSci_The Problems of Embeddedness - Knowledge Transfer, Coordination and Reuse in Information Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B1771" t="inlineStr">
+        <is>
+          <t>F2_P18_Hsiao, Tsai &amp; Lee_2006_OrgSci_The Problems of Embeddedness - Knowledge Transfer, Coordination and Reuse in Information Systems.png</t>
+        </is>
+      </c>
+      <c r="C1771" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1771" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>James &amp; Wooten_2006_AMJ_Diversity Crises How Firms Manage Discrimination Lawsuits.pdf</t>
+        </is>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>F1_P8_James &amp; Wooten_2006_AMJ_Diversity Crises How Firms Manage Discrimination Lawsuits.png</t>
+        </is>
+      </c>
+      <c r="C1772" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1772" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>Kreiner, Hollensbe &amp; Sheep_2006_AMJ_Where is the Me among We Identity Work and the Search for Optimal Balance.pdf</t>
+        </is>
+      </c>
+      <c r="B1773" t="inlineStr">
+        <is>
+          <t>F1_P6_Kreiner, Hollensbe &amp; Sheep_2006_AMJ_Where is the Me among We Identity Work and the Search for Optimal Balance.png</t>
+        </is>
+      </c>
+      <c r="C1773" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1773" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>Maurer &amp; Ebers_2006_ASQ_Dynamics of Social Capital and their Performance Implications.pdf</t>
+        </is>
+      </c>
+      <c r="B1774" t="inlineStr">
+        <is>
+          <t>F1_P13_Maurer &amp; Ebers_2006_ASQ_Dynamics of Social Capital and their Performance Implications.png</t>
+        </is>
+      </c>
+      <c r="C1774" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1774" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>Maurer &amp; Ebers_2006_ASQ_Dynamics of Social Capital and their Performance Implications.pdf</t>
+        </is>
+      </c>
+      <c r="B1775" t="inlineStr">
+        <is>
+          <t>F2_P18_Maurer &amp; Ebers_2006_ASQ_Dynamics of Social Capital and their Performance Implications.png</t>
+        </is>
+      </c>
+      <c r="C1775" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1775" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>Pratt, Rockmann &amp; Kaufmann_2006_AMJ_Constructing Professional Identity The Role of Work and Identity Learning Cycles in the Customization of Identity among Medical Residents.pdf</t>
+        </is>
+      </c>
+      <c r="B1776" t="inlineStr">
+        <is>
+          <t>F1_P5_Pratt, Rockmann &amp; Kaufmann_2006_AMJ_Constructing Professional Identity The Role of Work and Identity Learning Cycles in the Customization of Identity among Medical Residents.png</t>
+        </is>
+      </c>
+      <c r="C1776" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1776" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>Pratt, Rockmann &amp; Kaufmann_2006_AMJ_Constructing Professional Identity The Role of Work and Identity Learning Cycles in the Customization of Identity among Medical Residents.pdf</t>
+        </is>
+      </c>
+      <c r="B1777" t="inlineStr">
+        <is>
+          <t>F2_P18_Pratt, Rockmann &amp; Kaufmann_2006_AMJ_Constructing Professional Identity The Role of Work and Identity Learning Cycles in the Customization of Identity among Medical Residents.png</t>
+        </is>
+      </c>
+      <c r="C1777" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1777" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.pdf</t>
+        </is>
+      </c>
+      <c r="B1778" t="inlineStr">
+        <is>
+          <t>F1_P6_Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.png</t>
+        </is>
+      </c>
+      <c r="C1778" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1778" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.pdf</t>
+        </is>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>F2_P14_Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.png</t>
+        </is>
+      </c>
+      <c r="C1779" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1779" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.pdf</t>
+        </is>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>F2_P15_Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.png</t>
+        </is>
+      </c>
+      <c r="C1780" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1780" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.pdf</t>
+        </is>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>F3_P16_Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.png</t>
+        </is>
+      </c>
+      <c r="C1781" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1781" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.pdf</t>
+        </is>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>F3_P17_Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.png</t>
+        </is>
+      </c>
+      <c r="C1782" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1782" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.pdf</t>
+        </is>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>F4_P18_Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.png</t>
+        </is>
+      </c>
+      <c r="C1783" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1783" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.pdf</t>
+        </is>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>F4_P19_Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.png</t>
+        </is>
+      </c>
+      <c r="C1784" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1784" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.pdf</t>
+        </is>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>F5_P19_Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.png</t>
+        </is>
+      </c>
+      <c r="C1785" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1785" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.pdf</t>
+        </is>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>F5_P22_Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.png</t>
+        </is>
+      </c>
+      <c r="C1786" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1786" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>Willem &amp; Scarbrough_2006_HR_Social capital and political bias in knowledge sharing.pdf</t>
+        </is>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>F1_P4_Willem &amp; Scarbrough_2006_HR_Social capital and political bias in knowledge sharing.png</t>
+        </is>
+      </c>
+      <c r="C1787" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1787" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>Baker &amp; Nelson_2005_ASQ_Creating Something from Nothing.pdf</t>
+        </is>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>F1_P24_Baker &amp; Nelson_2005_ASQ_Creating Something from Nothing.png</t>
+        </is>
+      </c>
+      <c r="C1788" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1788" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>Jack_2005_J Management Studies _The Role  Use and Activation of Strong and Weak Network Ties  A Qualitative Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>F1_P18_Jack_2005_J Management Studies _The Role  Use and Activation of Strong and Weak Network Ties  A Qualitative Analysis.png</t>
+        </is>
+      </c>
+      <c r="C1789" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1789" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>Janssens &amp; Zanoni_2005_HR_Many diversities for many services - theorizing diversity in service companies.pdf</t>
+        </is>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>F1_P17_Janssens &amp; Zanoni_2005_HR_Many diversities for many services - theorizing diversity in service companies.png</t>
+        </is>
+      </c>
+      <c r="C1790" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1790" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>Knight &amp; Pye_2005_HR_Network Learning - an empirically derived model of learning by groups of organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>F1_P4_Knight &amp; Pye_2005_HR_Network Learning - an empirically derived model of learning by groups of organizations.png</t>
+        </is>
+      </c>
+      <c r="C1791" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1791" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>Knight &amp; Pye_2005_HR_Network Learning - an empirically derived model of learning by groups of organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>F2_P14_Knight &amp; Pye_2005_HR_Network Learning - an empirically derived model of learning by groups of organizations.png</t>
+        </is>
+      </c>
+      <c r="C1792" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1792" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>Magnan_2005_ J Management Studies _The Impact of Profit Sharing on the Performance of Financial Services Firms.pdf</t>
+        </is>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>F1_P19_Magnan_2005_ J Management Studies _The Impact of Profit Sharing on the Performance of Financial Services Firms.png</t>
+        </is>
+      </c>
+      <c r="C1793" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1793" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>Oliver &amp; Montgomery_2005_HR_Toward the construction of a profession's boundaries - creating a network agenda.pdf</t>
+        </is>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>F1_P8_Oliver &amp; Montgomery_2005_HR_Toward the construction of a profession's boundaries - creating a network agenda.png</t>
+        </is>
+      </c>
+      <c r="C1794" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1794" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>Schweizer_2005_AMJ_Organizational Integration of Acquired Biotech Companies.pdf</t>
+        </is>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>F1_P15_Schweizer_2005_AMJ_Organizational Integration of Acquired Biotech Companies.png</t>
+        </is>
+      </c>
+      <c r="C1795" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1795" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>Ulrich_2005_J Management StudiesContinuity and Change in Mergers and Acquisitions  A Social Identity Case Study of.pdf</t>
+        </is>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>F1_P13_Ulrich_2005_J Management StudiesContinuity and Change in Mergers and Acquisitions  A Social Identity Case Study of.png</t>
+        </is>
+      </c>
+      <c r="C1796" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1796" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>Wong_2005_OrgSci_Organizational Learning via Expatriate Managers.pdf</t>
+        </is>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>F1_P15_Wong_2005_OrgSci_Organizational Learning via Expatriate Managers.png</t>
+        </is>
+      </c>
+      <c r="C1797" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1797" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.pdf</t>
+        </is>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>F1_P8_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="C1798" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1798" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.pdf</t>
+        </is>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>F2_P10_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="C1799" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1799" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.pdf</t>
+        </is>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>F2_P11_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="C1800" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1800" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.pdf</t>
+        </is>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>F2_P14_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="C1801" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1801" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.pdf</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>F3_P10_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="C1802" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1802" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.pdf</t>
+        </is>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>F3_P12_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="C1803" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1803" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.pdf</t>
+        </is>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>F4_P14_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="C1804" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1804" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.pdf</t>
+        </is>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>F4_P15_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="C1805" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1805" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.pdf</t>
+        </is>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>F1_P10_Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="C1806" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1806" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.pdf</t>
+        </is>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>F2_P10_Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="C1807" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1807" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.pdf</t>
+        </is>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>F2_P13_Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="C1808" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1808" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>F1_P12_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1809" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1809" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>F2_P17_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1810" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1810" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>F2_P18_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1811" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1811" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>F3_P19_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1812" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1812" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>F3_P20_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1813" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1813" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>F4_P23_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1814" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1814" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>F5_P23_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1815" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>24</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1815" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>F6_P25_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1816" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1816" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>F7_P25_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1817" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1817" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>Cardinal et al._2004_OrgSci_Balancing and Rebalancing in the Creation and Evolution of Org Control.pdf</t>
+        </is>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>F1_P12_Cardinal et al._2004_OrgSci_Balancing and Rebalancing in the Creation and Evolution of Org Control.png</t>
+        </is>
+      </c>
+      <c r="C1818" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1818" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.pdf</t>
+        </is>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>F1_P8_Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.png</t>
+        </is>
+      </c>
+      <c r="C1819" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1819" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.pdf</t>
+        </is>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>F1_P7_Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.png</t>
+        </is>
+      </c>
+      <c r="C1820" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1820" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.pdf</t>
+        </is>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>F2_P12_Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.png</t>
+        </is>
+      </c>
+      <c r="C1821" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1821" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.pdf</t>
+        </is>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>F3_P13_Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.png</t>
+        </is>
+      </c>
+      <c r="C1822" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1822" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.pdf</t>
+        </is>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>F4_P15_Corley &amp; Gioia_2004_ASQ_Identity Ambiguity and Change in the Wake of a Corporate Spin Off.png</t>
+        </is>
+      </c>
+      <c r="C1823" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1823" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>Ericksen &amp; Dyer_2004_ASQ_Right from the Start- Exploring the Effects of Early Team Events.pdf</t>
+        </is>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>F1_P17_Ericksen &amp; Dyer_2004_ASQ_Right from the Start- Exploring the Effects of Early Team Events.png</t>
+        </is>
+      </c>
+      <c r="C1824" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1824" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>Ericksen &amp; Dyer_2004_ASQ_Right from the Start- Exploring the Effects of Early Team Events.pdf</t>
+        </is>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>F2_P26_Ericksen &amp; Dyer_2004_ASQ_Right from the Start- Exploring the Effects of Early Team Events.png</t>
+        </is>
+      </c>
+      <c r="C1825" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1825" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>F1_P2_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1826" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1826" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>F2_P8_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1827" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1827" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>F2_P9_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1828" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1828" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>F2_P10_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1829" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1829" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>F2_P16_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1830" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1830" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>F2_P21_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1831" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1831" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>F2_P24_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1832" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1832" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>F2_P26_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1833" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1833" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>F3_P9_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1834" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1834" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>F3_P10_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1835" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1835" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>F3_P16_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1836" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1836" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>F3_P24_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1837" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1837" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>F3_P26_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1838" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1838" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>F4_P24_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1839" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1839" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>F4_P25_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1840" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1840" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>F4_P26_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C1841" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1841" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>Jansen_2004_OrgSci_From Persistence to Pursuit.pdf</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>F1_P4_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="C1842" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1842" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>Jansen_2004_OrgSci_From Persistence to Pursuit.pdf</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>F2_P7_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="C1843" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1843" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>Jansen_2004_OrgSci_From Persistence to Pursuit.pdf</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>F2_P8_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="C1844" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1844" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>Jansen_2004_OrgSci_From Persistence to Pursuit.pdf</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>F3_P13_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="C1845" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1845" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>Jansen_2004_OrgSci_From Persistence to Pursuit.pdf</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>F3_P14_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="C1846" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1846" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>Jansen_2004_OrgSci_From Persistence to Pursuit.pdf</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>F3_P15_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="C1847" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1847" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>Jansen_2004_OrgSci_From Persistence to Pursuit.pdf</t>
+        </is>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>F4_P14_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="C1848" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1848" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>Lee et al._2004_OrgSci_The Mixed Effects of Inconsistency on Experimentation.pdf</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>F1_P9_Lee et al._2004_OrgSci_The Mixed Effects of Inconsistency on Experimentation.png</t>
+        </is>
+      </c>
+      <c r="C1849" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1849" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>Lee et al._2004_OrgSci_The Mixed Effects of Inconsistency on Experimentation.pdf</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>F2_P12_Lee et al._2004_OrgSci_The Mixed Effects of Inconsistency on Experimentation.png</t>
+        </is>
+      </c>
+      <c r="C1850" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1850" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>Lee et al._2004_OrgSci_The Mixed Effects of Inconsistency on Experimentation.pdf</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>F2_P13_Lee et al._2004_OrgSci_The Mixed Effects of Inconsistency on Experimentation.png</t>
+        </is>
+      </c>
+      <c r="C1851" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1851" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>Maitlis &amp; Ozcelik_2004_OrgSci_Toxic Decision Processes.pdf</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>F1_P7_Maitlis &amp; Ozcelik_2004_OrgSci_Toxic Decision Processes.png</t>
+        </is>
+      </c>
+      <c r="C1852" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1852" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>F1_P3_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="C1853" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1853" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>F2_P5_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="C1854" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1854" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>F3_P8_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="C1855" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1855" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>F3_P9_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="C1856" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1856" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>F4_P13_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="C1857" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1857" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>F4_P14_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="C1858" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1858" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>Washington_2004_OrgStudies_Field Approaches to Institutional Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>F1_P7_Washington_2004_OrgStudies_Field Approaches to Institutional Change.png</t>
+        </is>
+      </c>
+      <c r="C1859" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1859" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>Berends, Boersma &amp; Weggeman_2003_HR_The structuration of Organization Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>F1_P8_Berends, Boersma &amp; Weggeman_2003_HR_The structuration of Organization Learning.png</t>
+        </is>
+      </c>
+      <c r="C1860" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1860" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1860" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1860" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1860" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.pdf</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>F1_P3_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="C1861" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1861" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1861" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1861" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1861" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.pdf</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>F2_P11_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="C1862" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1862" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1862" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1862" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1862" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.pdf</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>F2_P12_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="C1863" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1863" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1863" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1863" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.pdf</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>F2_P13_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="C1864" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1864" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1864" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1864" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.pdf</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>F2_P14_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="C1865" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1865" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1865" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1865" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1865" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.pdf</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>F2_P15_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="C1866" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1866" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1866" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1866" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1866" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.pdf</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>F2_P16_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="C1867" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1867" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1867" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1867" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1867" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>Edmondson_2003__J Management Studies _Speaking Up in the Operating Room  How Team Leaders Promote Learning in.pdf</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>F1_P5_Edmondson_2003__J Management Studies _Speaking Up in the Operating Room  How Team Leaders Promote Learning in.png</t>
+        </is>
+      </c>
+      <c r="C1868" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1868" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1868" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1868" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>Elsbach_2003_ASQ_Relating Physical Environment to Self Categorizations.pdf</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>F1_P24_Elsbach_2003_ASQ_Relating Physical Environment to Self Categorizations.png</t>
+        </is>
+      </c>
+      <c r="C1869" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1869" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1869" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1869" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.pdf</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>F1_P1_Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.png</t>
+        </is>
+      </c>
+      <c r="C1870" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1870" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1870" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1870" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1870" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.pdf</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>F2_P7_Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.png</t>
+        </is>
+      </c>
+      <c r="C1871" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1871" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1871" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1871" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1871" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.pdf</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>F2_P8_Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.png</t>
+        </is>
+      </c>
+      <c r="C1872" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1872" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1872" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1872" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1872" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.pdf</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>F3_P26_Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.png</t>
+        </is>
+      </c>
+      <c r="C1873" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1873" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1873" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1873" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1873" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.pdf</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>F3_P27_Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.png</t>
+        </is>
+      </c>
+      <c r="C1874" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1874" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1874" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1874" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1874" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>Goodall &amp; Roberts_2003_OrgSci_Repairing Managerial Knowledge-Ability over Distance.pdf</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>F1_P12_Goodall &amp; Roberts_2003_OrgSci_Repairing Managerial Knowledge-Ability over Distance.png</t>
+        </is>
+      </c>
+      <c r="C1875" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1875" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1875" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1875" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1875" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>Goodall &amp; Roberts_2003_OrgSci_Repairing Managerial Knowledge-Ability over Distance.pdf</t>
+        </is>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>F2_P14_Goodall &amp; Roberts_2003_OrgSci_Repairing Managerial Knowledge-Ability over Distance.png</t>
+        </is>
+      </c>
+      <c r="C1876" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1876" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1876" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1876" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1876" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>Haunschild_2003_HR_Managing employment relationships in flexible labour markets - the case of German repertory theatres.pdf</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>F1_P9_Haunschild_2003_HR_Managing employment relationships in flexible labour markets - the case of German repertory theatres.png</t>
+        </is>
+      </c>
+      <c r="C1877" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1877" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1877" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1877" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1877" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>Martin &amp; Salomon_2003_OrgSci_Tacitness Learning and International Expansion.pdf</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>F1_P9_Martin &amp; Salomon_2003_OrgSci_Tacitness Learning and International Expansion.png</t>
+        </is>
+      </c>
+      <c r="C1878" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1878" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1878" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1878" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1878" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>F1_P1_Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.png</t>
+        </is>
+      </c>
+      <c r="C1879" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1879" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1879" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1879" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1879" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>F2_P5_Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.png</t>
+        </is>
+      </c>
+      <c r="C1880" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1880" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1880" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1880" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1880" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>F2_P6_Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.png</t>
+        </is>
+      </c>
+      <c r="C1881" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1881" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1881" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1881" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G1881" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>F2_P12_Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.png</t>
+        </is>
+      </c>
+      <c r="C1882" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1882" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1882" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1882" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1882" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>F2_P16_Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.png</t>
+        </is>
+      </c>
+      <c r="C1883" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1883" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1883" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1883" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1883" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" t="inlineStr">
+        <is>
+          <t>Thomas Al‐Maskati_2003_ J Management Studies- Contextual Influences on Thinking in Organizations  Learner and Tutor.pdf</t>
+        </is>
+      </c>
+      <c r="B1884" t="inlineStr">
+        <is>
+          <t>F1_P3_Thomas Al‐Maskati_2003_ J Management Studies- Contextual Influences on Thinking in Organizations  Learner and Tutor.png</t>
+        </is>
+      </c>
+      <c r="C1884" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1884" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1884" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1884" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1884" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" t="inlineStr">
+        <is>
+          <t>Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.pdf</t>
+        </is>
+      </c>
+      <c r="B1885" t="inlineStr">
+        <is>
+          <t>F1_P2_Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.png</t>
+        </is>
+      </c>
+      <c r="C1885" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1885" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1885" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1885" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1885" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" t="inlineStr">
+        <is>
+          <t>Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.pdf</t>
+        </is>
+      </c>
+      <c r="B1886" t="inlineStr">
+        <is>
+          <t>F2_P3_Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.png</t>
+        </is>
+      </c>
+      <c r="C1886" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1886" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1886" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1886" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1886" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" t="inlineStr">
+        <is>
+          <t>Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.pdf</t>
+        </is>
+      </c>
+      <c r="B1887" t="inlineStr">
+        <is>
+          <t>F2_P4_Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.png</t>
+        </is>
+      </c>
+      <c r="C1887" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1887" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1887" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1887" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1887" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" t="inlineStr">
+        <is>
+          <t>Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.pdf</t>
+        </is>
+      </c>
+      <c r="B1888" t="inlineStr">
+        <is>
+          <t>F3_P9_Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.png</t>
+        </is>
+      </c>
+      <c r="C1888" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1888" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1888" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1888" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1888" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" t="inlineStr">
+        <is>
+          <t>Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.pdf</t>
+        </is>
+      </c>
+      <c r="B1889" t="inlineStr">
+        <is>
+          <t>F3_P15_Vanheule, Lievrouw &amp; Verhaeghe_2003_HR_Burnout and Intersubjectivity - a psychoanalytical study from a Lacanian perspective.png</t>
+        </is>
+      </c>
+      <c r="C1889" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1889" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1889" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1889" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1889" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890" t="inlineStr">
+        <is>
+          <t>Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.pdf</t>
+        </is>
+      </c>
+      <c r="B1890" t="inlineStr">
+        <is>
+          <t>F1_P8_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="C1890" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1890" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1890" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1890" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1890" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" t="inlineStr">
+        <is>
+          <t>Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.pdf</t>
+        </is>
+      </c>
+      <c r="B1891" t="inlineStr">
+        <is>
+          <t>F2_P10_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="C1891" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1891" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1891" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1891" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1891" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" t="inlineStr">
+        <is>
+          <t>Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.pdf</t>
+        </is>
+      </c>
+      <c r="B1892" t="inlineStr">
+        <is>
+          <t>F2_P11_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="C1892" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1892" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1892" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1892" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1892" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" t="inlineStr">
+        <is>
+          <t>Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.pdf</t>
+        </is>
+      </c>
+      <c r="B1893" t="inlineStr">
+        <is>
+          <t>F3_P11_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="C1893" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1893" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1893" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1893" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1893" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" t="inlineStr">
+        <is>
+          <t>Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.pdf</t>
+        </is>
+      </c>
+      <c r="B1894" t="inlineStr">
+        <is>
+          <t>F3_P12_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="C1894" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1894" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E1894" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1894" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1894" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" t="inlineStr">
+        <is>
+          <t>Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B1895" t="inlineStr">
+        <is>
+          <t>F1_P5_Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.png</t>
+        </is>
+      </c>
+      <c r="C1895" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1895" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1895" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1895" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1895" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" t="inlineStr">
+        <is>
+          <t>Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B1896" t="inlineStr">
+        <is>
+          <t>F2_P11_Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.png</t>
+        </is>
+      </c>
+      <c r="C1896" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1896" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1896" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1896" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1896" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" t="inlineStr">
+        <is>
+          <t>Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B1897" t="inlineStr">
+        <is>
+          <t>F2_P12_Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.png</t>
+        </is>
+      </c>
+      <c r="C1897" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1897" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1897" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1897" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1897" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898" t="inlineStr">
+        <is>
+          <t>Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B1898" t="inlineStr">
+        <is>
+          <t>F2_P13_Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.png</t>
+        </is>
+      </c>
+      <c r="C1898" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1898" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1898" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1898" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1898" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" t="inlineStr">
+        <is>
+          <t>Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B1899" t="inlineStr">
+        <is>
+          <t>F2_P14_Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.png</t>
+        </is>
+      </c>
+      <c r="C1899" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1899" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1899" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1899" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1899" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" t="inlineStr">
+        <is>
+          <t>Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.pdf</t>
+        </is>
+      </c>
+      <c r="B1900" t="inlineStr">
+        <is>
+          <t>F2_P15_Beyer &amp; Hannah_2002_OrgSci_Building on the past - Enacting Established Personal Identities in a New Work Setting.png</t>
+        </is>
+      </c>
+      <c r="C1900" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1900" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1900" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1900" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1900" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" t="inlineStr">
+        <is>
+          <t>Birkinshaw et al._2002_OrgSci_Knowledge as a Contingency Variable Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B1901" t="inlineStr">
+        <is>
+          <t>F1_P5_Birkinshaw et al._2002_OrgSci_Knowledge as a Contingency Variable Quant.png</t>
+        </is>
+      </c>
+      <c r="C1901" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1901" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1901" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1901" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1901" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" t="inlineStr">
+        <is>
+          <t>Birkinshaw et al._2002_OrgSci_Knowledge as a Contingency Variable Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B1902" t="inlineStr">
+        <is>
+          <t>F2_P9_Birkinshaw et al._2002_OrgSci_Knowledge as a Contingency Variable Quant.png</t>
+        </is>
+      </c>
+      <c r="C1902" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1902" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1902" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1902" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1902" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" t="inlineStr">
+        <is>
+          <t>Birkinshaw et al._2002_OrgSci_Knowledge as a Contingency Variable Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B1903" t="inlineStr">
+        <is>
+          <t>F2_P12_Birkinshaw et al._2002_OrgSci_Knowledge as a Contingency Variable Quant.png</t>
+        </is>
+      </c>
+      <c r="C1903" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1903" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1903" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1903" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1903" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" t="inlineStr">
+        <is>
+          <t>Burgelman_2002_ASQ_Strategy as Vector and the Inertia of Coevolutionary Lock-in.pdf</t>
+        </is>
+      </c>
+      <c r="B1904" t="inlineStr">
+        <is>
+          <t>F1_P27_Burgelman_2002_ASQ_Strategy as Vector and the Inertia of Coevolutionary Lock-in.png</t>
+        </is>
+      </c>
+      <c r="C1904" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1904" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1904" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1904" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1904" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" t="inlineStr">
+        <is>
+          <t>Dutton et al._2002_Org Sci_Red Light Green Light.pdf</t>
+        </is>
+      </c>
+      <c r="B1905" t="inlineStr">
+        <is>
+          <t>F1_P5_Dutton et al._2002_Org Sci_Red Light Green Light.png</t>
+        </is>
+      </c>
+      <c r="C1905" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1905" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1905" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1905" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1905" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906" t="inlineStr">
+        <is>
+          <t>Dutton et al._2002_OrgSci_Red Ligh Green Light.pdf</t>
+        </is>
+      </c>
+      <c r="B1906" t="inlineStr">
+        <is>
+          <t>F1_P4_Dutton et al._2002_OrgSci_Red Ligh Green Light.png</t>
+        </is>
+      </c>
+      <c r="C1906" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1906" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1906" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1906" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1906" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" t="inlineStr">
+        <is>
+          <t>Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.pdf</t>
+        </is>
+      </c>
+      <c r="B1907" t="inlineStr">
+        <is>
+          <t>F1_P5_Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.png</t>
+        </is>
+      </c>
+      <c r="C1907" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1907" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1907" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1907" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1907" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" t="inlineStr">
+        <is>
+          <t>Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.pdf</t>
+        </is>
+      </c>
+      <c r="B1908" t="inlineStr">
+        <is>
+          <t>F2_P3_Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.png</t>
+        </is>
+      </c>
+      <c r="C1908" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1908" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1908" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1908" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1908" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" t="inlineStr">
+        <is>
+          <t>Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.pdf</t>
+        </is>
+      </c>
+      <c r="B1909" t="inlineStr">
+        <is>
+          <t>F2_P8_Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.png</t>
+        </is>
+      </c>
+      <c r="C1909" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1909" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1909" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1909" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1909" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" t="inlineStr">
+        <is>
+          <t>Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.pdf</t>
+        </is>
+      </c>
+      <c r="B1910" t="inlineStr">
+        <is>
+          <t>F2_P9_Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.png</t>
+        </is>
+      </c>
+      <c r="C1910" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1910" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1910" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1910" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1910" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" t="inlineStr">
+        <is>
+          <t>Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.pdf</t>
+        </is>
+      </c>
+      <c r="B1911" t="inlineStr">
+        <is>
+          <t>F2_P11_Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.png</t>
+        </is>
+      </c>
+      <c r="C1911" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1911" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1911" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1911" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1911" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" t="inlineStr">
+        <is>
+          <t>Foreman &amp; Whetten_2002_OrgSci_Members identification with Multiple Identity Orgs_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B1912" t="inlineStr">
+        <is>
+          <t>F1_P2_Foreman &amp; Whetten_2002_OrgSci_Members identification with Multiple Identity Orgs_Quant.png</t>
+        </is>
+      </c>
+      <c r="C1912" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1912" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1912" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1912" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1912" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" t="inlineStr">
+        <is>
+          <t>Hodgkinson &amp; Wright_2002_OrgSci_Confronting Strategic Inertia in a Top Management Team - Learning from Failure.pdf</t>
+        </is>
+      </c>
+      <c r="B1913" t="inlineStr">
+        <is>
+          <t>F1_P13_Hodgkinson &amp; Wright_2002_OrgSci_Confronting Strategic Inertia in a Top Management Team - Learning from Failure.png</t>
+        </is>
+      </c>
+      <c r="C1913" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1913" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1913" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1913" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1913" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914" t="inlineStr">
+        <is>
+          <t>Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1914" t="inlineStr">
+        <is>
+          <t>F1_P2_Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.png</t>
+        </is>
+      </c>
+      <c r="C1914" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1914" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1914" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1914" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1914" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" t="inlineStr">
+        <is>
+          <t>Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1915" t="inlineStr">
+        <is>
+          <t>F2_P4_Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.png</t>
+        </is>
+      </c>
+      <c r="C1915" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1915" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1915" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1915" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1915" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" t="inlineStr">
+        <is>
+          <t>Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1916" t="inlineStr">
+        <is>
+          <t>F3_P27_Huy_2002_ASQ_Emotional Balancing of Organizational Continuity and Radical Change.png</t>
+        </is>
+      </c>
+      <c r="C1916" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1916" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1916" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1916" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1916" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" t="inlineStr">
+        <is>
+          <t>Kitchener_2002_OrgStudies_Mobilitzing the Logic of Managerialism in Professional Fields.pdf</t>
+        </is>
+      </c>
+      <c r="B1917" t="inlineStr">
+        <is>
+          <t>F1_P9_Kitchener_2002_OrgStudies_Mobilitzing the Logic of Managerialism in Professional Fields.png</t>
+        </is>
+      </c>
+      <c r="C1917" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1917" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1917" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1917" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1917" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" t="inlineStr">
+        <is>
+          <t>Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B1918" t="inlineStr">
+        <is>
+          <t>F1_P3_Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.png</t>
+        </is>
+      </c>
+      <c r="C1918" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1918" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1918" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1918" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1918" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" t="inlineStr">
+        <is>
+          <t>Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B1919" t="inlineStr">
+        <is>
+          <t>F2_P6_Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.png</t>
+        </is>
+      </c>
+      <c r="C1919" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1919" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1919" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1919" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1919" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" t="inlineStr">
+        <is>
+          <t>Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B1920" t="inlineStr">
+        <is>
+          <t>F2_P7_Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.png</t>
+        </is>
+      </c>
+      <c r="C1920" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1920" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1920" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1920" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1920" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" t="inlineStr">
+        <is>
+          <t>Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B1921" t="inlineStr">
+        <is>
+          <t>F2_P8_Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.png</t>
+        </is>
+      </c>
+      <c r="C1921" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1921" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1921" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1921" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1921" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922" t="inlineStr">
+        <is>
+          <t>Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B1922" t="inlineStr">
+        <is>
+          <t>F2_P18_Lozeau, Langley &amp; Denis_2002_HR_The corruption of managerial techniques by organizations.png</t>
+        </is>
+      </c>
+      <c r="C1922" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1922" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1922" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1922" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1922" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" t="inlineStr">
+        <is>
+          <t>Montealegre_2002_OrgSci_A Process Model of Capability Development.pdf</t>
+        </is>
+      </c>
+      <c r="B1923" t="inlineStr">
+        <is>
+          <t>F1_P9_Montealegre_2002_OrgSci_A Process Model of Capability Development.png</t>
+        </is>
+      </c>
+      <c r="C1923" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1923" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1923" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1923" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1923" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" t="inlineStr">
+        <is>
+          <t>Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.pdf</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>F1_P10_Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.png</t>
+        </is>
+      </c>
+      <c r="C1924" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1924" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1924" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1924" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1924" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" t="inlineStr">
+        <is>
+          <t>Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.pdf</t>
+        </is>
+      </c>
+      <c r="B1925" t="inlineStr">
+        <is>
+          <t>F2_P12_Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.png</t>
+        </is>
+      </c>
+      <c r="C1925" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1925" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1925" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1925" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1925" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" t="inlineStr">
+        <is>
+          <t>Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.pdf</t>
+        </is>
+      </c>
+      <c r="B1926" t="inlineStr">
+        <is>
+          <t>F3_P16_Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.png</t>
+        </is>
+      </c>
+      <c r="C1926" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1926" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1926" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1926" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1926" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B1927" t="inlineStr">
+        <is>
+          <t>F1_P7_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C1927" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1927" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1927" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1927" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1927" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B1928" t="inlineStr">
+        <is>
+          <t>F2_P13_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C1928" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1928" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1928" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1928" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1928" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B1929" t="inlineStr">
+        <is>
+          <t>F2_P14_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C1929" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1929" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1929" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1929" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G1929" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B1930" t="inlineStr">
+        <is>
+          <t>F3_P17_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C1930" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1930" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1930" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1930" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G1930" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B1931" t="inlineStr">
+        <is>
+          <t>F4_P18_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C1931" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1931" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1931" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1931" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G1931" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B1932" t="inlineStr">
+        <is>
+          <t>F5_P21_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C1932" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1932" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1932" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1932" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G1932" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B1933" t="inlineStr">
+        <is>
+          <t>F6_P26_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C1933" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1933" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1933" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1933" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1933" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B1934" t="inlineStr">
+        <is>
+          <t>F7_P27_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C1934" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1934" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1934" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1934" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1934" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>F8_P28_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C1935" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1935" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1935" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1935" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1935" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B1936" t="inlineStr">
+        <is>
+          <t>F9_P29_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C1936" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1936" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1936" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1936" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1936" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B1937" t="inlineStr">
+        <is>
+          <t>F9_P30_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C1937" t="n">
+        <v>9</v>
+      </c>
+      <c r="D1937" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1937" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1937" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1937" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B1938" t="inlineStr">
+        <is>
+          <t>F10_P31_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C1938" t="n">
+        <v>10</v>
+      </c>
+      <c r="D1938" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1938" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1938" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1938" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" t="inlineStr">
+        <is>
+          <t>Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.pdf</t>
+        </is>
+      </c>
+      <c r="B1939" t="inlineStr">
+        <is>
+          <t>F1_P0_Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.png</t>
+        </is>
+      </c>
+      <c r="C1939" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1939" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1939" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1939" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1939" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" t="inlineStr">
+        <is>
+          <t>Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.pdf</t>
+        </is>
+      </c>
+      <c r="B1940" t="inlineStr">
+        <is>
+          <t>F2_P21_Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.png</t>
+        </is>
+      </c>
+      <c r="C1940" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1940" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1940" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1940" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1940" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" t="inlineStr">
+        <is>
+          <t>Snell_2002_OrgSci_The Learning Organization, SEnsegiving and Psychological Contracts - a Hong Kong Case.pdf</t>
+        </is>
+      </c>
+      <c r="B1941" t="inlineStr">
+        <is>
+          <t>F1_P14_Snell_2002_OrgSci_The Learning Organization, SEnsegiving and Psychological Contracts - a Hong Kong Case.png</t>
+        </is>
+      </c>
+      <c r="C1941" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1941" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1941" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1941" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1941" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" t="inlineStr">
+        <is>
+          <t>Staudenmayer et al._2002_OrgSci_Time to Change Temporal Shifts as Enablers of Org Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1942" t="inlineStr">
+        <is>
+          <t>F1_P12_Staudenmayer et al._2002_OrgSci_Time to Change Temporal Shifts as Enablers of Org Change.png</t>
+        </is>
+      </c>
+      <c r="C1942" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1942" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E1942" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1942" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1942" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" t="inlineStr">
+        <is>
+          <t>Ashcraft_2001_AMJ_Organized Dissonance Feminist Bureaucracy as Hybrid Form.pdf</t>
+        </is>
+      </c>
+      <c r="B1943" t="inlineStr">
+        <is>
+          <t>F1_P5_Ashcraft_2001_AMJ_Organized Dissonance Feminist Bureaucracy as Hybrid Form.png</t>
+        </is>
+      </c>
+      <c r="C1943" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1943" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1943" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1943" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1943" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" t="inlineStr">
+        <is>
+          <t>Bartel_2001_ASQ_Social Comparisons in Boundary spanning Work.pdf</t>
+        </is>
+      </c>
+      <c r="B1944" t="inlineStr">
+        <is>
+          <t>F1_P8_Bartel_2001_ASQ_Social Comparisons in Boundary spanning Work.png</t>
+        </is>
+      </c>
+      <c r="C1944" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1944" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1944" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1944" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1944" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" t="inlineStr">
+        <is>
+          <t>Brusoni et al_2001_ASQ_Knowledge Specialization Organizational Coupling and the Boundaries of the Firm.pdf</t>
+        </is>
+      </c>
+      <c r="B1945" t="inlineStr">
+        <is>
+          <t>F1_P9_Brusoni et al_2001_ASQ_Knowledge Specialization Organizational Coupling and the Boundaries of the Firm.png</t>
+        </is>
+      </c>
+      <c r="C1945" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1945" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1945" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1945" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1945" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946" t="inlineStr">
+        <is>
+          <t>Brusoni et al_2001_ASQ_Knowledge Specialization Organizational Coupling and the Boundaries of the Firm.pdf</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>F2_P14_Brusoni et al_2001_ASQ_Knowledge Specialization Organizational Coupling and the Boundaries of the Firm.png</t>
+        </is>
+      </c>
+      <c r="C1946" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1946" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1946" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1946" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1946" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" t="inlineStr">
+        <is>
+          <t>Brusoni et al_2001_ASQ_Knowledge Specialization Organizational Coupling and the Boundaries of the Firm.pdf</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>F3_P15_Brusoni et al_2001_ASQ_Knowledge Specialization Organizational Coupling and the Boundaries of the Firm.png</t>
+        </is>
+      </c>
+      <c r="C1947" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1947" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1947" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1947" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1947" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" t="inlineStr">
+        <is>
+          <t>Brusoni et al_2001_ASQ_Knowledge Specialization Organizational Coupling and the Boundaries of the Firm.pdf</t>
+        </is>
+      </c>
+      <c r="B1948" t="inlineStr">
+        <is>
+          <t>F4_P15_Brusoni et al_2001_ASQ_Knowledge Specialization Organizational Coupling and the Boundaries of the Firm.png</t>
+        </is>
+      </c>
+      <c r="C1948" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1948" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1948" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1948" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1948" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" t="inlineStr">
+        <is>
+          <t>Brusoni et al_2001_ASQ_Knowledge Specialization Organizational Coupling and the Boundaries of the Firm.pdf</t>
+        </is>
+      </c>
+      <c r="B1949" t="inlineStr">
+        <is>
+          <t>F4_P16_Brusoni et al_2001_ASQ_Knowledge Specialization Organizational Coupling and the Boundaries of the Firm.png</t>
+        </is>
+      </c>
+      <c r="C1949" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1949" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1949" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1949" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1949" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" t="inlineStr">
+        <is>
+          <t>Brusoni et al_2001_ASQ_Knowledge Specialization Organizational Coupling and the Boundaries of the Firm.pdf</t>
+        </is>
+      </c>
+      <c r="B1950" t="inlineStr">
+        <is>
+          <t>F5_P18_Brusoni et al_2001_ASQ_Knowledge Specialization Organizational Coupling and the Boundaries of the Firm.png</t>
+        </is>
+      </c>
+      <c r="C1950" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1950" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1950" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1950" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1950" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" t="inlineStr">
+        <is>
+          <t>Edmondson et al_2001_ASQ_Disrupted Routines - Team Learning and New Technology Implementation in Hospitals.pdf</t>
+        </is>
+      </c>
+      <c r="B1951" t="inlineStr">
+        <is>
+          <t>F1_P4_Edmondson et al_2001_ASQ_Disrupted Routines - Team Learning and New Technology Implementation in Hospitals.png</t>
+        </is>
+      </c>
+      <c r="C1951" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1951" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1951" t="n">
+        <v>5</v>
+      </c>
+      <c r="F1951" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1951" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" t="inlineStr">
+        <is>
+          <t>Edmondson et al_2001_ASQ_Disrupted Routines - Team Learning and New Technology Implementation in Hospitals.pdf</t>
+        </is>
+      </c>
+      <c r="B1952" t="inlineStr">
+        <is>
+          <t>F2_P12_Edmondson et al_2001_ASQ_Disrupted Routines - Team Learning and New Technology Implementation in Hospitals.png</t>
+        </is>
+      </c>
+      <c r="C1952" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1952" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1952" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1952" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1952" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" t="inlineStr">
+        <is>
+          <t>Edmondson et al_2001_ASQ_Disrupted Routines - Team Learning and New Technology Implementation in Hospitals.pdf</t>
+        </is>
+      </c>
+      <c r="B1953" t="inlineStr">
+        <is>
+          <t>F3_P13_Edmondson et al_2001_ASQ_Disrupted Routines - Team Learning and New Technology Implementation in Hospitals.png</t>
+        </is>
+      </c>
+      <c r="C1953" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1953" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1953" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1953" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1953" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954" t="inlineStr">
+        <is>
+          <t>Elsbach &amp; Bhattacharya_2001_OrgSci_Defining Who you Are by what you're not.pdf</t>
+        </is>
+      </c>
+      <c r="B1954" t="inlineStr">
+        <is>
+          <t>F1_P13_Elsbach &amp; Bhattacharya_2001_OrgSci_Defining Who you Are by what you're not.png</t>
+        </is>
+      </c>
+      <c r="C1954" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1954" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1954" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1954" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1954" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955" t="inlineStr">
+        <is>
+          <t>Ely &amp; Thomas_2001_ASQ_Cultural Diversity at Work.pdf</t>
+        </is>
+      </c>
+      <c r="B1955" t="inlineStr">
+        <is>
+          <t>F1_P6_Ely &amp; Thomas_2001_ASQ_Cultural Diversity at Work.png</t>
+        </is>
+      </c>
+      <c r="C1955" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1955" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1955" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1955" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1955" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956" t="inlineStr">
+        <is>
+          <t>Gittell_OrgSci_2001_Supervsiory Span Relational Coordination and Flight Departure.pdf</t>
+        </is>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>F1_P9_Gittell_OrgSci_2001_Supervsiory Span Relational Coordination and Flight Departure.png</t>
+        </is>
+      </c>
+      <c r="C1956" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1956" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1956" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1956" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1956" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957" t="inlineStr">
+        <is>
+          <t>Gittell_OrgSci_2001_Supervsiory Span Relational Coordination and Flight Departure.pdf</t>
+        </is>
+      </c>
+      <c r="B1957" t="inlineStr">
+        <is>
+          <t>F2_P9_Gittell_OrgSci_2001_Supervsiory Span Relational Coordination and Flight Departure.png</t>
+        </is>
+      </c>
+      <c r="C1957" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1957" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1957" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1957" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1957" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958" t="inlineStr">
+        <is>
+          <t>Gittell_OrgSci_2001_Supervsiory Span Relational Coordination and Flight Departure.pdf</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>F2_P12_Gittell_OrgSci_2001_Supervsiory Span Relational Coordination and Flight Departure.png</t>
+        </is>
+      </c>
+      <c r="C1958" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1958" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1958" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1958" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1958" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959" t="inlineStr">
+        <is>
+          <t>Hoegl &amp; Gemuenden_2001_OrgSci_Teamwork Quality and the Success of Innovative Projects Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B1959" t="inlineStr">
+        <is>
+          <t>F1_P5_Hoegl &amp; Gemuenden_2001_OrgSci_Teamwork Quality and the Success of Innovative Projects Quant.png</t>
+        </is>
+      </c>
+      <c r="C1959" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1959" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1959" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1959" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1959" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960" t="inlineStr">
+        <is>
+          <t>Hoegl &amp; Gemuenden_2001_OrgSci_Teamwork Quality and the Success of Innovative Projects Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B1960" t="inlineStr">
+        <is>
+          <t>F2_P9_Hoegl &amp; Gemuenden_2001_OrgSci_Teamwork Quality and the Success of Innovative Projects Quant.png</t>
+        </is>
+      </c>
+      <c r="C1960" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1960" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1960" t="n">
+        <v>10</v>
+      </c>
+      <c r="F1960" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1960" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961" t="inlineStr">
+        <is>
+          <t>Hoegl &amp; Gemuenden_2001_OrgSci_Teamwork Quality and the Success of Innovative Projects Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B1961" t="inlineStr">
+        <is>
+          <t>F2_P10_Hoegl &amp; Gemuenden_2001_OrgSci_Teamwork Quality and the Success of Innovative Projects Quant.png</t>
+        </is>
+      </c>
+      <c r="C1961" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1961" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1961" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1961" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1961" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962" t="inlineStr">
+        <is>
+          <t>Hoffman &amp; Ocasio_2001_OrgSci_Not All Events are Attended Equally.pdf</t>
+        </is>
+      </c>
+      <c r="B1962" t="inlineStr">
+        <is>
+          <t>F1_P15_Hoffman &amp; Ocasio_2001_OrgSci_Not All Events are Attended Equally.png</t>
+        </is>
+      </c>
+      <c r="C1962" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1962" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1962" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1962" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1962" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" t="inlineStr">
+        <is>
+          <t>Mitzberg_2001_OrgSci_Managing Exceptionally.pdf</t>
+        </is>
+      </c>
+      <c r="B1963" t="inlineStr">
+        <is>
+          <t>F1_P1_Mitzberg_2001_OrgSci_Managing Exceptionally.png</t>
+        </is>
+      </c>
+      <c r="C1963" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1963" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1963" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1963" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1963" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" t="inlineStr">
+        <is>
+          <t>Mitzberg_2001_OrgSci_Managing Exceptionally.pdf</t>
+        </is>
+      </c>
+      <c r="B1964" t="inlineStr">
+        <is>
+          <t>F2_P10_Mitzberg_2001_OrgSci_Managing Exceptionally.png</t>
+        </is>
+      </c>
+      <c r="C1964" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1964" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1964" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1964" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1964" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" t="inlineStr">
+        <is>
+          <t>Pitcher &amp; Smith_2001_OrgSci_Top Management Team Heterogeneity_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B1965" t="inlineStr">
+        <is>
+          <t>F1_P8_Pitcher &amp; Smith_2001_OrgSci_Top Management Team Heterogeneity_Quant.png</t>
+        </is>
+      </c>
+      <c r="C1965" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1965" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1965" t="n">
+        <v>9</v>
+      </c>
+      <c r="F1965" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1965" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" t="inlineStr">
+        <is>
+          <t>Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1966" t="inlineStr">
+        <is>
+          <t>F1_P6_Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1966" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1966" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1966" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1966" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1966" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" t="inlineStr">
+        <is>
+          <t>Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>F2_P10_Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1967" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1967" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1967" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1967" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1967" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" t="inlineStr">
+        <is>
+          <t>Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1968" t="inlineStr">
+        <is>
+          <t>F3_P12_Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1968" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1968" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1968" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1968" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1968" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" t="inlineStr">
+        <is>
+          <t>Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>F4_P14_Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1969" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1969" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1969" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1969" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1969" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970" t="inlineStr">
+        <is>
+          <t>Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1970" t="inlineStr">
+        <is>
+          <t>F5_P15_Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1970" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1970" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1970" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1970" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1970" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" t="inlineStr">
+        <is>
+          <t>Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1971" t="inlineStr">
+        <is>
+          <t>F6_P17_Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1971" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1971" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1971" t="n">
+        <v>18</v>
+      </c>
+      <c r="F1971" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1971" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" t="inlineStr">
+        <is>
+          <t>Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>F6_P18_Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1972" t="n">
+        <v>6</v>
+      </c>
+      <c r="D1972" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1972" t="n">
+        <v>19</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1972" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" t="inlineStr">
+        <is>
+          <t>Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>F7_P19_Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1973" t="n">
+        <v>7</v>
+      </c>
+      <c r="D1973" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1973" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1973" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" t="inlineStr">
+        <is>
+          <t>Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>F8_P21_Rudolph &amp; Repenning_2001_ASQ_Disaster Dynamics_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C1974" t="n">
+        <v>8</v>
+      </c>
+      <c r="D1974" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1974" t="n">
+        <v>22</v>
+      </c>
+      <c r="F1974" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1974" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" t="inlineStr">
+        <is>
+          <t>Sabherwal et al._2001_OrgSci_The Dynamics of Alignment.pdf</t>
+        </is>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>F1_P3_Sabherwal et al._2001_OrgSci_The Dynamics of Alignment.png</t>
+        </is>
+      </c>
+      <c r="C1975" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1975" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1975" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1975" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" t="inlineStr">
+        <is>
+          <t>Sabherwal et al._2001_OrgSci_The Dynamics of Alignment.pdf</t>
+        </is>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>F2_P7_Sabherwal et al._2001_OrgSci_The Dynamics of Alignment.png</t>
+        </is>
+      </c>
+      <c r="C1976" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1976" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1976" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1976" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1976" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" t="inlineStr">
+        <is>
+          <t>Sabherwal et al._2001_OrgSci_The Dynamics of Alignment.pdf</t>
+        </is>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>F3_P10_Sabherwal et al._2001_OrgSci_The Dynamics of Alignment.png</t>
+        </is>
+      </c>
+      <c r="C1977" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1977" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1977" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1977" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978" t="inlineStr">
+        <is>
+          <t>Sabherwal et al._2001_OrgSci_The Dynamics of Alignment.pdf</t>
+        </is>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>F4_P12_Sabherwal et al._2001_OrgSci_The Dynamics of Alignment.png</t>
+        </is>
+      </c>
+      <c r="C1978" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1978" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1978" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1978" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1978" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979" t="inlineStr">
+        <is>
+          <t>Sabherwal et al._2001_OrgSci_The Dynamics of Alignment.pdf</t>
+        </is>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>F4_P13_Sabherwal et al._2001_OrgSci_The Dynamics of Alignment.png</t>
+        </is>
+      </c>
+      <c r="C1979" t="n">
+        <v>4</v>
+      </c>
+      <c r="D1979" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1979" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1979" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1979" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980" t="inlineStr">
+        <is>
+          <t>Sabherwal et al._2001_OrgSci_The Dynamics of Alignment.pdf</t>
+        </is>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>F5_P3_Sabherwal et al._2001_OrgSci_The Dynamics of Alignment.png</t>
+        </is>
+      </c>
+      <c r="C1980" t="n">
+        <v>5</v>
+      </c>
+      <c r="D1980" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1980" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1980" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1980" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981" t="inlineStr">
+        <is>
+          <t>Thomas et al._2001_OrgSci_Understanding Strategic Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>F2_P5_Thomas et al._2001_OrgSci_Understanding Strategic Learning.png</t>
+        </is>
+      </c>
+      <c r="C1981" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1981" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1981" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1981" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1981" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982" t="inlineStr">
+        <is>
+          <t>Thomas et al._2001_OrgSci_Understanding Strategic Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>F2_P6_Thomas et al._2001_OrgSci_Understanding Strategic Learning.png</t>
+        </is>
+      </c>
+      <c r="C1982" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1982" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1982" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1982" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1982" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983" t="inlineStr">
+        <is>
+          <t>Thomas et al._2001_OrgSci_Understanding Strategic Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>F3_P11_Thomas et al._2001_OrgSci_Understanding Strategic Learning.png</t>
+        </is>
+      </c>
+      <c r="C1983" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1983" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E1983" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1983" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984" t="inlineStr">
+        <is>
+          <t>Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.pdf</t>
+        </is>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>F1_P14_Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.png</t>
+        </is>
+      </c>
+      <c r="C1984" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1984" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1984" t="n">
+        <v>15</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1984" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985" t="inlineStr">
+        <is>
+          <t>Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.pdf</t>
+        </is>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>F2_P19_Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.png</t>
+        </is>
+      </c>
+      <c r="C1985" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1985" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1985" t="n">
+        <v>20</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1985" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986" t="inlineStr">
+        <is>
+          <t>Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.pdf</t>
+        </is>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>F2_P20_Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.png</t>
+        </is>
+      </c>
+      <c r="C1986" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1986" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1986" t="n">
+        <v>21</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1986" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" t="inlineStr">
+        <is>
+          <t>Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.pdf</t>
+        </is>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>F3_P28_Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.png</t>
+        </is>
+      </c>
+      <c r="C1987" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1987" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1987" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1987" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" t="inlineStr">
+        <is>
+          <t>Bansal &amp; Roth_2000_AMJ_Why Companies Go Green.pdf</t>
+        </is>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>F1_P1_Bansal &amp; Roth_2000_AMJ_Why Companies Go Green.png</t>
+        </is>
+      </c>
+      <c r="C1988" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1988" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1988" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1988" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1988" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" t="inlineStr">
+        <is>
+          <t>Bansal &amp; Roth_2000_AMJ_Why Companies Go Green.pdf</t>
+        </is>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>F2_P11_Bansal &amp; Roth_2000_AMJ_Why Companies Go Green.png</t>
+        </is>
+      </c>
+      <c r="C1989" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1989" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1989" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1989" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1989" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" t="inlineStr">
+        <is>
+          <t>Bansal &amp; Roth_2000_AMJ_Why Companies Go Green.pdf</t>
+        </is>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>F2_P12_Bansal &amp; Roth_2000_AMJ_Why Companies Go Green.png</t>
+        </is>
+      </c>
+      <c r="C1990" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1990" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1990" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1990" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1990" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" t="inlineStr">
+        <is>
+          <t>Bartunek et al._2000_OrgSci_Dynamics and Dilemmas of Women leading Women.pdf</t>
+        </is>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>F1_P11_Bartunek et al._2000_OrgSci_Dynamics and Dilemmas of Women leading Women.png</t>
+        </is>
+      </c>
+      <c r="C1991" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1991" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1991" t="n">
+        <v>12</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1991" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="inlineStr">
+        <is>
+          <t>Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>F1_P6_Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.png</t>
+        </is>
+      </c>
+      <c r="C1992" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1992" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1992" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1992" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" t="inlineStr">
+        <is>
+          <t>Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>F2_P12_Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.png</t>
+        </is>
+      </c>
+      <c r="C1993" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1993" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1993" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1993" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994" t="inlineStr">
+        <is>
+          <t>Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>F2_P13_Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.png</t>
+        </is>
+      </c>
+      <c r="C1994" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1994" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1994" t="n">
+        <v>14</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1994" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="inlineStr">
+        <is>
+          <t>Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.pdf</t>
+        </is>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>F3_P15_Feldman_2000_OrgSci_Organizational Routines as a Source of Continuous Change.png</t>
+        </is>
+      </c>
+      <c r="C1995" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1995" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1995" t="n">
+        <v>16</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1995" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="inlineStr">
+        <is>
+          <t>James_2000_OrgSci_Race-Related Differences_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>F1_P6_James_2000_OrgSci_Race-Related Differences_Quant.png</t>
+        </is>
+      </c>
+      <c r="C1996" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1996" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1996" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1996" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>James_2000_OrgSci_Race-Related Differences_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>F2_P10_James_2000_OrgSci_Race-Related Differences_Quant.png</t>
+        </is>
+      </c>
+      <c r="C1997" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1997" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1997" t="n">
+        <v>11</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1997" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.pdf</t>
+        </is>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>F1_P3_Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.png</t>
+        </is>
+      </c>
+      <c r="C1998" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1998" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1998" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1998" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.pdf</t>
+        </is>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>F2_P5_Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.png</t>
+        </is>
+      </c>
+      <c r="C1999" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1999" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E1999" t="n">
+        <v>6</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1999" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.pdf</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>F2_P6_Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.png</t>
+        </is>
+      </c>
+      <c r="C2000" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2000" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2000" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2000" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.pdf</t>
+        </is>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>F3_P16_Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.png</t>
+        </is>
+      </c>
+      <c r="C2001" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2001" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2001" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2001" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.pdf</t>
+        </is>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>F3_P17_Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.png</t>
+        </is>
+      </c>
+      <c r="C2002" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2002" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2002" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2002" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>F1_P5_Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2003" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2003" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2003" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2003" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>F2_P12_Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2004" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2004" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2004" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2004" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2004" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>F3_P12_Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2005" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2005" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2005" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2005" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2005" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>F4_P14_Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2006" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2006" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2006" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2006" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2006" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>F4_P15_Levin_2000_OrgSci_Organizational Learning and the Transfer of Knowledge_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2007" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2007" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2007" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2007" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2007" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.pdf</t>
+        </is>
+      </c>
+      <c r="B2008" t="inlineStr">
+        <is>
+          <t>F1_P13_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.png</t>
+        </is>
+      </c>
+      <c r="C2008" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2008" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2008" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2008" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2008" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.pdf</t>
+        </is>
+      </c>
+      <c r="B2009" t="inlineStr">
+        <is>
+          <t>F2_P13_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.png</t>
+        </is>
+      </c>
+      <c r="C2009" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2009" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2009" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2009" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2009" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.pdf</t>
+        </is>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>F2_P15_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.png</t>
+        </is>
+      </c>
+      <c r="C2010" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2010" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2010" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2010" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2010" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.pdf</t>
+        </is>
+      </c>
+      <c r="B2011" t="inlineStr">
+        <is>
+          <t>F6_P14_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.png</t>
+        </is>
+      </c>
+      <c r="C2011" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2011" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2011" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2011" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2011" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.pdf</t>
+        </is>
+      </c>
+      <c r="B2012" t="inlineStr">
+        <is>
+          <t>F1_P14_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.png</t>
+        </is>
+      </c>
+      <c r="C2012" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2012" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2012" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2012" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2012" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.pdf</t>
+        </is>
+      </c>
+      <c r="B2013" t="inlineStr">
+        <is>
+          <t>F2_P14_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.png</t>
+        </is>
+      </c>
+      <c r="C2013" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2013" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2013" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2013" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2013" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.pdf</t>
+        </is>
+      </c>
+      <c r="B2014" t="inlineStr">
+        <is>
+          <t>F2_P16_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.png</t>
+        </is>
+      </c>
+      <c r="C2014" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2014" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2014" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2014" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2014" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.pdf</t>
+        </is>
+      </c>
+      <c r="B2015" t="inlineStr">
+        <is>
+          <t>F6_P15_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.png</t>
+        </is>
+      </c>
+      <c r="C2015" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2015" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2015" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2015" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2015" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2016" t="inlineStr">
+        <is>
+          <t>F1_P6_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C2016" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2016" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2016" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2016" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2016" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2017" t="inlineStr">
+        <is>
+          <t>F2_P7_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C2017" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2017" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2017" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2017" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2017" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2018" t="inlineStr">
+        <is>
+          <t>F2_P8_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C2018" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2018" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2018" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2018" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2018" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2019" t="inlineStr">
+        <is>
+          <t>F2_P9_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C2019" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2019" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2019" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2019" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2019" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2020" t="inlineStr">
+        <is>
+          <t>F3_P11_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C2020" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2020" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2020" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2020" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2020" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2021" t="inlineStr">
+        <is>
+          <t>F3_P12_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C2021" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2021" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2021" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2021" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2021" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>F4_P12_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C2022" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2022" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2022" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2022" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2022" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2023" t="inlineStr">
+        <is>
+          <t>F5_P13_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C2023" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2023" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2023" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2023" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2023" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2024" t="inlineStr">
+        <is>
+          <t>F6_P14_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C2024" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2024" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2024" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2024" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2024" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2025" t="inlineStr">
+        <is>
+          <t>F7_P14_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C2025" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2025" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2025" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2025" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2025" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2026" t="inlineStr">
+        <is>
+          <t>F7_P15_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C2026" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2026" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2026" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2026" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2026" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr">
+        <is>
+          <t>F8_P16_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C2027" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2027" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2027" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2027" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2027" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2028" t="inlineStr">
+        <is>
+          <t>F9_P17_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C2028" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2028" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2028" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2028" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2028" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>Pratt_2000_ASQ_The Good, the Bad and the Ambivalent.pdf</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr">
+        <is>
+          <t>F1_P20_Pratt_2000_ASQ_The Good, the Bad and the Ambivalent.png</t>
+        </is>
+      </c>
+      <c r="C2029" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2029" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2029" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2029" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2029" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>Pratt_2000_ASQ_The Good, the Bad and the Ambivalent.pdf</t>
+        </is>
+      </c>
+      <c r="B2030" t="inlineStr">
+        <is>
+          <t>F2_P26_Pratt_2000_ASQ_The Good, the Bad and the Ambivalent.png</t>
+        </is>
+      </c>
+      <c r="C2030" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2030" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2030" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2030" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2030" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>Pratt_2000_ASQ_The Good, the Bad and the Ambivalent.pdf</t>
+        </is>
+      </c>
+      <c r="B2031" t="inlineStr">
+        <is>
+          <t>F2_P27_Pratt_2000_ASQ_The Good, the Bad and the Ambivalent.png</t>
+        </is>
+      </c>
+      <c r="C2031" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2031" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2031" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2031" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2031" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>Shane_2000_OrgSci_Prior Knowledge and the Discovery of Entrepreneurial Opportunities.pdf</t>
+        </is>
+      </c>
+      <c r="B2032" t="inlineStr">
+        <is>
+          <t>F1_P5_Shane_2000_OrgSci_Prior Knowledge and the Discovery of Entrepreneurial Opportunities.png</t>
+        </is>
+      </c>
+      <c r="C2032" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2032" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2032" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2032" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2032" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>Stott &amp; Drury_2000_Crowds, Context and identity.pdf</t>
+        </is>
+      </c>
+      <c r="B2033" t="inlineStr">
+        <is>
+          <t>F1_P6_Stott &amp; Drury_2000_Crowds, Context and identity.png</t>
+        </is>
+      </c>
+      <c r="C2033" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2033" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2033" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2033" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2033" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2034" t="inlineStr">
+        <is>
+          <t>F1_P4_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2034" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2034" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2034" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2034" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2034" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2035" t="inlineStr">
+        <is>
+          <t>F2_P5_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2035" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2035" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2035" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2035" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2035" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2036" t="inlineStr">
+        <is>
+          <t>F2_P6_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2036" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2036" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2036" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2036" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
+++ b/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2036"/>
+  <dimension ref="A1:G2100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55283,12 +55283,12 @@
     <row r="2032">
       <c r="A2032" t="inlineStr">
         <is>
-          <t>Shane_2000_OrgSci_Prior Knowledge and the Discovery of Entrepreneurial Opportunities.pdf</t>
+          <t>Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.pdf</t>
         </is>
       </c>
       <c r="B2032" t="inlineStr">
         <is>
-          <t>F1_P5_Shane_2000_OrgSci_Prior Knowledge and the Discovery of Entrepreneurial Opportunities.png</t>
+          <t>F1_P15_Bacharach et al._2000_ASQ_Boundary Management Tactics and Logics of Action.png</t>
         </is>
       </c>
       <c r="C2032" t="n">
@@ -55298,7 +55298,7 @@
         <v>2000</v>
       </c>
       <c r="E2032" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F2032" t="n">
         <v>0</v>
@@ -55310,12 +55310,12 @@
     <row r="2033">
       <c r="A2033" t="inlineStr">
         <is>
-          <t>Stott &amp; Drury_2000_Crowds, Context and identity.pdf</t>
+          <t>Bartunek et al._2000_OrgSci_Dynamics and Dilemmas of Women leading Women.pdf</t>
         </is>
       </c>
       <c r="B2033" t="inlineStr">
         <is>
-          <t>F1_P6_Stott &amp; Drury_2000_Crowds, Context and identity.png</t>
+          <t>F1_P15_Bartunek et al._2000_OrgSci_Dynamics and Dilemmas of Women leading Women.png</t>
         </is>
       </c>
       <c r="C2033" t="n">
@@ -55325,7 +55325,7 @@
         <v>2000</v>
       </c>
       <c r="E2033" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F2033" t="n">
         <v>0</v>
@@ -55337,12 +55337,12 @@
     <row r="2034">
       <c r="A2034" t="inlineStr">
         <is>
-          <t>Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.pdf</t>
+          <t>Glynn_2000_OrgSci_When Cymbals become Symbols.pdf</t>
         </is>
       </c>
       <c r="B2034" t="inlineStr">
         <is>
-          <t>F1_P4_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+          <t>F1_P10_Glynn_2000_OrgSci_When Cymbals become Symbols.png</t>
         </is>
       </c>
       <c r="C2034" t="n">
@@ -55352,7 +55352,7 @@
         <v>2000</v>
       </c>
       <c r="E2034" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F2034" t="n">
         <v>0</v>
@@ -55364,22 +55364,22 @@
     <row r="2035">
       <c r="A2035" t="inlineStr">
         <is>
-          <t>Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.pdf</t>
+          <t>Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.pdf</t>
         </is>
       </c>
       <c r="B2035" t="inlineStr">
         <is>
-          <t>F2_P5_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+          <t>F1_P4_Kochan &amp; Rubinstein_2000_OrgSci_Toward a Stakeholder Theory of the Firm.png</t>
         </is>
       </c>
       <c r="C2035" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2035" t="n">
         <v>2000</v>
       </c>
       <c r="E2035" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2035" t="n">
         <v>0</v>
@@ -55391,27 +55391,1755 @@
     <row r="2036">
       <c r="A2036" t="inlineStr">
         <is>
-          <t>Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.pdf</t>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.pdf</t>
         </is>
       </c>
       <c r="B2036" t="inlineStr">
         <is>
-          <t>F2_P6_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+          <t>F1_P14_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Qualitative and Quantitative Methods.png</t>
         </is>
       </c>
       <c r="C2036" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2036" t="n">
         <v>2000</v>
       </c>
       <c r="E2036" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2036" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.pdf</t>
+        </is>
+      </c>
+      <c r="B2037" t="inlineStr">
+        <is>
+          <t>F1_P15_Maznevski &amp; Chudoba_2000_OrgSci_Bridging Space over Time.png</t>
+        </is>
+      </c>
+      <c r="C2037" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2037" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2037" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2037" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr">
+        <is>
+          <t>F1_P7_Orlikowski_2000_OrgSci_Using Technology and Constituting Structures.png</t>
+        </is>
+      </c>
+      <c r="C2038" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2038" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2038" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2038" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>Pratt_2000_ASQ_The Good, the Bad and the Ambivalent.pdf</t>
+        </is>
+      </c>
+      <c r="B2039" t="inlineStr">
+        <is>
+          <t>F1_P21_Pratt_2000_ASQ_The Good, the Bad and the Ambivalent.png</t>
+        </is>
+      </c>
+      <c r="C2039" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2039" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2039" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2039" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>Shane_2000_OrgSci_Prior Knowledge and the Discovery of Entrepreneurial Opportunities.pdf</t>
+        </is>
+      </c>
+      <c r="B2040" t="inlineStr">
+        <is>
+          <t>F1_P5_Shane_2000_OrgSci_Prior Knowledge and the Discovery of Entrepreneurial Opportunities.png</t>
+        </is>
+      </c>
+      <c r="C2040" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2040" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2040" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2040" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>Shane_2000_OrgSci_Prior Knowledge and the Discovery of Entrepreneurial Opportunities.pdf</t>
+        </is>
+      </c>
+      <c r="B2041" t="inlineStr">
+        <is>
+          <t>F1_P6_Shane_2000_OrgSci_Prior Knowledge and the Discovery of Entrepreneurial Opportunities.png</t>
+        </is>
+      </c>
+      <c r="C2041" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2041" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2041" t="n">
         <v>7</v>
       </c>
-      <c r="F2036" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2036" t="b">
+      <c r="F2041" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2041" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>Stott &amp; Drury_2000_Crowds, Context and identity.pdf</t>
+        </is>
+      </c>
+      <c r="B2042" t="inlineStr">
+        <is>
+          <t>F1_P6_Stott &amp; Drury_2000_Crowds, Context and identity.png</t>
+        </is>
+      </c>
+      <c r="C2042" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2042" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2042" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2042" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2043" t="inlineStr">
+        <is>
+          <t>F1_P4_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2043" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2043" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2043" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2043" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2044" t="inlineStr">
+        <is>
+          <t>F1_P5_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2044" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2044" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2044" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2044" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2045" t="inlineStr">
+        <is>
+          <t>F1_P17_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2045" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2045" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2045" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2045" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2046" t="inlineStr">
+        <is>
+          <t>F2_P5_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2046" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2046" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2046" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2046" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2047" t="inlineStr">
+        <is>
+          <t>F2_P6_Voss et al._2000_OrgSci_Linking Organizational Values to Relationships with External Constituents_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2047" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2047" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E2047" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2047" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>Bartel_2001_ASQ_Social Comparisons in Boundary spanning Work.pdf</t>
+        </is>
+      </c>
+      <c r="B2048" t="inlineStr">
+        <is>
+          <t>F1_P9_Bartel_2001_ASQ_Social Comparisons in Boundary spanning Work.png</t>
+        </is>
+      </c>
+      <c r="C2048" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2048" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E2048" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2048" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>Brusoni et al_2001_ASQ_Knowledge Specialization Organizational Coupling and the Boundaries of the Firm.pdf</t>
+        </is>
+      </c>
+      <c r="B2049" t="inlineStr">
+        <is>
+          <t>F1_P10_Brusoni et al_2001_ASQ_Knowledge Specialization Organizational Coupling and the Boundaries of the Firm.png</t>
+        </is>
+      </c>
+      <c r="C2049" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2049" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E2049" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2049" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>Elsbach &amp; Bhattacharya_2001_OrgSci_Defining Who you Are by what you're not.pdf</t>
+        </is>
+      </c>
+      <c r="B2050" t="inlineStr">
+        <is>
+          <t>F1_P14_Elsbach &amp; Bhattacharya_2001_OrgSci_Defining Who you Are by what you're not.png</t>
+        </is>
+      </c>
+      <c r="C2050" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2050" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E2050" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2050" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051" t="inlineStr">
+        <is>
+          <t>Ely &amp; Thomas_2001_ASQ_Cultural Diversity at Work.pdf</t>
+        </is>
+      </c>
+      <c r="B2051" t="inlineStr">
+        <is>
+          <t>F1_P7_Ely &amp; Thomas_2001_ASQ_Cultural Diversity at Work.png</t>
+        </is>
+      </c>
+      <c r="C2051" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2051" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E2051" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2051" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2051" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052" t="inlineStr">
+        <is>
+          <t>Gittell_OrgSci_2001_Supervsiory Span Relational Coordination and Flight Departure.pdf</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr">
+        <is>
+          <t>F1_P12_Gittell_OrgSci_2001_Supervsiory Span Relational Coordination and Flight Departure.png</t>
+        </is>
+      </c>
+      <c r="C2052" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2052" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E2052" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2052" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2052" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053" t="inlineStr">
+        <is>
+          <t>Hoffman &amp; Ocasio_2001_OrgSci_Not All Events are Attended Equally.pdf</t>
+        </is>
+      </c>
+      <c r="B2053" t="inlineStr">
+        <is>
+          <t>F1_P16_Hoffman &amp; Ocasio_2001_OrgSci_Not All Events are Attended Equally.png</t>
+        </is>
+      </c>
+      <c r="C2053" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2053" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E2053" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2053" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2053" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054" t="inlineStr">
+        <is>
+          <t>Mitzberg_2001_OrgSci_Managing Exceptionally.pdf</t>
+        </is>
+      </c>
+      <c r="B2054" t="inlineStr">
+        <is>
+          <t>F1_P2_Mitzberg_2001_OrgSci_Managing Exceptionally.png</t>
+        </is>
+      </c>
+      <c r="C2054" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2054" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E2054" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2054" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2054" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055" t="inlineStr">
+        <is>
+          <t>Mitzberg_2001_OrgSci_Managing Exceptionally.pdf</t>
+        </is>
+      </c>
+      <c r="B2055" t="inlineStr">
+        <is>
+          <t>F1_P8_Mitzberg_2001_OrgSci_Managing Exceptionally.png</t>
+        </is>
+      </c>
+      <c r="C2055" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2055" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E2055" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2055" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2055" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056" t="inlineStr">
+        <is>
+          <t>Pitcher &amp; Smith_2001_OrgSci_Top Management Team Heterogeneity_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>F1_P9_Pitcher &amp; Smith_2001_OrgSci_Top Management Team Heterogeneity_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2056" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2056" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E2056" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2056" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2056" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" t="inlineStr">
+        <is>
+          <t>Burgelman_2002_ASQ_Strategy as Vector and the Inertia of Coevolutionary Lock-in.pdf</t>
+        </is>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>F1_P28_Burgelman_2002_ASQ_Strategy as Vector and the Inertia of Coevolutionary Lock-in.png</t>
+        </is>
+      </c>
+      <c r="C2057" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2057" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2057" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2057" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058" t="inlineStr">
+        <is>
+          <t>Dutton et al._2002_Org Sci_Red Light Green Light.pdf</t>
+        </is>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>F1_P8_Dutton et al._2002_Org Sci_Red Light Green Light.png</t>
+        </is>
+      </c>
+      <c r="C2058" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2058" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2058" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2058" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059" t="inlineStr">
+        <is>
+          <t>Dutton et al._2002_OrgSci_Red Ligh Green Light.pdf</t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>F1_P7_Dutton et al._2002_OrgSci_Red Ligh Green Light.png</t>
+        </is>
+      </c>
+      <c r="C2059" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2059" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2059" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2059" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060" t="inlineStr">
+        <is>
+          <t>Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.pdf</t>
+        </is>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>F1_P6_Fitzgerald, Ferlie, Wood &amp; Hawkins_2002_HR_Interlocking interactions, the diffusion of innovations in health care.png</t>
+        </is>
+      </c>
+      <c r="C2060" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2060" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2060" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2060" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2060" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061" t="inlineStr">
+        <is>
+          <t>Foreman &amp; Whetten_2002_OrgSci_Members identification with Multiple Identity Orgs_Quant.pdf</t>
+        </is>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>F1_P3_Foreman &amp; Whetten_2002_OrgSci_Members identification with Multiple Identity Orgs_Quant.png</t>
+        </is>
+      </c>
+      <c r="C2061" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2061" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2061" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2061" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2061" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062" t="inlineStr">
+        <is>
+          <t>Hodgkinson &amp; Wright_2002_OrgSci_Confronting Strategic Inertia in a Top Management Team - Learning from Failure.pdf</t>
+        </is>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>F1_P14_Hodgkinson &amp; Wright_2002_OrgSci_Confronting Strategic Inertia in a Top Management Team - Learning from Failure.png</t>
+        </is>
+      </c>
+      <c r="C2062" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2062" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2062" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2062" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2062" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063" t="inlineStr">
+        <is>
+          <t>Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.pdf</t>
+        </is>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>F1_P11_Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.png</t>
+        </is>
+      </c>
+      <c r="C2063" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2063" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2063" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2063" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064" t="inlineStr">
+        <is>
+          <t>Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.pdf</t>
+        </is>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>F1_P12_Repenning &amp; Sterman_2002_ASQ_Capability Traps and Self-Confirming Attribution Errors.png</t>
+        </is>
+      </c>
+      <c r="C2064" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2064" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2064" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2064" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2064" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065" t="inlineStr">
+        <is>
+          <t>Siggelkow_2002_ASQ_Evolution Towards Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>F1_P31_Siggelkow_2002_ASQ_Evolution Towards Fit.png</t>
+        </is>
+      </c>
+      <c r="C2065" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2065" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2065" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2065" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2065" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066" t="inlineStr">
+        <is>
+          <t>Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.pdf</t>
+        </is>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>F1_P1_Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.png</t>
+        </is>
+      </c>
+      <c r="C2066" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2066" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2066" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2066" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2066" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067" t="inlineStr">
+        <is>
+          <t>Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.pdf</t>
+        </is>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>F1_P2_Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.png</t>
+        </is>
+      </c>
+      <c r="C2067" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2067" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2067" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2067" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2067" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068" t="inlineStr">
+        <is>
+          <t>Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.pdf</t>
+        </is>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>F1_P3_Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.png</t>
+        </is>
+      </c>
+      <c r="C2068" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2068" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2068" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2068" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2068" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069" t="inlineStr">
+        <is>
+          <t>Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.pdf</t>
+        </is>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>F1_P4_Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.png</t>
+        </is>
+      </c>
+      <c r="C2069" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2069" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2069" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2069" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2069" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070" t="inlineStr">
+        <is>
+          <t>Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.pdf</t>
+        </is>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>F1_P5_Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.png</t>
+        </is>
+      </c>
+      <c r="C2070" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2070" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2070" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2070" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2070" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071" t="inlineStr">
+        <is>
+          <t>Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.pdf</t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>F1_P9_Snell &amp; Tseng_2002_OrgSci_Moral Atmosphere and Moral Influence under China's Network Capitalism.png</t>
+        </is>
+      </c>
+      <c r="C2071" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2071" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2071" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2071" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2071" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072" t="inlineStr">
+        <is>
+          <t>Snell_2002_OrgSci_The Learning Organization, SEnsegiving and Psychological Contracts - a Hong Kong Case.pdf</t>
+        </is>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>F1_P15_Snell_2002_OrgSci_The Learning Organization, SEnsegiving and Psychological Contracts - a Hong Kong Case.png</t>
+        </is>
+      </c>
+      <c r="C2072" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2072" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2072" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2072" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2072" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073" t="inlineStr">
+        <is>
+          <t>Snell_2002_OrgSci_The Learning Organization, SEnsegiving and Psychological Contracts - a Hong Kong Case.pdf</t>
+        </is>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>F1_P16_Snell_2002_OrgSci_The Learning Organization, SEnsegiving and Psychological Contracts - a Hong Kong Case.png</t>
+        </is>
+      </c>
+      <c r="C2073" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2073" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2073" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2073" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074" t="inlineStr">
+        <is>
+          <t>Staudenmayer et al._2002_OrgSci_Time to Change Temporal Shifts as Enablers of Org Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>F1_P14_Staudenmayer et al._2002_OrgSci_Time to Change Temporal Shifts as Enablers of Org Change.png</t>
+        </is>
+      </c>
+      <c r="C2074" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2074" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E2074" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2074" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075" t="inlineStr">
+        <is>
+          <t>Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.pdf</t>
+        </is>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>F1_P4_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="C2075" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2075" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E2075" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2075" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076" t="inlineStr">
+        <is>
+          <t>Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.pdf</t>
+        </is>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>F1_P6_Druskat &amp; Wheeler_2003_AMJ_Managing from the Bounardy.png</t>
+        </is>
+      </c>
+      <c r="C2076" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2076" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E2076" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2076" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2076" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077" t="inlineStr">
+        <is>
+          <t>Edmondson_2003__J Management Studies _Speaking Up in the Operating Room  How Team Leaders Promote Learning in.pdf</t>
+        </is>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>F1_P6_Edmondson_2003__J Management Studies _Speaking Up in the Operating Room  How Team Leaders Promote Learning in.png</t>
+        </is>
+      </c>
+      <c r="C2077" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2077" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E2077" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2077" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2077" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078" t="inlineStr">
+        <is>
+          <t>Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.pdf</t>
+        </is>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>F1_P2_Geppert, Matten &amp; Williams_2003_HR_Change Management in MNCs - how global convergence intertwines with national diversities.png</t>
+        </is>
+      </c>
+      <c r="C2078" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2078" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E2078" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2078" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2078" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079" t="inlineStr">
+        <is>
+          <t>Haunschild_2003_HR_Managing employment relationships in flexible labour markets - the case of German repertory theatres.pdf</t>
+        </is>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>F1_P10_Haunschild_2003_HR_Managing employment relationships in flexible labour markets - the case of German repertory theatres.png</t>
+        </is>
+      </c>
+      <c r="C2079" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2079" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E2079" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2079" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080" t="inlineStr">
+        <is>
+          <t>Haunschild_2003_HR_Managing employment relationships in flexible labour markets - the case of German repertory theatres.pdf</t>
+        </is>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>F1_P16_Haunschild_2003_HR_Managing employment relationships in flexible labour markets - the case of German repertory theatres.png</t>
+        </is>
+      </c>
+      <c r="C2080" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2080" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E2080" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2080" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>F1_P2_Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2081" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2081" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E2081" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2081" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082" t="inlineStr">
+        <is>
+          <t>Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2082" t="inlineStr">
+        <is>
+          <t>F1_P4_Pratt &amp; Rosa_2003_AMJ_Transforming Work-Family Conflict into Commitment in Network Marketing Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2082" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2082" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E2082" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2082" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2082" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083" t="inlineStr">
+        <is>
+          <t>Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.pdf</t>
+        </is>
+      </c>
+      <c r="B2083" t="inlineStr">
+        <is>
+          <t>F1_P9_Watson_2003_J Management Studies_Strategists and Strategy‐making  Strategic Exchange and the Shaping of Individual.png</t>
+        </is>
+      </c>
+      <c r="C2083" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2083" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E2083" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2083" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2083" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084" t="inlineStr">
+        <is>
+          <t>Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.pdf</t>
+        </is>
+      </c>
+      <c r="B2084" t="inlineStr">
+        <is>
+          <t>F1_P11_Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="C2084" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2084" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2084" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2084" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2084" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085" t="inlineStr">
+        <is>
+          <t>Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.pdf</t>
+        </is>
+      </c>
+      <c r="B2085" t="inlineStr">
+        <is>
+          <t>F1_P21_Balogun &amp; Johnson_2004_AMJ_Organizational Restructuring and Middle Manager Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="C2085" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2085" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2085" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2085" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2085" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B2086" t="inlineStr">
+        <is>
+          <t>F1_P13_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C2086" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2086" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2086" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2086" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2086" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B2087" t="inlineStr">
+        <is>
+          <t>F1_P14_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C2087" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2087" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2087" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2087" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2087" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088" t="inlineStr">
+        <is>
+          <t>Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.pdf</t>
+        </is>
+      </c>
+      <c r="B2088" t="inlineStr">
+        <is>
+          <t>F1_P16_Black et al._2004_ASQ_A Dynamic Theory of Expertise_Systems Model.png</t>
+        </is>
+      </c>
+      <c r="C2088" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2088" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2088" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2088" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2088" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089" t="inlineStr">
+        <is>
+          <t>Cardinal et al._2004_OrgSci_Balancing and Rebalancing in the Creation and Evolution of Org Control.pdf</t>
+        </is>
+      </c>
+      <c r="B2089" t="inlineStr">
+        <is>
+          <t>F1_P14_Cardinal et al._2004_OrgSci_Balancing and Rebalancing in the Creation and Evolution of Org Control.png</t>
+        </is>
+      </c>
+      <c r="C2089" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2089" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2089" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2089" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2089" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090" t="inlineStr">
+        <is>
+          <t>Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.pdf</t>
+        </is>
+      </c>
+      <c r="B2090" t="inlineStr">
+        <is>
+          <t>F1_P9_Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.png</t>
+        </is>
+      </c>
+      <c r="C2090" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2090" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2090" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2090" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2090" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091" t="inlineStr">
+        <is>
+          <t>Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.pdf</t>
+        </is>
+      </c>
+      <c r="B2091" t="inlineStr">
+        <is>
+          <t>F1_P14_Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.png</t>
+        </is>
+      </c>
+      <c r="C2091" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2091" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2091" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2091" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2091" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092" t="inlineStr">
+        <is>
+          <t>Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.pdf</t>
+        </is>
+      </c>
+      <c r="B2092" t="inlineStr">
+        <is>
+          <t>F1_P19_Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.png</t>
+        </is>
+      </c>
+      <c r="C2092" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2092" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2092" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2092" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2092" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093" t="inlineStr">
+        <is>
+          <t>Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.pdf</t>
+        </is>
+      </c>
+      <c r="B2093" t="inlineStr">
+        <is>
+          <t>F1_P20_Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.png</t>
+        </is>
+      </c>
+      <c r="C2093" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2093" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2093" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2093" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2093" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094" t="inlineStr">
+        <is>
+          <t>Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.pdf</t>
+        </is>
+      </c>
+      <c r="B2094" t="inlineStr">
+        <is>
+          <t>F1_P21_Clair &amp; Dufresne_2004_HR_Playing the grim reaper - how employees experience carrying out a downsizing.png</t>
+        </is>
+      </c>
+      <c r="C2094" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2094" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2094" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2094" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2094" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095" t="inlineStr">
+        <is>
+          <t>Ericksen &amp; Dyer_2004_ASQ_Right from the Start- Exploring the Effects of Early Team Events.pdf</t>
+        </is>
+      </c>
+      <c r="B2095" t="inlineStr">
+        <is>
+          <t>F1_P18_Ericksen &amp; Dyer_2004_ASQ_Right from the Start- Exploring the Effects of Early Team Events.png</t>
+        </is>
+      </c>
+      <c r="C2095" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2095" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2095" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2095" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2095" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096" t="inlineStr">
+        <is>
+          <t>Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B2096" t="inlineStr">
+        <is>
+          <t>F1_P23_Gajewsksa De Mattos, Chapman &amp; Clegg_2004_HR_Poles and Germans - an international business relationship.png</t>
+        </is>
+      </c>
+      <c r="C2096" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2096" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2096" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2096" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2096" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097" t="inlineStr">
+        <is>
+          <t>Jansen_2004_OrgSci_From Persistence to Pursuit.pdf</t>
+        </is>
+      </c>
+      <c r="B2097" t="inlineStr">
+        <is>
+          <t>F1_P6_Jansen_2004_OrgSci_From Persistence to Pursuit.png</t>
+        </is>
+      </c>
+      <c r="C2097" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2097" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2097" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2097" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2097" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098" t="inlineStr">
+        <is>
+          <t>Maitlis &amp; Ozcelik_2004_OrgSci_Toxic Decision Processes.pdf</t>
+        </is>
+      </c>
+      <c r="B2098" t="inlineStr">
+        <is>
+          <t>F1_P8_Maitlis &amp; Ozcelik_2004_OrgSci_Toxic Decision Processes.png</t>
+        </is>
+      </c>
+      <c r="C2098" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2098" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2098" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2098" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2098" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099" t="inlineStr">
+        <is>
+          <t>Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B2099" t="inlineStr">
+        <is>
+          <t>F1_P4_Perlow, Gittell &amp; Katz_2004_OrgSci_Contextualizing Patterns of Work Group Interaction.png</t>
+        </is>
+      </c>
+      <c r="C2099" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2099" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2099" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2099" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2099" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100" t="inlineStr">
+        <is>
+          <t>Washington_2004_OrgStudies_Field Approaches to Institutional Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2100" t="inlineStr">
+        <is>
+          <t>F1_P8_Washington_2004_OrgStudies_Field Approaches to Institutional Change.png</t>
+        </is>
+      </c>
+      <c r="C2100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2100" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E2100" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2100" t="b">
         <v>0</v>
       </c>
     </row>

--- a/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
+++ b/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2100"/>
+  <dimension ref="A1:G2167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57143,6 +57143,1815 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2101">
+      <c r="A2101" t="inlineStr">
+        <is>
+          <t>Jack_2005_J Management Studies _The Role  Use and Activation of Strong and Weak Network Ties  A Qualitative Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B2101" t="inlineStr">
+        <is>
+          <t>F1_P19_Jack_2005_J Management Studies _The Role  Use and Activation of Strong and Weak Network Ties  A Qualitative Analysis.png</t>
+        </is>
+      </c>
+      <c r="C2101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2101" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E2101" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102" t="inlineStr">
+        <is>
+          <t>Magnan_2005_ J Management Studies _The Impact of Profit Sharing on the Performance of Financial Services Firms.pdf</t>
+        </is>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>F1_P20_Magnan_2005_ J Management Studies _The Impact of Profit Sharing on the Performance of Financial Services Firms.png</t>
+        </is>
+      </c>
+      <c r="C2102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2102" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E2102" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103" t="inlineStr">
+        <is>
+          <t>Oliver &amp; Montgomery_2005_HR_Toward the construction of a profession's boundaries - creating a network agenda.pdf</t>
+        </is>
+      </c>
+      <c r="B2103" t="inlineStr">
+        <is>
+          <t>F1_P11_Oliver &amp; Montgomery_2005_HR_Toward the construction of a profession's boundaries - creating a network agenda.png</t>
+        </is>
+      </c>
+      <c r="C2103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2103" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E2103" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104" t="inlineStr">
+        <is>
+          <t>Oliver &amp; Montgomery_2005_HR_Toward the construction of a profession's boundaries - creating a network agenda.pdf</t>
+        </is>
+      </c>
+      <c r="B2104" t="inlineStr">
+        <is>
+          <t>F1_P12_Oliver &amp; Montgomery_2005_HR_Toward the construction of a profession's boundaries - creating a network agenda.png</t>
+        </is>
+      </c>
+      <c r="C2104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2104" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E2104" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105" t="inlineStr">
+        <is>
+          <t>Schweizer_2005_AMJ_Organizational Integration of Acquired Biotech Companies.pdf</t>
+        </is>
+      </c>
+      <c r="B2105" t="inlineStr">
+        <is>
+          <t>F1_P16_Schweizer_2005_AMJ_Organizational Integration of Acquired Biotech Companies.png</t>
+        </is>
+      </c>
+      <c r="C2105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2105" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E2105" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106" t="inlineStr">
+        <is>
+          <t>Schweizer_2005_AMJ_Organizational Integration of Acquired Biotech Companies.pdf</t>
+        </is>
+      </c>
+      <c r="B2106" t="inlineStr">
+        <is>
+          <t>F1_P17_Schweizer_2005_AMJ_Organizational Integration of Acquired Biotech Companies.png</t>
+        </is>
+      </c>
+      <c r="C2106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2106" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E2106" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2107">
+      <c r="A2107" t="inlineStr">
+        <is>
+          <t>Schweizer_2005_AMJ_Organizational Integration of Acquired Biotech Companies.pdf</t>
+        </is>
+      </c>
+      <c r="B2107" t="inlineStr">
+        <is>
+          <t>F1_P19_Schweizer_2005_AMJ_Organizational Integration of Acquired Biotech Companies.png</t>
+        </is>
+      </c>
+      <c r="C2107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2107" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E2107" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108" t="inlineStr">
+        <is>
+          <t>Ulrich_2005_J Management StudiesContinuity and Change in Mergers and Acquisitions  A Social Identity Case Study of.pdf</t>
+        </is>
+      </c>
+      <c r="B2108" t="inlineStr">
+        <is>
+          <t>F1_P14_Ulrich_2005_J Management StudiesContinuity and Change in Mergers and Acquisitions  A Social Identity Case Study of.png</t>
+        </is>
+      </c>
+      <c r="C2108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2108" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E2108" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109" t="inlineStr">
+        <is>
+          <t>Wong_2005_OrgSci_Organizational Learning via Expatriate Managers.pdf</t>
+        </is>
+      </c>
+      <c r="B2109" t="inlineStr">
+        <is>
+          <t>F1_P16_Wong_2005_OrgSci_Organizational Learning via Expatriate Managers.png</t>
+        </is>
+      </c>
+      <c r="C2109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2109" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E2109" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110" t="inlineStr">
+        <is>
+          <t>Wong_2005_OrgSci_Organizational Learning via Expatriate Managers.pdf</t>
+        </is>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>F1_P17_Wong_2005_OrgSci_Organizational Learning via Expatriate Managers.png</t>
+        </is>
+      </c>
+      <c r="C2110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2110" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E2110" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111" t="inlineStr">
+        <is>
+          <t>Wong_2005_OrgSci_Organizational Learning via Expatriate Managers.pdf</t>
+        </is>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>F1_P18_Wong_2005_OrgSci_Organizational Learning via Expatriate Managers.png</t>
+        </is>
+      </c>
+      <c r="C2111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2111" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E2111" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112" t="inlineStr">
+        <is>
+          <t>Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.pdf</t>
+        </is>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>F1_P9_Yu, Engleman &amp; Van de Van_2005_OrgStudies_The Integration Journey.png</t>
+        </is>
+      </c>
+      <c r="C2112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2112" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E2112" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="inlineStr">
+        <is>
+          <t>Delmestri_2006_HR_Streams of inconsistent institutional influences.pdf</t>
+        </is>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>F1_P19_Delmestri_2006_HR_Streams of inconsistent institutional influences.png</t>
+        </is>
+      </c>
+      <c r="C2113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2113" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E2113" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="inlineStr">
+        <is>
+          <t>Dutton et al._2006_ASQ_Explaining Compassion Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>F1_P24_Dutton et al._2006_ASQ_Explaining Compassion Organizing.png</t>
+        </is>
+      </c>
+      <c r="C2114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2114" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E2114" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="inlineStr">
+        <is>
+          <t>Gibson &amp; Gibbs_2006_ASQ_Unpacking the Concept of Virtuality.pdf</t>
+        </is>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>F1_P31_Gibson &amp; Gibbs_2006_ASQ_Unpacking the Concept of Virtuality.png</t>
+        </is>
+      </c>
+      <c r="C2115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2115" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E2115" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="inlineStr">
+        <is>
+          <t>Hargadon &amp; Bechky_2006_OrgSci_When Collections of Creatives Become Creative Collectives.pdf</t>
+        </is>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>F1_P6_Hargadon &amp; Bechky_2006_OrgSci_When Collections of Creatives Become Creative Collectives.png</t>
+        </is>
+      </c>
+      <c r="C2116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2116" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E2116" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="inlineStr">
+        <is>
+          <t>Hargadon &amp; Bechky_2006_OrgSci_When Collections of Creatives Become Creative Collectives.pdf</t>
+        </is>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>F1_P10_Hargadon &amp; Bechky_2006_OrgSci_When Collections of Creatives Become Creative Collectives.png</t>
+        </is>
+      </c>
+      <c r="C2117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2117" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E2117" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="inlineStr">
+        <is>
+          <t>Hsiao, Tsai &amp; Lee_2006_OrgSci_The Problems of Embeddedness - Knowledge Transfer, Coordination and Reuse in Information Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>F1_P4_Hsiao, Tsai &amp; Lee_2006_OrgSci_The Problems of Embeddedness - Knowledge Transfer, Coordination and Reuse in Information Systems.png</t>
+        </is>
+      </c>
+      <c r="C2118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2118" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E2118" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="inlineStr">
+        <is>
+          <t>James &amp; Wooten_2006_AMJ_Diversity Crises How Firms Manage Discrimination Lawsuits.pdf</t>
+        </is>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>F1_P9_James &amp; Wooten_2006_AMJ_Diversity Crises How Firms Manage Discrimination Lawsuits.png</t>
+        </is>
+      </c>
+      <c r="C2119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2119" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E2119" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="inlineStr">
+        <is>
+          <t>Kreiner, Hollensbe &amp; Sheep_2006_AMJ_Where is the Me among We Identity Work and the Search for Optimal Balance.pdf</t>
+        </is>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>F1_P7_Kreiner, Hollensbe &amp; Sheep_2006_AMJ_Where is the Me among We Identity Work and the Search for Optimal Balance.png</t>
+        </is>
+      </c>
+      <c r="C2120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2120" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E2120" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="inlineStr">
+        <is>
+          <t>Maurer &amp; Ebers_2006_ASQ_Dynamics of Social Capital and their Performance Implications.pdf</t>
+        </is>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>F1_P14_Maurer &amp; Ebers_2006_ASQ_Dynamics of Social Capital and their Performance Implications.png</t>
+        </is>
+      </c>
+      <c r="C2121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2121" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E2121" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="inlineStr">
+        <is>
+          <t>Pratt, Rockmann &amp; Kaufmann_2006_AMJ_Constructing Professional Identity The Role of Work and Identity Learning Cycles in the Customization of Identity among Medical Residents.pdf</t>
+        </is>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>F1_P6_Pratt, Rockmann &amp; Kaufmann_2006_AMJ_Constructing Professional Identity The Role of Work and Identity Learning Cycles in the Customization of Identity among Medical Residents.png</t>
+        </is>
+      </c>
+      <c r="C2122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2122" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E2122" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="inlineStr">
+        <is>
+          <t>Pratt, Rockmann &amp; Kaufmann_2006_AMJ_Constructing Professional Identity The Role of Work and Identity Learning Cycles in the Customization of Identity among Medical Residents.pdf</t>
+        </is>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>F1_P7_Pratt, Rockmann &amp; Kaufmann_2006_AMJ_Constructing Professional Identity The Role of Work and Identity Learning Cycles in the Customization of Identity among Medical Residents.png</t>
+        </is>
+      </c>
+      <c r="C2123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2123" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E2123" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="inlineStr">
+        <is>
+          <t>Pratt, Rockmann &amp; Kaufmann_2006_AMJ_Constructing Professional Identity The Role of Work and Identity Learning Cycles in the Customization of Identity among Medical Residents.pdf</t>
+        </is>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>F1_P10_Pratt, Rockmann &amp; Kaufmann_2006_AMJ_Constructing Professional Identity The Role of Work and Identity Learning Cycles in the Customization of Identity among Medical Residents.png</t>
+        </is>
+      </c>
+      <c r="C2124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2124" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E2124" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="inlineStr">
+        <is>
+          <t>Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.pdf</t>
+        </is>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>F1_P8_Tagliaventi &amp; Mattarelli_2006_HR_The role of networks of practice value sharing and operational proximity.png</t>
+        </is>
+      </c>
+      <c r="C2125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2125" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E2125" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="inlineStr">
+        <is>
+          <t>Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.pdf</t>
+        </is>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>F1_P8_Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.png</t>
+        </is>
+      </c>
+      <c r="C2126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2126" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2126" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="inlineStr">
+        <is>
+          <t>Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.pdf</t>
+        </is>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>F1_P10_Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.png</t>
+        </is>
+      </c>
+      <c r="C2127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2127" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2127" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="inlineStr">
+        <is>
+          <t>Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.pdf</t>
+        </is>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>F1_P13_Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.png</t>
+        </is>
+      </c>
+      <c r="C2128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2128" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2128" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="inlineStr">
+        <is>
+          <t>Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.pdf</t>
+        </is>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>F1_P15_Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.png</t>
+        </is>
+      </c>
+      <c r="C2129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2129" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2129" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="inlineStr">
+        <is>
+          <t>Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.pdf</t>
+        </is>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>F1_P16_Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.png</t>
+        </is>
+      </c>
+      <c r="C2130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2130" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2130" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="inlineStr">
+        <is>
+          <t>Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.pdf</t>
+        </is>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>F1_P17_Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.png</t>
+        </is>
+      </c>
+      <c r="C2131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2131" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2131" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="inlineStr">
+        <is>
+          <t>Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.pdf</t>
+        </is>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>F1_P18_Chreim, Williams &amp; Hinings_2007_AMJ_Interlevel Influences on the Reconstruction of Professional Role Identity.png</t>
+        </is>
+      </c>
+      <c r="C2132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2132" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2132" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="inlineStr">
+        <is>
+          <t>Fayard &amp; Weeks_2007_OrgSci_Photocopiers and Water-coolers - the affordances of informal interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>F1_P11_Fayard &amp; Weeks_2007_OrgSci_Photocopiers and Water-coolers - the affordances of informal interaction.png</t>
+        </is>
+      </c>
+      <c r="C2133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2133" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2133" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="inlineStr">
+        <is>
+          <t>Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>F1_P9_Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="C2134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2134" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2134" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="inlineStr">
+        <is>
+          <t>Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.pdf</t>
+        </is>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>F1_P10_Kane &amp; Alavi_2007_OrgSci_Information Technology and Organizational Learning.png</t>
+        </is>
+      </c>
+      <c r="C2135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2135" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2135" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="inlineStr">
+        <is>
+          <t>Leonardi_2007_OrgSci_Activating the Informational Capabilities of Informational Technology for Org Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>F1_P6_Leonardi_2007_OrgSci_Activating the Informational Capabilities of Informational Technology for Org Change.png</t>
+        </is>
+      </c>
+      <c r="C2136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2136" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2136" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="inlineStr">
+        <is>
+          <t>Martens, Jennings &amp; Jennings_2007_AMJ_Do the Stories they tell get them the money they need.pdf</t>
+        </is>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>F1_P9_Martens, Jennings &amp; Jennings_2007_AMJ_Do the Stories they tell get them the money they need.png</t>
+        </is>
+      </c>
+      <c r="C2137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2137" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2137" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="inlineStr">
+        <is>
+          <t>Michel_2007_ASQ_A Distributed Cognition Perspective on Newcomers' Change Processes.pdf</t>
+        </is>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>F1_P37_Michel_2007_ASQ_A Distributed Cognition Perspective on Newcomers' Change Processes.png</t>
+        </is>
+      </c>
+      <c r="C2138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2138" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2138" t="n">
+        <v>38</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="inlineStr">
+        <is>
+          <t>Plowman et al._2007_AMJ_Radical Change Accidentally The Emergence and Amplification of Small Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2139" t="inlineStr">
+        <is>
+          <t>F1_P3_Plowman et al._2007_AMJ_Radical Change Accidentally The Emergence and Amplification of Small Change.png</t>
+        </is>
+      </c>
+      <c r="C2139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2139" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2139" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="inlineStr">
+        <is>
+          <t>Plowman et al._2007_AMJ_Radical Change Accidentally The Emergence and Amplification of Small Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2140" t="inlineStr">
+        <is>
+          <t>F1_P22_Plowman et al._2007_AMJ_Radical Change Accidentally The Emergence and Amplification of Small Change.png</t>
+        </is>
+      </c>
+      <c r="C2140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2140" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2140" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="inlineStr">
+        <is>
+          <t>Schaefer_2007_J Management Studies _ Contrasting Institutional and Performance Accounts of Environmental Management.pdf</t>
+        </is>
+      </c>
+      <c r="B2141" t="inlineStr">
+        <is>
+          <t>F1_P7_Schaefer_2007_J Management Studies _ Contrasting Institutional and Performance Accounts of Environmental Management.png</t>
+        </is>
+      </c>
+      <c r="C2141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2141" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2141" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="inlineStr">
+        <is>
+          <t>Tschang_2007_OrgSci_Balancing the Tensions Between Rationalization and Creativity.pdf</t>
+        </is>
+      </c>
+      <c r="B2142" t="inlineStr">
+        <is>
+          <t>F1_P8_Tschang_2007_OrgSci_Balancing the Tensions Between Rationalization and Creativity.png</t>
+        </is>
+      </c>
+      <c r="C2142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2142" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E2142" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="inlineStr">
+        <is>
+          <t>Anteby_2008_OrgSci_Identity Incentives as an Emerging Form of Control.pdf</t>
+        </is>
+      </c>
+      <c r="B2143" t="inlineStr">
+        <is>
+          <t>F1_P7_Anteby_2008_OrgSci_Identity Incentives as an Emerging Form of Control.png</t>
+        </is>
+      </c>
+      <c r="C2143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2143" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E2143" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="inlineStr">
+        <is>
+          <t>Hollensbe, Khazanchi &amp; Masterson_2008_AMJ_How do I assess if my Supervisor and Organization are fair.pdf</t>
+        </is>
+      </c>
+      <c r="B2144" t="inlineStr">
+        <is>
+          <t>F1_P8_Hollensbe, Khazanchi &amp; Masterson_2008_AMJ_How do I assess if my Supervisor and Organization are fair.png</t>
+        </is>
+      </c>
+      <c r="C2144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="inlineStr">
+        <is>
+          <t>Hollensbe, Khazanchi &amp; Masterson_2008_AMJ_How do I assess if my Supervisor and Organization are fair.pdf</t>
+        </is>
+      </c>
+      <c r="B2145" t="inlineStr">
+        <is>
+          <t>F1_P9_Hollensbe, Khazanchi &amp; Masterson_2008_AMJ_How do I assess if my Supervisor and Organization are fair.png</t>
+        </is>
+      </c>
+      <c r="C2145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="inlineStr">
+        <is>
+          <t>Jarzabkowski_2008_AMJ_Shaping Strategy as a Structuration Process.pdf</t>
+        </is>
+      </c>
+      <c r="B2146" t="inlineStr">
+        <is>
+          <t>F1_P3_Jarzabkowski_2008_AMJ_Shaping Strategy as a Structuration Process.png</t>
+        </is>
+      </c>
+      <c r="C2146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="inlineStr">
+        <is>
+          <t>Bezrukova et al._2009_OrgSci_Do Workgroup Faultlines Help or Hurt.pdf</t>
+        </is>
+      </c>
+      <c r="B2147" t="inlineStr">
+        <is>
+          <t>F1_P10_Bezrukova et al._2009_OrgSci_Do Workgroup Faultlines Help or Hurt.png</t>
+        </is>
+      </c>
+      <c r="C2147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2147" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E2147" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="inlineStr">
+        <is>
+          <t>Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.pdf</t>
+        </is>
+      </c>
+      <c r="B2148" t="inlineStr">
+        <is>
+          <t>F1_P2_Gulati &amp; Puranam_2009_OrgSci_Renewal Through Reorganization.png</t>
+        </is>
+      </c>
+      <c r="C2148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="inlineStr">
+        <is>
+          <t>Kreiner, Hollensbe &amp; Sheep_2009_AMJ_Balancing Borders and Bridges Negotiating the Work-Home Interface Via Boundary Work Tactics.pdf</t>
+        </is>
+      </c>
+      <c r="B2149" t="inlineStr">
+        <is>
+          <t>F1_P7_Kreiner, Hollensbe &amp; Sheep_2009_AMJ_Balancing Borders and Bridges Negotiating the Work-Home Interface Via Boundary Work Tactics.png</t>
+        </is>
+      </c>
+      <c r="C2149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="inlineStr">
+        <is>
+          <t>Levina &amp; Orlikowski_2009_AMJ_Understanding Shifting Power Relations within and across Organizations a Critical Genre Analysis.pdf</t>
+        </is>
+      </c>
+      <c r="B2150" t="inlineStr">
+        <is>
+          <t>F1_P10_Levina &amp; Orlikowski_2009_AMJ_Understanding Shifting Power Relations within and across Organizations a Critical Genre Analysis.png</t>
+        </is>
+      </c>
+      <c r="C2150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="inlineStr">
+        <is>
+          <t>Sonenshein_2009_OrgSci_Emergence of Ethical Issues During Strategic Change Implementation.pdf</t>
+        </is>
+      </c>
+      <c r="B2151" t="inlineStr">
+        <is>
+          <t>F1_P12_Sonenshein_2009_OrgSci_Emergence of Ethical Issues During Strategic Change Implementation.png</t>
+        </is>
+      </c>
+      <c r="C2151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="inlineStr">
+        <is>
+          <t>Bresman_2010_OrgSci_Explaining Employee Engagement with Strategic Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2152" t="inlineStr">
+        <is>
+          <t>F1_P12_Bresman_2010_OrgSci_Explaining Employee Engagement with Strategic Change.png</t>
+        </is>
+      </c>
+      <c r="C2152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="inlineStr">
+        <is>
+          <t>Cabantous, Gond &amp; Johnson -Cramer_2010_OrgStudies_Decision Theory as PRactice - Crafting Rationality in Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2153" t="inlineStr">
+        <is>
+          <t>F1_P12_Cabantous, Gond &amp; Johnson -Cramer_2010_OrgStudies_Decision Theory as PRactice - Crafting Rationality in Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="inlineStr">
+        <is>
+          <t>Cabantous, Gond &amp; Johnson -Cramer_2010_OrgStudies_Decision Theory as PRactice - Crafting Rationality in Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2154" t="inlineStr">
+        <is>
+          <t>F1_P15_Cabantous, Gond &amp; Johnson -Cramer_2010_OrgStudies_Decision Theory as PRactice - Crafting Rationality in Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="inlineStr">
+        <is>
+          <t>Cabantous, Gond &amp; Johnson -Cramer_2010_OrgStudies_Decision Theory as PRactice - Crafting Rationality in Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2155" t="inlineStr">
+        <is>
+          <t>F1_P19_Cabantous, Gond &amp; Johnson -Cramer_2010_OrgStudies_Decision Theory as PRactice - Crafting Rationality in Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="inlineStr">
+        <is>
+          <t>Cabantous, Gond &amp; Johnson -Cramer_2010_OrgStudies_Decision Theory as PRactice - Crafting Rationality in Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2156" t="inlineStr">
+        <is>
+          <t>F1_P20_Cabantous, Gond &amp; Johnson -Cramer_2010_OrgStudies_Decision Theory as PRactice - Crafting Rationality in Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2156" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2156" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="inlineStr">
+        <is>
+          <t>Cabantous, Gond &amp; Johnson -Cramer_2010_OrgStudies_Decision Theory as PRactice - Crafting Rationality in Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2157" t="inlineStr">
+        <is>
+          <t>F1_P21_Cabantous, Gond &amp; Johnson -Cramer_2010_OrgStudies_Decision Theory as PRactice - Crafting Rationality in Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="inlineStr">
+        <is>
+          <t>Cabantous, Gond &amp; Johnson -Cramer_2010_OrgStudies_Decision Theory as PRactice - Crafting Rationality in Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2158" t="inlineStr">
+        <is>
+          <t>F1_P22_Cabantous, Gond &amp; Johnson -Cramer_2010_OrgStudies_Decision Theory as PRactice - Crafting Rationality in Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="inlineStr">
+        <is>
+          <t>Clark et al._2010_ASQ_Transitional Identity as a Facilitator of Organizational Identity Change during a Merger.pdf</t>
+        </is>
+      </c>
+      <c r="B2159" t="inlineStr">
+        <is>
+          <t>F1_P12_Clark et al._2010_ASQ_Transitional Identity as a Facilitator of Organizational Identity Change during a Merger.png</t>
+        </is>
+      </c>
+      <c r="C2159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="inlineStr">
+        <is>
+          <t>Dacin, Munir &amp; Tracey_2010_AMJ_Formal Dining at Cambridge Colleges.pdf</t>
+        </is>
+      </c>
+      <c r="B2160" t="inlineStr">
+        <is>
+          <t>F1_P6_Dacin, Munir &amp; Tracey_2010_AMJ_Formal Dining at Cambridge Colleges.png</t>
+        </is>
+      </c>
+      <c r="C2160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2160" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2160" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="inlineStr">
+        <is>
+          <t>Gioia et al_2010_ASQ_Forging an Identity.pdf</t>
+        </is>
+      </c>
+      <c r="B2161" t="inlineStr">
+        <is>
+          <t>F1_P12_Gioia et al_2010_ASQ_Forging an Identity.png</t>
+        </is>
+      </c>
+      <c r="C2161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2161" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2161" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="inlineStr">
+        <is>
+          <t>Lingo &amp; Mahony_2010_ASQ_Nexus Work - Brokerage on Creative Projects.pdf</t>
+        </is>
+      </c>
+      <c r="B2162" t="inlineStr">
+        <is>
+          <t>F1_P13_Lingo &amp; Mahony_2010_ASQ_Nexus Work - Brokerage on Creative Projects.png</t>
+        </is>
+      </c>
+      <c r="C2162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="inlineStr">
+        <is>
+          <t>Sonenshein_2010_AMJ_We're Changing or are we - untangling the role of progressive, regressive and stability narratives during strategic change implementation.pdf</t>
+        </is>
+      </c>
+      <c r="B2163" t="inlineStr">
+        <is>
+          <t>F1_P23_Sonenshein_2010_AMJ_We're Changing or are we - untangling the role of progressive, regressive and stability narratives during strategic change implementation.png</t>
+        </is>
+      </c>
+      <c r="C2163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="inlineStr">
+        <is>
+          <t>Sonenshein_2010_AMJ_We're Changing or are we - untangling the role of progressive, regressive and stability narratives during strategic change implementation.pdf</t>
+        </is>
+      </c>
+      <c r="B2164" t="inlineStr">
+        <is>
+          <t>F1_P24_Sonenshein_2010_AMJ_We're Changing or are we - untangling the role of progressive, regressive and stability narratives during strategic change implementation.png</t>
+        </is>
+      </c>
+      <c r="C2164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="inlineStr">
+        <is>
+          <t>Sonenshein_2010_AMJ_We're Changing or are we - untangling the role of progressive, regressive and stability narratives during strategic change implementation.pdf</t>
+        </is>
+      </c>
+      <c r="B2165" t="inlineStr">
+        <is>
+          <t>F1_P25_Sonenshein_2010_AMJ_We're Changing or are we - untangling the role of progressive, regressive and stability narratives during strategic change implementation.png</t>
+        </is>
+      </c>
+      <c r="C2165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="inlineStr">
+        <is>
+          <t>Tilcsik_2010_AMJ_From Ritual to Reality.pdf</t>
+        </is>
+      </c>
+      <c r="B2166" t="inlineStr">
+        <is>
+          <t>F1_P14_Tilcsik_2010_AMJ_From Ritual to Reality.png</t>
+        </is>
+      </c>
+      <c r="C2166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="inlineStr">
+        <is>
+          <t>Zietsma &amp; Lawrence_2010_ASQ_Institutional Work in the Transformation of an Organizational Field.pdf</t>
+        </is>
+      </c>
+      <c r="B2167" t="inlineStr">
+        <is>
+          <t>F1_P7_Zietsma &amp; Lawrence_2010_ASQ_Institutional Work in the Transformation of an Organizational Field.png</t>
+        </is>
+      </c>
+      <c r="C2167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2167" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E2167" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2167" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
+++ b/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2167"/>
+  <dimension ref="A1:G2283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58952,6 +58952,3138 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2168">
+      <c r="A2168" t="inlineStr">
+        <is>
+          <t>Barley, Meyerson &amp; Grodal_2011_OrgSci_E-Mail as a Source and Symbol of Stress.pdf</t>
+        </is>
+      </c>
+      <c r="B2168" t="inlineStr">
+        <is>
+          <t>F1_P14_Barley, Meyerson &amp; Grodal_2011_OrgSci_E-Mail as a Source and Symbol of Stress.png</t>
+        </is>
+      </c>
+      <c r="C2168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2168" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E2168" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="inlineStr">
+        <is>
+          <t>Bluhm_2011_J Management Studies_Qualitative Research in Management  A Decade of Progress.pdf</t>
+        </is>
+      </c>
+      <c r="B2169" t="inlineStr">
+        <is>
+          <t>F1_P7_Bluhm_2011_J Management Studies_Qualitative Research in Management  A Decade of Progress.png</t>
+        </is>
+      </c>
+      <c r="C2169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="inlineStr">
+        <is>
+          <t>Kellogg_2011_OrgSci_Hot Lights and Cold Steel.pdf</t>
+        </is>
+      </c>
+      <c r="B2170" t="inlineStr">
+        <is>
+          <t>F1_P16_Kellogg_2011_OrgSci_Hot Lights and Cold Steel.png</t>
+        </is>
+      </c>
+      <c r="C2170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="inlineStr">
+        <is>
+          <t>Leonardi_2011_OrgSci_Innovation Blindness.pdf</t>
+        </is>
+      </c>
+      <c r="B2171" t="inlineStr">
+        <is>
+          <t>F1_P2_Leonardi_2011_OrgSci_Innovation Blindness.png</t>
+        </is>
+      </c>
+      <c r="C2171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="inlineStr">
+        <is>
+          <t>Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.pdf</t>
+        </is>
+      </c>
+      <c r="B2172" t="inlineStr">
+        <is>
+          <t>F1_P8_Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.png</t>
+        </is>
+      </c>
+      <c r="C2172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="inlineStr">
+        <is>
+          <t>Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.pdf</t>
+        </is>
+      </c>
+      <c r="B2173" t="inlineStr">
+        <is>
+          <t>F1_P10_Rerup &amp; Feldman_2011_AMJ_Routines as Source of Change in Organizational Schemata.png</t>
+        </is>
+      </c>
+      <c r="C2173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2173" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E2173" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="inlineStr">
+        <is>
+          <t>Whiteman &amp; Cooper_2011_AMJ_Ecological Sensemaking.pdf</t>
+        </is>
+      </c>
+      <c r="B2174" t="inlineStr">
+        <is>
+          <t>F1_P11_Whiteman &amp; Cooper_2011_AMJ_Ecological Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="C2174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="inlineStr">
+        <is>
+          <t>Whiteman &amp; Cooper_2011_AMJ_Ecological Sensemaking.pdf</t>
+        </is>
+      </c>
+      <c r="B2175" t="inlineStr">
+        <is>
+          <t>F1_P14_Whiteman &amp; Cooper_2011_AMJ_Ecological Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="C2175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="inlineStr">
+        <is>
+          <t>Bidwell_2012_OrgSci_Politics and Firm Boundaries.pdf</t>
+        </is>
+      </c>
+      <c r="B2176" t="inlineStr">
+        <is>
+          <t>F1_P4_Bidwell_2012_OrgSci_Politics and Firm Boundaries.png</t>
+        </is>
+      </c>
+      <c r="C2176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="inlineStr">
+        <is>
+          <t>Cucchi, Lubberink, Dentoni &amp; Gartner_20121_OrgStudies_Thats Witchcraft - Community Entrepreneuring.pdf</t>
+        </is>
+      </c>
+      <c r="B2177" t="inlineStr">
+        <is>
+          <t>F1_P10_Cucchi, Lubberink, Dentoni &amp; Gartner_20121_OrgStudies_Thats Witchcraft - Community Entrepreneuring.png</t>
+        </is>
+      </c>
+      <c r="C2177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="inlineStr">
+        <is>
+          <t>Cucchi, Lubberink, Dentoni &amp; Gartner_20121_OrgStudies_Thats Witchcraft - Community Entrepreneuring.pdf</t>
+        </is>
+      </c>
+      <c r="B2178" t="inlineStr">
+        <is>
+          <t>F1_P14_Cucchi, Lubberink, Dentoni &amp; Gartner_20121_OrgStudies_Thats Witchcraft - Community Entrepreneuring.png</t>
+        </is>
+      </c>
+      <c r="C2178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="inlineStr">
+        <is>
+          <t>Loretto &amp; Vickerstaff_2012_HR_The Domestic and gendered context for retirement.pdf</t>
+        </is>
+      </c>
+      <c r="B2179" t="inlineStr">
+        <is>
+          <t>F1_P9_Loretto &amp; Vickerstaff_2012_HR_The Domestic and gendered context for retirement.png</t>
+        </is>
+      </c>
+      <c r="C2179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="inlineStr">
+        <is>
+          <t>Nag &amp; Gioia_2012_AMJ_From Common to Uncommon Knowledge.pdf</t>
+        </is>
+      </c>
+      <c r="B2180" t="inlineStr">
+        <is>
+          <t>F1_P8_Nag &amp; Gioia_2012_AMJ_From Common to Uncommon Knowledge.png</t>
+        </is>
+      </c>
+      <c r="C2180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="inlineStr">
+        <is>
+          <t>Nag &amp; Gioia_2012_AMJ_From Common to Uncommon Knowledge.pdf</t>
+        </is>
+      </c>
+      <c r="B2181" t="inlineStr">
+        <is>
+          <t>F1_P13_Nag &amp; Gioia_2012_AMJ_From Common to Uncommon Knowledge.png</t>
+        </is>
+      </c>
+      <c r="C2181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2181" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2181" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="inlineStr">
+        <is>
+          <t>Nag &amp; Gioia_2012_AMJ_From Common to Uncommon Knowledge.pdf</t>
+        </is>
+      </c>
+      <c r="B2182" t="inlineStr">
+        <is>
+          <t>F1_P15_Nag &amp; Gioia_2012_AMJ_From Common to Uncommon Knowledge.png</t>
+        </is>
+      </c>
+      <c r="C2182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="inlineStr">
+        <is>
+          <t>Peterson, Mursphy &amp; Soutar_2012_HR_The problem solving service worker.pdf</t>
+        </is>
+      </c>
+      <c r="B2183" t="inlineStr">
+        <is>
+          <t>F1_P18_Peterson, Mursphy &amp; Soutar_2012_HR_The problem solving service worker.png</t>
+        </is>
+      </c>
+      <c r="C2183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2183" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2183" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="inlineStr">
+        <is>
+          <t>Peterson, Mursphy &amp; Soutar_2012_HR_The problem solving service worker.pdf</t>
+        </is>
+      </c>
+      <c r="B2184" t="inlineStr">
+        <is>
+          <t>F1_P20_Peterson, Mursphy &amp; Soutar_2012_HR_The problem solving service worker.png</t>
+        </is>
+      </c>
+      <c r="C2184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>Schroder &amp; Ostermann_20120_OrgStudies_Towards a Processual Understanding of Task Complexity.pdf</t>
+        </is>
+      </c>
+      <c r="B2185" t="inlineStr">
+        <is>
+          <t>F1_P16_Schroder &amp; Ostermann_20120_OrgStudies_Towards a Processual Understanding of Task Complexity.png</t>
+        </is>
+      </c>
+      <c r="C2185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="inlineStr">
+        <is>
+          <t>Schroder &amp; Ostermann_20120_OrgStudies_Towards a Processual Understanding of Task Complexity.pdf</t>
+        </is>
+      </c>
+      <c r="B2186" t="inlineStr">
+        <is>
+          <t>F1_P17_Schroder &amp; Ostermann_20120_OrgStudies_Towards a Processual Understanding of Task Complexity.png</t>
+        </is>
+      </c>
+      <c r="C2186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="inlineStr">
+        <is>
+          <t>Schroder &amp; Ostermann_20120_OrgStudies_Towards a Processual Understanding of Task Complexity.pdf</t>
+        </is>
+      </c>
+      <c r="B2187" t="inlineStr">
+        <is>
+          <t>F1_P18_Schroder &amp; Ostermann_20120_OrgStudies_Towards a Processual Understanding of Task Complexity.png</t>
+        </is>
+      </c>
+      <c r="C2187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2187" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2187" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="inlineStr">
+        <is>
+          <t>Schroder &amp; Ostermann_20120_OrgStudies_Towards a Processual Understanding of Task Complexity.pdf</t>
+        </is>
+      </c>
+      <c r="B2188" t="inlineStr">
+        <is>
+          <t>F1_P19_Schroder &amp; Ostermann_20120_OrgStudies_Towards a Processual Understanding of Task Complexity.png</t>
+        </is>
+      </c>
+      <c r="C2188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2188" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2188" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="inlineStr">
+        <is>
+          <t>Schroder &amp; Ostermann_20120_OrgStudies_Towards a Processual Understanding of Task Complexity.pdf</t>
+        </is>
+      </c>
+      <c r="B2189" t="inlineStr">
+        <is>
+          <t>F1_P21_Schroder &amp; Ostermann_20120_OrgStudies_Towards a Processual Understanding of Task Complexity.png</t>
+        </is>
+      </c>
+      <c r="C2189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2189" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2189" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="inlineStr">
+        <is>
+          <t>Sonenshein &amp; Dholakia_2012_OrgSci_Explaining Employee Engagement with Strategic Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2190" t="inlineStr">
+        <is>
+          <t>F1_P4_Sonenshein &amp; Dholakia_2012_OrgSci_Explaining Employee Engagement with Strategic Change.png</t>
+        </is>
+      </c>
+      <c r="C2190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2190" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2190" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="inlineStr">
+        <is>
+          <t>Sonenshein &amp; Dholakia_2012_OrgSci_Explaining Employee Engagement with Strategic Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2191" t="inlineStr">
+        <is>
+          <t>F1_P12_Sonenshein &amp; Dholakia_2012_OrgSci_Explaining Employee Engagement with Strategic Change.png</t>
+        </is>
+      </c>
+      <c r="C2191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2191" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2191" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="inlineStr">
+        <is>
+          <t>Sonenshein &amp; Dholakia_2012_OrgSci_Explaining Employee Engagement with Strategic Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2192" t="inlineStr">
+        <is>
+          <t>F1_P13_Sonenshein &amp; Dholakia_2012_OrgSci_Explaining Employee Engagement with Strategic Change.png</t>
+        </is>
+      </c>
+      <c r="C2192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2192" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2192" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="inlineStr">
+        <is>
+          <t>Sonenshein &amp; Dholakia_2012_OrgSci_Explaining Employee Engagement with Strategic Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2193" t="inlineStr">
+        <is>
+          <t>F1_P17_Sonenshein &amp; Dholakia_2012_OrgSci_Explaining Employee Engagement with Strategic Change.png</t>
+        </is>
+      </c>
+      <c r="C2193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2193" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2193" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="inlineStr">
+        <is>
+          <t>Souitaris, Zerbinati &amp; Liu_2012_AMJ_Which Iron Cage.pdf</t>
+        </is>
+      </c>
+      <c r="B2194" t="inlineStr">
+        <is>
+          <t>F1_P7_Souitaris, Zerbinati &amp; Liu_2012_AMJ_Which Iron Cage.png</t>
+        </is>
+      </c>
+      <c r="C2194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2194" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2194" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="inlineStr">
+        <is>
+          <t>Souitaris, Zerbinati &amp; Liu_2012_AMJ_Which Iron Cage.pdf</t>
+        </is>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>F1_P8_Souitaris, Zerbinati &amp; Liu_2012_AMJ_Which Iron Cage.png</t>
+        </is>
+      </c>
+      <c r="C2195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2195" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2195" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="inlineStr">
+        <is>
+          <t>Turner &amp; Rindova_2012_OrgSci_A Balancing Act.pdf</t>
+        </is>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>F1_P5_Turner &amp; Rindova_2012_OrgSci_A Balancing Act.png</t>
+        </is>
+      </c>
+      <c r="C2196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2196" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2196" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="inlineStr">
+        <is>
+          <t>Vergne_2012_AMJ_Stigmatized Categories and Public Disapproval of Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>F1_P20_Vergne_2012_AMJ_Stigmatized Categories and Public Disapproval of Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2197" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E2197" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="inlineStr">
+        <is>
+          <t>Cohen_2013_OrgSci_Assembling Jobs.pdf</t>
+        </is>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>F1_P18_Cohen_2013_OrgSci_Assembling Jobs.png</t>
+        </is>
+      </c>
+      <c r="C2198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2198" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2198" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="inlineStr">
+        <is>
+          <t>Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.pdf</t>
+        </is>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>F1_P9_Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.png</t>
+        </is>
+      </c>
+      <c r="C2199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2199" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="inlineStr">
+        <is>
+          <t>Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.pdf</t>
+        </is>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>F1_P14_Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.png</t>
+        </is>
+      </c>
+      <c r="C2200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2200" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2200" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="inlineStr">
+        <is>
+          <t>Klingebiel &amp; De Meyer_2013_OrgSci_Becoming Aware of the Unknown.pdf</t>
+        </is>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>F1_P17_Klingebiel &amp; De Meyer_2013_OrgSci_Becoming Aware of the Unknown.png</t>
+        </is>
+      </c>
+      <c r="C2201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2201" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2201" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="inlineStr">
+        <is>
+          <t>Kownatzki et al._2013_AMJ_Corporate Control and the Speed of Strategic business unit Decision Making.pdf</t>
+        </is>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>F1_P16_Kownatzki et al._2013_AMJ_Corporate Control and the Speed of Strategic business unit Decision Making.png</t>
+        </is>
+      </c>
+      <c r="C2202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2202" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2202" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="inlineStr">
+        <is>
+          <t>Kownatzki et al._2013_AMJ_Corporate Control and the Speed of Strategic business unit Decision Making.pdf</t>
+        </is>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>F1_P21_Kownatzki et al._2013_AMJ_Corporate Control and the Speed of Strategic business unit Decision Making.png</t>
+        </is>
+      </c>
+      <c r="C2203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2203" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="inlineStr">
+        <is>
+          <t>Mazmanian_2013_AMJ_Avoiding the Trap of Constant Connectivity.pdf</t>
+        </is>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>F1_P20_Mazmanian_2013_AMJ_Avoiding the Trap of Constant Connectivity.png</t>
+        </is>
+      </c>
+      <c r="C2204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2204" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2204" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="inlineStr">
+        <is>
+          <t>McGill &amp; Milkman_2013_OrgSci_Looking Up and Looking Out.pdf</t>
+        </is>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>F1_P13_McGill &amp; Milkman_2013_OrgSci_Looking Up and Looking Out.png</t>
+        </is>
+      </c>
+      <c r="C2205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2205" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2205" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="inlineStr">
+        <is>
+          <t>Neeley_2013_OrgSci_Language Matters.pdf</t>
+        </is>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>F1_P13_Neeley_2013_OrgSci_Language Matters.png</t>
+        </is>
+      </c>
+      <c r="C2206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2206" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2206" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="inlineStr">
+        <is>
+          <t>Pache &amp; Santos_2013_AMJ_Inside the Hybrid Organization.pdf</t>
+        </is>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>F1_P11_Pache &amp; Santos_2013_AMJ_Inside the Hybrid Organization.png</t>
+        </is>
+      </c>
+      <c r="C2207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2207" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2207" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="inlineStr">
+        <is>
+          <t>Paquin &amp; Howard-Grenville_2013_OrgStudies_Blind Dates and Arranged Marrianges - Longitudinal PRocesses of Network Orchestration.pdf</t>
+        </is>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>F1_P17_Paquin &amp; Howard-Grenville_2013_OrgStudies_Blind Dates and Arranged Marrianges - Longitudinal PRocesses of Network Orchestration.png</t>
+        </is>
+      </c>
+      <c r="C2208" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2208" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2208" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="inlineStr">
+        <is>
+          <t>Vough et al._2013_AMJ_What Clients Don't Get About my Profession.pdf</t>
+        </is>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>F1_P9_Vough et al._2013_AMJ_What Clients Don't Get About my Profession.png</t>
+        </is>
+      </c>
+      <c r="C2209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2209" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2209" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="inlineStr">
+        <is>
+          <t>Yagil &amp; Medler-Liraz_2013_AMJ_Moments of Truth.pdf</t>
+        </is>
+      </c>
+      <c r="B2210" t="inlineStr">
+        <is>
+          <t>F1_P6_Yagil &amp; Medler-Liraz_2013_AMJ_Moments of Truth.png</t>
+        </is>
+      </c>
+      <c r="C2210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2210" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2210" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="inlineStr">
+        <is>
+          <t>Zhang &amp; Spicer_2013_HR_Leader you first.pdf</t>
+        </is>
+      </c>
+      <c r="B2211" t="inlineStr">
+        <is>
+          <t>F1_P8_Zhang &amp; Spicer_2013_HR_Leader you first.png</t>
+        </is>
+      </c>
+      <c r="C2211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2211" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2211" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="inlineStr">
+        <is>
+          <t>Zhang &amp; Spicer_2013_HR_Leader you first.pdf</t>
+        </is>
+      </c>
+      <c r="B2212" t="inlineStr">
+        <is>
+          <t>F1_P11_Zhang &amp; Spicer_2013_HR_Leader you first.png</t>
+        </is>
+      </c>
+      <c r="C2212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2212" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2212" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="inlineStr">
+        <is>
+          <t>Ashforth &amp; Reingen_2014_ASQ_Functions of Dysfunction - Managing the Dynamics of an Organizational Duality in a Natural Food Cooperative.pdf</t>
+        </is>
+      </c>
+      <c r="B2213" t="inlineStr">
+        <is>
+          <t>F1_P33_Ashforth &amp; Reingen_2014_ASQ_Functions of Dysfunction - Managing the Dynamics of an Organizational Duality in a Natural Food Cooperative.png</t>
+        </is>
+      </c>
+      <c r="C2213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2213" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2213" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2213" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="inlineStr">
+        <is>
+          <t>Bertels, Hoffman &amp; DeJordy_2014_OrgStudies_The Varied Work of Challenger Movements - Identifying Challenger Roles in the US Environmental Movement.pdf</t>
+        </is>
+      </c>
+      <c r="B2214" t="inlineStr">
+        <is>
+          <t>F1_P17_Bertels, Hoffman &amp; DeJordy_2014_OrgStudies_The Varied Work of Challenger Movements - Identifying Challenger Roles in the US Environmental Movement.png</t>
+        </is>
+      </c>
+      <c r="C2214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2214" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2214" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2214" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="inlineStr">
+        <is>
+          <t>Bertels, Hoffman &amp; DeJordy_2014_OrgStudies_The Varied Work of Challenger Movements - Identifying Challenger Roles in the US Environmental Movement.pdf</t>
+        </is>
+      </c>
+      <c r="B2215" t="inlineStr">
+        <is>
+          <t>F1_P23_Bertels, Hoffman &amp; DeJordy_2014_OrgStudies_The Varied Work of Challenger Movements - Identifying Challenger Roles in the US Environmental Movement.png</t>
+        </is>
+      </c>
+      <c r="C2215" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2215" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2215" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2215" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="inlineStr">
+        <is>
+          <t>D'Adderio_2014_OrgSci_The Replication Dilemma Unravelled.pdf</t>
+        </is>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>F1_P6_D'Adderio_2014_OrgSci_The Replication Dilemma Unravelled.png</t>
+        </is>
+      </c>
+      <c r="C2216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2216" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2216" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="inlineStr">
+        <is>
+          <t>Grant, Berg &amp; Cable_2014_AMJ_Job Titles as Identity Badges.pdf</t>
+        </is>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>F1_P5_Grant, Berg &amp; Cable_2014_AMJ_Job Titles as Identity Badges.png</t>
+        </is>
+      </c>
+      <c r="C2217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2217" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2217" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="inlineStr">
+        <is>
+          <t>Harrison &amp; Rouse_2014_AMJ_Let's Dance.pdf</t>
+        </is>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>F1_P7_Harrison &amp; Rouse_2014_AMJ_Let's Dance.png</t>
+        </is>
+      </c>
+      <c r="C2218" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2218" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2218" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="inlineStr">
+        <is>
+          <t>Hinds &amp; Cramton_2014_OrgSci_Situated Coworker Familiarity How Site Visits Transform Relationships among Distributed Workers.pdf</t>
+        </is>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>F1_P7_Hinds &amp; Cramton_2014_OrgSci_Situated Coworker Familiarity How Site Visits Transform Relationships among Distributed Workers.png</t>
+        </is>
+      </c>
+      <c r="C2219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2219" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2219" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="inlineStr">
+        <is>
+          <t>Huy, Corley &amp; Kraatz_2014_AMJ_From Support to Mutiny.pdf</t>
+        </is>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>F1_P10_Huy, Corley &amp; Kraatz_2014_AMJ_From Support to Mutiny.png</t>
+        </is>
+      </c>
+      <c r="C2220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2220" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2220" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="inlineStr">
+        <is>
+          <t>Koerner_2014_AMJ_Courage as Identity Work.pdf</t>
+        </is>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>F1_P17_Koerner_2014_AMJ_Courage as Identity Work.png</t>
+        </is>
+      </c>
+      <c r="C2221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2221" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2221" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="inlineStr">
+        <is>
+          <t>Lockett et al._2014_AMJ_The Influence of Social Position on Sensemaking.pdf</t>
+        </is>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>F1_P17_Lockett et al._2014_AMJ_The Influence of Social Position on Sensemaking.png</t>
+        </is>
+      </c>
+      <c r="C2222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2222" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2222" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="inlineStr">
+        <is>
+          <t>Noonan Hadley_2014_HR_Emotional Roulette Symmetrical and asymmetrical emotion regulation outcomes.pdf</t>
+        </is>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>F1_P10_Noonan Hadley_2014_HR_Emotional Roulette Symmetrical and asymmetrical emotion regulation outcomes.png</t>
+        </is>
+      </c>
+      <c r="C2223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2223" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2223" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="inlineStr">
+        <is>
+          <t>Sonenshein, DeCelles &amp; Dutton_2014_AMJ_It's Not Easy Being Green.pdf</t>
+        </is>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>F1_P7_Sonenshein, DeCelles &amp; Dutton_2014_AMJ_It's Not Easy Being Green.png</t>
+        </is>
+      </c>
+      <c r="C2224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2224" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2224" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="inlineStr">
+        <is>
+          <t>Sonenshein_2014_AMJ_How Organizations Foster the Creative Use of Resources.pdf</t>
+        </is>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>F1_P7_Sonenshein_2014_AMJ_How Organizations Foster the Creative Use of Resources.png</t>
+        </is>
+      </c>
+      <c r="C2225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2225" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2225" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="inlineStr">
+        <is>
+          <t>Sonenshein_2014_AMJ_How Organizations Foster the Creative Use of Resources.pdf</t>
+        </is>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>F1_P22_Sonenshein_2014_AMJ_How Organizations Foster the Creative Use of Resources.png</t>
+        </is>
+      </c>
+      <c r="C2226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2226" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2226" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="inlineStr">
+        <is>
+          <t>Srikanth &amp; Puranam_2014_OrgSci_The Firm as a Coordination System.pdf</t>
+        </is>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>F1_P6_Srikanth &amp; Puranam_2014_OrgSci_The Firm as a Coordination System.png</t>
+        </is>
+      </c>
+      <c r="C2227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2227" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="inlineStr">
+        <is>
+          <t>Srikanth &amp; Puranam_2014_OrgSci_The Firm as a Coordination System.pdf</t>
+        </is>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>F1_P12_Srikanth &amp; Puranam_2014_OrgSci_The Firm as a Coordination System.png</t>
+        </is>
+      </c>
+      <c r="C2228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2228" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2228" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="inlineStr">
+        <is>
+          <t>Srikanth &amp; Puranam_2014_OrgSci_The Firm as a Coordination System.pdf</t>
+        </is>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>F1_P14_Srikanth &amp; Puranam_2014_OrgSci_The Firm as a Coordination System.png</t>
+        </is>
+      </c>
+      <c r="C2229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2229" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E2229" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="inlineStr">
+        <is>
+          <t>Baralou &amp; Tsoukas_2015_OrgStudies_How is New Org Knowledge Created in a Virtual Context.pdf</t>
+        </is>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>F1_P11_Baralou &amp; Tsoukas_2015_OrgStudies_How is New Org Knowledge Created in a Virtual Context.png</t>
+        </is>
+      </c>
+      <c r="C2230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2230" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2230" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="inlineStr">
+        <is>
+          <t>Barley_2015_OrgSci_Anticipatory Work - How the Need to Represent Knowledge Across Boundaries Shape Work Practices within them.pdf</t>
+        </is>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>F1_P8_Barley_2015_OrgSci_Anticipatory Work - How the Need to Represent Knowledge Across Boundaries Shape Work Practices within them.png</t>
+        </is>
+      </c>
+      <c r="C2231" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2231" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2231" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="inlineStr">
+        <is>
+          <t>Byron &amp; Laurence_2015_AMJ_Diplomas Photos and Tchotchkes.pdf</t>
+        </is>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>F1_P7_Byron &amp; Laurence_2015_AMJ_Diplomas Photos and Tchotchkes.png</t>
+        </is>
+      </c>
+      <c r="C2232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2232" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="inlineStr">
+        <is>
+          <t>Chuang et al._2015_AMJ_Does West Fit with East In Search of a Chinese Model of Person-Environment Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>F1_P10_Chuang et al._2015_AMJ_Does West Fit with East In Search of a Chinese Model of Person-Environment Fit.png</t>
+        </is>
+      </c>
+      <c r="C2233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2233" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2233" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="inlineStr">
+        <is>
+          <t>Chuang et al._2015_AMJ_Does West Fit with East In Search of a Chinese Model of Person-Environment Fit.pdf</t>
+        </is>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>F1_P21_Chuang et al._2015_AMJ_Does West Fit with East In Search of a Chinese Model of Person-Environment Fit.png</t>
+        </is>
+      </c>
+      <c r="C2234" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2234" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2234" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="inlineStr">
+        <is>
+          <t>Cole_2015_AMJ_Lessons from a Martial Arts Dojo.pdf</t>
+        </is>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>F1_P18_Cole_2015_AMJ_Lessons from a Martial Arts Dojo.png</t>
+        </is>
+      </c>
+      <c r="C2235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2235" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2235" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="inlineStr">
+        <is>
+          <t>Harrison &amp; Rouse_2015_AMJ_An Inductive Study of Feedback Interactions over the Course of Creative Projects.pdf</t>
+        </is>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>F1_P9_Harrison &amp; Rouse_2015_AMJ_An Inductive Study of Feedback Interactions over the Course of Creative Projects.png</t>
+        </is>
+      </c>
+      <c r="C2236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2236" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2236" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="inlineStr">
+        <is>
+          <t>Helfen_2015_OrgStudies_Institutionalizing Precariousness - The Politics of Boundary Work in Legalizing Agency Work in Germany.pdf</t>
+        </is>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>F1_P6_Helfen_2015_OrgStudies_Institutionalizing Precariousness - The Politics of Boundary Work in Legalizing Agency Work in Germany.png</t>
+        </is>
+      </c>
+      <c r="C2237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2237" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2237" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="inlineStr">
+        <is>
+          <t>Lawrence &amp; Dover_2015_ASQ_Place and Institutional Work Creating Housing for the Hard to House.pdf</t>
+        </is>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>F1_P10_Lawrence &amp; Dover_2015_ASQ_Place and Institutional Work Creating Housing for the Hard to House.png</t>
+        </is>
+      </c>
+      <c r="C2238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2238" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2238" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="inlineStr">
+        <is>
+          <t>Little et al._2015_AMJ_Professional Image Maintenance How Women Navigate Pregnancy in the Workplace.pdf</t>
+        </is>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>F1_P15_Little et al._2015_AMJ_Professional Image Maintenance How Women Navigate Pregnancy in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="C2239" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2239" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2239" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="inlineStr">
+        <is>
+          <t>Patvardhan, Gioia &amp; Hamilton_2015_AMJ_Weathering a Meta Level Identity Crisis.pdf</t>
+        </is>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>F1_P8_Patvardhan, Gioia &amp; Hamilton_2015_AMJ_Weathering a Meta Level Identity Crisis.png</t>
+        </is>
+      </c>
+      <c r="C2240" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2240" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2240" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="inlineStr">
+        <is>
+          <t>Patvardhan, Gioia &amp; Hamilton_2015_AMJ_Weathering a Meta Level Identity Crisis.pdf</t>
+        </is>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>F1_P20_Patvardhan, Gioia &amp; Hamilton_2015_AMJ_Weathering a Meta Level Identity Crisis.png</t>
+        </is>
+      </c>
+      <c r="C2241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2241" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2241" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="inlineStr">
+        <is>
+          <t>Petrligieri_2015_ASQ_Co-Creating Relationship Repair - pathways to reconstructing destablized organizational identification.pdf</t>
+        </is>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>F1_P10_Petrligieri_2015_ASQ_Co-Creating Relationship Repair - pathways to reconstructing destablized organizational identification.png</t>
+        </is>
+      </c>
+      <c r="C2242" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2242" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2242" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="inlineStr">
+        <is>
+          <t>Reinecke &amp; Ansari_2015_AMJ_When Times Collide - Temporal Brokerage at the Intersection of Markets and Developments.pdf</t>
+        </is>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>F1_P7_Reinecke &amp; Ansari_2015_AMJ_When Times Collide - Temporal Brokerage at the Intersection of Markets and Developments.png</t>
+        </is>
+      </c>
+      <c r="C2243" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2243" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2243" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="inlineStr">
+        <is>
+          <t>Reinecke &amp; Ansari_2015_AMJ_When Times Collide - Temporal Brokerage at the Intersection of Markets and Developments.pdf</t>
+        </is>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>F1_P8_Reinecke &amp; Ansari_2015_AMJ_When Times Collide - Temporal Brokerage at the Intersection of Markets and Developments.png</t>
+        </is>
+      </c>
+      <c r="C2244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2244" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2244" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="inlineStr">
+        <is>
+          <t>Smets, Jarzabkowski, Burke &amp; Spee_2015_AMJ_Reinsurance Trading in Lloyd's of London.pdf</t>
+        </is>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>F1_P30_Smets, Jarzabkowski, Burke &amp; Spee_2015_AMJ_Reinsurance Trading in Lloyd's of London.png</t>
+        </is>
+      </c>
+      <c r="C2245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2245" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2245" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="inlineStr">
+        <is>
+          <t>Smets, Jarzabkowski, Burke &amp; Spee_2015_AMJ_Reinsurance Trading in Lloyd's of London.pdf</t>
+        </is>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>F1_P28_Smets, Jarzabkowski, Burke &amp; Spee_2015_AMJ_Reinsurance Trading in Lloyd's of London.png</t>
+        </is>
+      </c>
+      <c r="C2246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2246" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2246" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="inlineStr">
+        <is>
+          <t>Srivastava_2015_Org Sci_Intraorganizational Netwrok Dynamics in Times of Ambiguity.pdf</t>
+        </is>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>F1_P3_Srivastava_2015_Org Sci_Intraorganizational Netwrok Dynamics in Times of Ambiguity.png</t>
+        </is>
+      </c>
+      <c r="C2247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2247" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2247" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="inlineStr">
+        <is>
+          <t>Srivastava_2015_Org Sci_Intraorganizational Netwrok Dynamics in Times of Ambiguity.pdf</t>
+        </is>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>F1_P4_Srivastava_2015_Org Sci_Intraorganizational Netwrok Dynamics in Times of Ambiguity.png</t>
+        </is>
+      </c>
+      <c r="C2248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2248" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2248" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="inlineStr">
+        <is>
+          <t>Tan_2015_ASQ_Using Negotiated Joining to Construct and Fill Open Ended Roles in Elite Culinary Groups.pdf</t>
+        </is>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>F1_P19_Tan_2015_ASQ_Using Negotiated Joining to Construct and Fill Open Ended Roles in Elite Culinary Groups.png</t>
+        </is>
+      </c>
+      <c r="C2249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2249" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2249" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="inlineStr">
+        <is>
+          <t>Tasselli_2015_OrgStudies_Social Networks and Interprofessional Knowledge Transfer - the Case of Healthcare Professionals.pdf</t>
+        </is>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>F1_P9_Tasselli_2015_OrgStudies_Social Networks and Interprofessional Knowledge Transfer - the Case of Healthcare Professionals.png</t>
+        </is>
+      </c>
+      <c r="C2250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2250" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2250" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="inlineStr">
+        <is>
+          <t>Tasselli_2015_OrgStudies_Social Networks and Interprofessional Knowledge Transfer - the Case of Healthcare Professionals.pdf</t>
+        </is>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>F1_P16_Tasselli_2015_OrgStudies_Social Networks and Interprofessional Knowledge Transfer - the Case of Healthcare Professionals.png</t>
+        </is>
+      </c>
+      <c r="C2251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2251" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2251" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252" t="inlineStr">
+        <is>
+          <t>Truelove &amp; Kellogg_2015_ASQ_The Radical Flank Effect and Cross-occupational Collaboration for Technology Development during a Power Shift.pdf</t>
+        </is>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>F1_P32_Truelove &amp; Kellogg_2015_ASQ_The Radical Flank Effect and Cross-occupational Collaboration for Technology Development during a Power Shift.png</t>
+        </is>
+      </c>
+      <c r="C2252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2252" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2252" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" t="inlineStr">
+        <is>
+          <t>Whittle, Housley, Gilchrist, Mueller &amp; Lenney_2015_HR_Category Predication Work.pdf</t>
+        </is>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>F1_P11_Whittle, Housley, Gilchrist, Mueller &amp; Lenney_2015_HR_Category Predication Work.png</t>
+        </is>
+      </c>
+      <c r="C2253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2253" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2253" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" t="inlineStr">
+        <is>
+          <t>Whittle, Housley, Gilchrist, Mueller &amp; Lenney_2015_HR_Category Predication Work.pdf</t>
+        </is>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>F1_P14_Whittle, Housley, Gilchrist, Mueller &amp; Lenney_2015_HR_Category Predication Work.png</t>
+        </is>
+      </c>
+      <c r="C2254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2254" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2254" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" t="inlineStr">
+        <is>
+          <t>Whittle, Housley, Gilchrist, Mueller &amp; Lenney_2015_HR_Category Predication Work.pdf</t>
+        </is>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>F1_P15_Whittle, Housley, Gilchrist, Mueller &amp; Lenney_2015_HR_Category Predication Work.png</t>
+        </is>
+      </c>
+      <c r="C2255" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2255" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2255" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" t="inlineStr">
+        <is>
+          <t>Whittle, Housley, Gilchrist, Mueller &amp; Lenney_2015_HR_Category Predication Work.pdf</t>
+        </is>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>F1_P18_Whittle, Housley, Gilchrist, Mueller &amp; Lenney_2015_HR_Category Predication Work.png</t>
+        </is>
+      </c>
+      <c r="C2256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2256" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2256" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" t="inlineStr">
+        <is>
+          <t>Whittle, Housley, Gilchrist, Mueller &amp; Lenney_2015_HR_Category Predication Work.pdf</t>
+        </is>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>F1_P19_Whittle, Housley, Gilchrist, Mueller &amp; Lenney_2015_HR_Category Predication Work.png</t>
+        </is>
+      </c>
+      <c r="C2257" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2257" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2257" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258" t="inlineStr">
+        <is>
+          <t>Whittle, Housley, Gilchrist, Mueller &amp; Lenney_2015_HR_Category Predication Work.pdf</t>
+        </is>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>F1_P22_Whittle, Housley, Gilchrist, Mueller &amp; Lenney_2015_HR_Category Predication Work.png</t>
+        </is>
+      </c>
+      <c r="C2258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2258" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E2258" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259" t="inlineStr">
+        <is>
+          <t>Banks et al._2016_AMJ_Management's Science Practice Gap.pdf</t>
+        </is>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>F1_P10_Banks et al._2016_AMJ_Management's Science Practice Gap.png</t>
+        </is>
+      </c>
+      <c r="C2259" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2259" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2259" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260" t="inlineStr">
+        <is>
+          <t>Banks et al._2016_AMJ_Management's Science Practice Gap.pdf</t>
+        </is>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>F1_P15_Banks et al._2016_AMJ_Management's Science Practice Gap.png</t>
+        </is>
+      </c>
+      <c r="C2260" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2260" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2260" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261" t="inlineStr">
+        <is>
+          <t>Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.pdf</t>
+        </is>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>F1_P13_Dalpiaz et al._2016_ASQ_Combining Logic to Transform Organizational Agency.png</t>
+        </is>
+      </c>
+      <c r="C2261" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2261" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2261" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="inlineStr">
+        <is>
+          <t>Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.pdf</t>
+        </is>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>F1_P9_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="C2262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2262" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2262" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263" t="inlineStr">
+        <is>
+          <t>Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.pdf</t>
+        </is>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>F1_P10_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="C2263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2263" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2263" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264" t="inlineStr">
+        <is>
+          <t>Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.pdf</t>
+        </is>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>F1_P15_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="C2264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2264" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2264" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="inlineStr">
+        <is>
+          <t>Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.pdf</t>
+        </is>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>F1_P16_Fremeth, Holburn &amp; Richter_2016_OrgSci_Bridging Qualitative and Quantitative Methods in Organizational Research.png</t>
+        </is>
+      </c>
+      <c r="C2265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2265" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2265" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="inlineStr">
+        <is>
+          <t>Hennekam_2016_HR_Identity Transition during Pregnancy.pdf</t>
+        </is>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>F1_P16_Hennekam_2016_HR_Identity Transition during Pregnancy.png</t>
+        </is>
+      </c>
+      <c r="C2266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2266" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2266" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267" t="inlineStr">
+        <is>
+          <t>Jarzabkowski &amp; Le_2016_OrgStudies_We Have to do this and that.pdf</t>
+        </is>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>F1_P22_Jarzabkowski &amp; Le_2016_OrgStudies_We Have to do this and that.png</t>
+        </is>
+      </c>
+      <c r="C2267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2267" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2267" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268" t="inlineStr">
+        <is>
+          <t>Jarzabkowski &amp; Le_2016_OrgStudies_We Have to do this and that.pdf</t>
+        </is>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>F1_P23_Jarzabkowski &amp; Le_2016_OrgStudies_We Have to do this and that.png</t>
+        </is>
+      </c>
+      <c r="C2268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2268" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2268" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269" t="inlineStr">
+        <is>
+          <t>Massa_2016_OrgStudies_Guardians of the Internet.pdf</t>
+        </is>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>F1_P16_Massa_2016_OrgStudies_Guardians of the Internet.png</t>
+        </is>
+      </c>
+      <c r="C2269" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2269" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2269" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="inlineStr">
+        <is>
+          <t>Massa_2016_OrgStudies_Guardians of the Internet.pdf</t>
+        </is>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>F1_P17_Massa_2016_OrgStudies_Guardians of the Internet.png</t>
+        </is>
+      </c>
+      <c r="C2270" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2270" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2270" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="inlineStr">
+        <is>
+          <t>Massa_2016_OrgStudies_Guardians of the Internet.pdf</t>
+        </is>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>F1_P22_Massa_2016_OrgStudies_Guardians of the Internet.png</t>
+        </is>
+      </c>
+      <c r="C2271" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2271" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2271" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="inlineStr">
+        <is>
+          <t>Neeley &amp; Dumas_2016_AMJ_Unearned Status Gain Evidence from a Global Language Mandate.pdf</t>
+        </is>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>F1_P7_Neeley &amp; Dumas_2016_AMJ_Unearned Status Gain Evidence from a Global Language Mandate.png</t>
+        </is>
+      </c>
+      <c r="C2272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2272" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2272" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2272" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="inlineStr">
+        <is>
+          <t>Risi_2016_J Management Studies_ Reconsidering the  Symmetry  Between Institutionalization and Professionalization  The.pdf</t>
+        </is>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>F1_P19_Risi_2016_J Management Studies_ Reconsidering the  Symmetry  Between Institutionalization and Professionalization  The.png</t>
+        </is>
+      </c>
+      <c r="C2273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2273" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2273" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="inlineStr">
+        <is>
+          <t>Rouse_2016_AMJ_Beginning's End How Founders Psychologically disengage from their Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>F1_P7_Rouse_2016_AMJ_Beginning's End How Founders Psychologically disengage from their Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2274" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2274" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2274" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2274" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="inlineStr">
+        <is>
+          <t>Sadler-Smith+2016_HR_What Happens when you Intuit.pdf</t>
+        </is>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>F1_P6_Sadler-Smith+2016_HR_What Happens when you Intuit.png</t>
+        </is>
+      </c>
+      <c r="C2275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2275" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2275" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2275" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t>Sele &amp; Grand_2016_OrgSci_Unpacking the Dynamics of Ecologies of Routines.pdf</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>F1_P6_Sele &amp; Grand_2016_OrgSci_Unpacking the Dynamics of Ecologies of Routines.png</t>
+        </is>
+      </c>
+      <c r="C2276" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2276" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2276" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2276" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t>Tracey &amp; Phillips_2016_AMJ_Managing the Consequences of Organizational Stigmatization.pdf</t>
+        </is>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>F1_P6_Tracey &amp; Phillips_2016_AMJ_Managing the Consequences of Organizational Stigmatization.png</t>
+        </is>
+      </c>
+      <c r="C2277" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2277" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2277" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2277" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>Tracey &amp; Phillips_2016_AMJ_Managing the Consequences of Organizational Stigmatization.pdf</t>
+        </is>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>F1_P17_Tracey &amp; Phillips_2016_AMJ_Managing the Consequences of Organizational Stigmatization.png</t>
+        </is>
+      </c>
+      <c r="C2278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2278" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2278" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2278" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>Tracey_2016_OrgSci_Spreading the Word.pdf</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>F1_P16_Tracey_2016_OrgSci_Spreading the Word.png</t>
+        </is>
+      </c>
+      <c r="C2279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2279" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2279" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2279" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>Whittle, Mueller, Gilchrist &amp; Lenney_2016_OrgStudies_Sensemaking Sense-Censoring and Strategic Inaction.pdf</t>
+        </is>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>F1_P14_Whittle, Mueller, Gilchrist &amp; Lenney_2016_OrgStudies_Sensemaking Sense-Censoring and Strategic Inaction.png</t>
+        </is>
+      </c>
+      <c r="C2280" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2280" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2280" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2280" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>York, Hargrave &amp; Pacheco_2016_AMJ_Converging Winds.pdf</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>F1_P10_York, Hargrave &amp; Pacheco_2016_AMJ_Converging Winds.png</t>
+        </is>
+      </c>
+      <c r="C2281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2281" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2281" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2281" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t>York, Hargrave &amp; Pacheco_2016_AMJ_Converging Winds.pdf</t>
+        </is>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>F1_P11_York, Hargrave &amp; Pacheco_2016_AMJ_Converging Winds.png</t>
+        </is>
+      </c>
+      <c r="C2282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2282" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2282" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="inlineStr">
+        <is>
+          <t>York_2016_J Management Studies _ Exploring Environmental Entrepreneurship  Identity Coupling  Venture Goals  and.pdf</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>F1_P34_York_2016_J Management Studies _ Exploring Environmental Entrepreneurship  Identity Coupling  Venture Goals  and.png</t>
+        </is>
+      </c>
+      <c r="C2283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2283" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E2283" t="n">
+        <v>35</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2283" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
+++ b/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2283"/>
+  <dimension ref="A1:G2433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62084,6 +62084,4056 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2284">
+      <c r="A2284" t="inlineStr">
+        <is>
+          <t>Busch et al._2017_HR_Evaluation of an Organizational Health Intervention for Low-Skilled workers and Immigrants.pdf</t>
+        </is>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>F1_P6_Busch et al._2017_HR_Evaluation of an Organizational Health Intervention for Low-Skilled workers and Immigrants.png</t>
+        </is>
+      </c>
+      <c r="C2284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2284" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2284" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="inlineStr">
+        <is>
+          <t>Busch et al._2017_HR_Evaluation of an Organizational Health Intervention for Low-Skilled workers and Immigrants.pdf</t>
+        </is>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>F1_P7_Busch et al._2017_HR_Evaluation of an Organizational Health Intervention for Low-Skilled workers and Immigrants.png</t>
+        </is>
+      </c>
+      <c r="C2285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2285" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2285" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="inlineStr">
+        <is>
+          <t>Comi &amp; White_2017_OrgStudies_Future Making and Visual Artefacts.pdf</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>F1_P16_Comi &amp; White_2017_OrgStudies_Future Making and Visual Artefacts.png</t>
+        </is>
+      </c>
+      <c r="C2286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2286" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2286" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="inlineStr">
+        <is>
+          <t>Fan &amp; Zietsma_2017_AMJ_Constructing a Shared Governance Logic The Role of Emotions in Enabling Dually Embedded Agency.pdf</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>F1_P21_Fan &amp; Zietsma_2017_AMJ_Constructing a Shared Governance Logic The Role of Emotions in Enabling Dually Embedded Agency.png</t>
+        </is>
+      </c>
+      <c r="C2287" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2287" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2287" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="inlineStr">
+        <is>
+          <t>Fortwengel_2017_OrgSci_Practice Transfer in Organizations The Role of Governance.pdf</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>F1_P15_Fortwengel_2017_OrgSci_Practice Transfer in Organizations The Role of Governance.png</t>
+        </is>
+      </c>
+      <c r="C2288" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2288" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2288" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr">
+        <is>
+          <t>Fortwengel_2017_OrgSci_Practice Transfer in Organizations The Role of Governance.pdf</t>
+        </is>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>F1_P18_Fortwengel_2017_OrgSci_Practice Transfer in Organizations The Role of Governance.png</t>
+        </is>
+      </c>
+      <c r="C2289" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2289" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2289" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="inlineStr">
+        <is>
+          <t>Garg &amp; Eisenhardt_2017_AMJ_Unpacking the CEO-Board Relationship.pdf</t>
+        </is>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>F1_P23_Garg &amp; Eisenhardt_2017_AMJ_Unpacking the CEO-Board Relationship.png</t>
+        </is>
+      </c>
+      <c r="C2290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2290" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2290" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="inlineStr">
+        <is>
+          <t>Grodal &amp; O'Mahony_2017_AMJ_How Does a Grand Challenge Become Displaced.pdf</t>
+        </is>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>F1_P7_Grodal &amp; O'Mahony_2017_AMJ_How Does a Grand Challenge Become Displaced.png</t>
+        </is>
+      </c>
+      <c r="C2291" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2291" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2291" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="inlineStr">
+        <is>
+          <t>Hajro, Gibson &amp; Pudelko_2017_AMJ_Knowledge Exchange Processes in Multicultural Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>F1_P19_Hajro, Gibson &amp; Pudelko_2017_AMJ_Knowledge Exchange Processes in Multicultural Teams.png</t>
+        </is>
+      </c>
+      <c r="C2292" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2292" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2292" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="inlineStr">
+        <is>
+          <t>Heaphy_2017_AMJ_Dancing on Hot Coals.pdf</t>
+        </is>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>F1_P20_Heaphy_2017_AMJ_Dancing on Hot Coals.png</t>
+        </is>
+      </c>
+      <c r="C2293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2293" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2293" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="inlineStr">
+        <is>
+          <t>Howard-Grenville et al_2017_ASQ_If Chemists Don't Do it Who is Going to</t>
+        </is>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>F1_P23_Howard-Grenville et al_2017_ASQ_If Chemists Don't Do it Who is Going to.png</t>
+        </is>
+      </c>
+      <c r="C2294" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2294" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2294" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t>Kyratsis et al._2017_AMJ_Health Systems in Transition.pdf</t>
+        </is>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>F1_P9_Kyratsis et al._2017_AMJ_Health Systems in Transition.png</t>
+        </is>
+      </c>
+      <c r="C2295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2295" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2295" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="inlineStr">
+        <is>
+          <t>Lewellyn &amp; Fainschmidt_2017_OrgStudies_Effectiveness of CEO Power Bundles and Discretion Context.pdf</t>
+        </is>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>F1_P15_Lewellyn &amp; Fainschmidt_2017_OrgStudies_Effectiveness of CEO Power Bundles and Discretion Context.png</t>
+        </is>
+      </c>
+      <c r="C2296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2296" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2296" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="inlineStr">
+        <is>
+          <t>Massa, Helms, Voronov &amp; Wang_2017_AMJ_Emotions Uncorked.pdf</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>F1_P5_Massa, Helms, Voronov &amp; Wang_2017_AMJ_Emotions Uncorked.png</t>
+        </is>
+      </c>
+      <c r="C2297" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2297" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2297" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="inlineStr">
+        <is>
+          <t>Massa, Helms, Voronov &amp; Wang_2017_AMJ_Emotions Uncorked.pdf</t>
+        </is>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>F1_P27_Massa, Helms, Voronov &amp; Wang_2017_AMJ_Emotions Uncorked.png</t>
+        </is>
+      </c>
+      <c r="C2298" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2298" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2298" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="inlineStr">
+        <is>
+          <t>Muller_2017_OrgStudies_Brand centred control - a study of internal branding and normative control.pdf</t>
+        </is>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>F1_P8_Muller_2017_OrgStudies_Brand centred control - a study of internal branding and normative control.png</t>
+        </is>
+      </c>
+      <c r="C2299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2299" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2299" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="inlineStr">
+        <is>
+          <t>O'Neill &amp; Rothbard_2017_AMJ_Is Love All you Need.pdf</t>
+        </is>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>F1_P21_O'Neill &amp; Rothbard_2017_AMJ_Is Love All you Need.png</t>
+        </is>
+      </c>
+      <c r="C2300" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2300" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2300" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="inlineStr">
+        <is>
+          <t>Obodaru_AMJ_2017_Forgone but not Forgotten Toward a Theory of Forgone Professional Identities.pdf</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>F1_P8_Obodaru_AMJ_2017_Forgone but not Forgotten Toward a Theory of Forgone Professional Identities.png</t>
+        </is>
+      </c>
+      <c r="C2301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2301" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2301" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="inlineStr">
+        <is>
+          <t>Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.pdf</t>
+        </is>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>F1_P8_Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.png</t>
+        </is>
+      </c>
+      <c r="C2302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2302" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2302" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="inlineStr">
+        <is>
+          <t>Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.pdf</t>
+        </is>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>F1_P9_Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.png</t>
+        </is>
+      </c>
+      <c r="C2303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2303" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2303" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="inlineStr">
+        <is>
+          <t>Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.pdf</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>F1_P13_Oliveira &amp; Lumineau_2017_OrgSci_How Coordination Trajectories Influence the Performance of Interorganizational Project Networks.png</t>
+        </is>
+      </c>
+      <c r="C2304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2304" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2304" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="inlineStr">
+        <is>
+          <t>Pine &amp; Mazmanian_2017_AMJ_Artful and Contorted Coordinating.pdf</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>F1_P16_Pine &amp; Mazmanian_2017_AMJ_Artful and Contorted Coordinating.png</t>
+        </is>
+      </c>
+      <c r="C2305" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2305" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2305" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="inlineStr">
+        <is>
+          <t>Shymko &amp; Roulet_2017_AMJ_Where does Medici Hurt Da Vinci.pdf</t>
+        </is>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>F1_P21_Shymko &amp; Roulet_2017_AMJ_Where does Medici Hurt Da Vinci.png</t>
+        </is>
+      </c>
+      <c r="C2306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2306" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2306" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2306" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="inlineStr">
+        <is>
+          <t>Sonenshein et al._2017_ASQ_Competition of a Different Flavor - How a Strategic Group Identity Shapes Competition and Cooperation.pdf</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>F1_P7_Sonenshein et al._2017_ASQ_Competition of a Different Flavor - How a Strategic Group Identity Shapes Competition and Cooperation.png</t>
+        </is>
+      </c>
+      <c r="C2307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2307" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2307" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="inlineStr">
+        <is>
+          <t>Stewart et al._2017_AMJ_Those with the Most Find it Hardest to Share.pdf</t>
+        </is>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>F1_P9_Stewart et al._2017_AMJ_Those with the Most Find it Hardest to Share.png</t>
+        </is>
+      </c>
+      <c r="C2308" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2308" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2308" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="inlineStr">
+        <is>
+          <t>Vough, Bindl &amp; Parker_2017_HR_Proactivity Routines - The Role of Social Processes in how Employees Self-Initiate Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>F1_P9_Vough, Bindl &amp; Parker_2017_HR_Proactivity Routines - The Role of Social Processes in how Employees Self-Initiate Change.png</t>
+        </is>
+      </c>
+      <c r="C2309" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2309" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2309" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="inlineStr">
+        <is>
+          <t>Vough, Bindl &amp; Parker_2017_HR_Proactivity Routines - The Role of Social Processes in how Employees Self-Initiate Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>F1_P15_Vough, Bindl &amp; Parker_2017_HR_Proactivity Routines - The Role of Social Processes in how Employees Self-Initiate Change.png</t>
+        </is>
+      </c>
+      <c r="C2310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2310" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2310" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="inlineStr">
+        <is>
+          <t>Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.pdf</t>
+        </is>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>F1_P5_Wiedner, Barrett &amp; Oborn_2017_AMJ_The Emergence of Change in Unexpected Places.png</t>
+        </is>
+      </c>
+      <c r="C2311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2311" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2311" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="inlineStr">
+        <is>
+          <t>Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.pdf</t>
+        </is>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>F1_P10_Wright &amp; Nyberg_2017_AMJ_An Inconvenient Truth.png</t>
+        </is>
+      </c>
+      <c r="C2312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2312" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2312" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="inlineStr">
+        <is>
+          <t>Wright, Zammuto &amp; Liesch_2017_AMJ_Maintaining the Values of a Profession.pdf</t>
+        </is>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>F1_P29_Wright, Zammuto &amp; Liesch_2017_AMJ_Maintaining the Values of a Profession.png</t>
+        </is>
+      </c>
+      <c r="C2313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2313" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2313" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="inlineStr">
+        <is>
+          <t>Wright, Zammuto &amp; Liesch_2017_AMJ_Maintaining the Values of a Profession.pdf</t>
+        </is>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>F1_P31_Wright, Zammuto &amp; Liesch_2017_AMJ_Maintaining the Values of a Profession.png</t>
+        </is>
+      </c>
+      <c r="C2314" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2314" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2314" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="inlineStr">
+        <is>
+          <t>Wright, Zammuto &amp; Liesch_2017_AMJ_Maintaining the Values of a Profession.pdf</t>
+        </is>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>F1_P32_Wright, Zammuto &amp; Liesch_2017_AMJ_Maintaining the Values of a Profession.png</t>
+        </is>
+      </c>
+      <c r="C2315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2315" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E2315" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>F1_P11_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C2316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2316" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2316" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>F1_P12_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C2317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2317" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2317" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>F1_P14_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C2318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2318" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2318" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>F1_P15_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C2319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2319" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2319" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>F1_P22_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C2320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2320" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2320" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="inlineStr">
+        <is>
+          <t>Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.pdf</t>
+        </is>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>F1_P23_Aristidou &amp; Barrett_AMJ_2018_Coordinating Service Provision in Dynamic Service Settings.png</t>
+        </is>
+      </c>
+      <c r="C2321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2321" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2321" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="inlineStr">
+        <is>
+          <t>Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.pdf</t>
+        </is>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>F1_P10_Barker Caza et al._2018_ASQ_From Synchronizing to Harmonizing - The Process of Authenticating Multiple Work Identities.png</t>
+        </is>
+      </c>
+      <c r="C2322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2322" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2322" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="inlineStr">
+        <is>
+          <t>Bruning &amp; Campion_2018_AMJ_Role Resource Approach Avoidance Model of Job Crafting.pdf</t>
+        </is>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>F1_P10_Bruning &amp; Campion_2018_AMJ_Role Resource Approach Avoidance Model of Job Crafting.png</t>
+        </is>
+      </c>
+      <c r="C2323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2323" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2323" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="inlineStr">
+        <is>
+          <t>Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.pdf</t>
+        </is>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>F1_P17_Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.png</t>
+        </is>
+      </c>
+      <c r="C2324" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2324" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2324" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="inlineStr">
+        <is>
+          <t>Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.pdf</t>
+        </is>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>F1_P23_Dittrich &amp; Seidl_2018_AMJ_Emerging Intentionality in Routine Dynamics.png</t>
+        </is>
+      </c>
+      <c r="C2325" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2325" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2325" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>Dwivedi, Joshi &amp; Misangyi_2018_AMJ_Gender Inclusive Gatekeeping.pdf</t>
+        </is>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>F1_P20_Dwivedi, Joshi &amp; Misangyi_2018_AMJ_Gender Inclusive Gatekeeping.png</t>
+        </is>
+      </c>
+      <c r="C2326" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2326" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2326" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="inlineStr">
+        <is>
+          <t>Dwivedi, Joshi &amp; Misangyi_2018_AMJ_Gender Inclusive Gatekeeping.pdf</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>F1_P21_Dwivedi, Joshi &amp; Misangyi_2018_AMJ_Gender Inclusive Gatekeeping.png</t>
+        </is>
+      </c>
+      <c r="C2327" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2327" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2327" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.pdf</t>
+        </is>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>F1_P14_Ferraro &amp; Beunza_2018_OrgSci_Creating Common Ground A Communicative Action Model of Dialogue in Shareholder Engagement.png</t>
+        </is>
+      </c>
+      <c r="C2328" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2328" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2328" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>F1_P3_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C2329" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2329" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2329" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>F1_P4_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C2330" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2330" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2330" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="inlineStr">
+        <is>
+          <t>Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.pdf</t>
+        </is>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>F1_P5_Fisher, Pillemer &amp; Amabile_2018_Deep Help in Complex Project Work.png</t>
+        </is>
+      </c>
+      <c r="C2331" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2331" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2331" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="inlineStr">
+        <is>
+          <t>Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.pdf</t>
+        </is>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>F1_P7_Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.png</t>
+        </is>
+      </c>
+      <c r="C2332" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2332" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2332" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="inlineStr">
+        <is>
+          <t>Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.pdf</t>
+        </is>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>F1_P10_Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.png</t>
+        </is>
+      </c>
+      <c r="C2333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2333" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2333" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="inlineStr">
+        <is>
+          <t>Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.pdf</t>
+        </is>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>F1_P11_Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.png</t>
+        </is>
+      </c>
+      <c r="C2334" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2334" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2334" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="inlineStr">
+        <is>
+          <t>Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.pdf</t>
+        </is>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>F1_P15_Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.png</t>
+        </is>
+      </c>
+      <c r="C2335" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2335" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2335" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="inlineStr">
+        <is>
+          <t>Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.pdf</t>
+        </is>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>F1_P17_Florian_2018_J Management Studies_Struggling with Meaningfulness when Context Shifts  Volunteer Work in a German.png</t>
+        </is>
+      </c>
+      <c r="C2336" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2336" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2336" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="inlineStr">
+        <is>
+          <t>Follmer et al._2018_AMJ_Resolution, Relief and Resignation.pdf</t>
+        </is>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>F1_P3_Follmer et al._2018_AMJ_Resolution, Relief and Resignation.png</t>
+        </is>
+      </c>
+      <c r="C2337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2337" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2337" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>F1_P30_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C2338" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2338" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2338" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="inlineStr">
+        <is>
+          <t>Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.pdf</t>
+        </is>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>F1_P31_Kammerlander_2018_J Management Studies _ Why Do Incumbents Respond Heterogeneously to Disruptive Innovations  The.png</t>
+        </is>
+      </c>
+      <c r="C2339" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2339" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2339" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="inlineStr">
+        <is>
+          <t>Lee, Ramus &amp; Vaccaro_2018_AMJ_From Protest to Product.pdf</t>
+        </is>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>F1_P11_Lee, Ramus &amp; Vaccaro_2018_AMJ_From Protest to Product.png</t>
+        </is>
+      </c>
+      <c r="C2340" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2340" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2340" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="inlineStr">
+        <is>
+          <t>Maslach et al._2018_OrgSci_Noise as Signal in Learning from Rare Events.pdf</t>
+        </is>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>F1_P14_Maslach et al._2018_OrgSci_Noise as Signal in Learning from Rare Events.png</t>
+        </is>
+      </c>
+      <c r="C2341" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2341" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2341" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="inlineStr">
+        <is>
+          <t>Mazmanian &amp; Beckman_2018_OrgSci_Making Your Numbers - Engendering Organizational Control Through a Ritual of Quantification.pdf</t>
+        </is>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>F1_P11_Mazmanian &amp; Beckman_2018_OrgSci_Making Your Numbers - Engendering Organizational Control Through a Ritual of Quantification.png</t>
+        </is>
+      </c>
+      <c r="C2342" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2342" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2342" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="inlineStr">
+        <is>
+          <t>Mazmanian &amp; Beckman_2018_OrgSci_Making Your Numbers - Engendering Organizational Control Through a Ritual of Quantification.pdf</t>
+        </is>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>F1_P17_Mazmanian &amp; Beckman_2018_OrgSci_Making Your Numbers - Engendering Organizational Control Through a Ritual of Quantification.png</t>
+        </is>
+      </c>
+      <c r="C2343" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2343" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2343" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="inlineStr">
+        <is>
+          <t>Mellewigt, Hoetker &amp; Lutkewitte_2018_OrgSci_Avoiding High Opportunism is Easy.pdf</t>
+        </is>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>F1_P13_Mellewigt, Hoetker &amp; Lutkewitte_2018_OrgSci_Avoiding High Opportunism is Easy.png</t>
+        </is>
+      </c>
+      <c r="C2344" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2344" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2344" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="inlineStr">
+        <is>
+          <t>Pazzaglia et al._2018_HR_Keeping up with the Joneses.pdf</t>
+        </is>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>F1_P8_Pazzaglia et al._2018_HR_Keeping up with the Joneses.png</t>
+        </is>
+      </c>
+      <c r="C2345" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2345" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2345" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="inlineStr">
+        <is>
+          <t>Ranganathan_2018_ASQ_Train them to Retain Them.pdf</t>
+        </is>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>F1_P15_Ranganathan_2018_ASQ_Train them to Retain Them.png</t>
+        </is>
+      </c>
+      <c r="C2346" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2346" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2346" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="inlineStr">
+        <is>
+          <t>Reinecke_2018_OrgStudies_Social Movements and Prefigurative Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>F1_P15_Reinecke_2018_OrgStudies_Social Movements and Prefigurative Organizing.png</t>
+        </is>
+      </c>
+      <c r="C2347" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2347" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2347" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="inlineStr">
+        <is>
+          <t>Reinecke_2018_OrgStudies_Social Movements and Prefigurative Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>F1_P16_Reinecke_2018_OrgStudies_Social Movements and Prefigurative Organizing.png</t>
+        </is>
+      </c>
+      <c r="C2348" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2348" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2348" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="inlineStr">
+        <is>
+          <t>Schepker et al_2018_AMJ_Planning for Future Leadership.pdf</t>
+        </is>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>F1_P3_Schepker et al_2018_AMJ_Planning for Future Leadership.png</t>
+        </is>
+      </c>
+      <c r="C2349" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2349" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2349" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="inlineStr">
+        <is>
+          <t>Soundararajan, Khan &amp; Tarba_2018_HR_Beyond Brokering.pdf</t>
+        </is>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>F1_P13_Soundararajan, Khan &amp; Tarba_2018_HR_Beyond Brokering.png</t>
+        </is>
+      </c>
+      <c r="C2350" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2350" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2350" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="inlineStr">
+        <is>
+          <t>Spektor et al._2018_AMJ_Microfoundations of Organizational Paradox The Problem is How we Think about the Problem.pdf</t>
+        </is>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>F1_P11_Spektor et al._2018_AMJ_Microfoundations of Organizational Paradox The Problem is How we Think about the Problem.png</t>
+        </is>
+      </c>
+      <c r="C2351" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2351" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2351" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="inlineStr">
+        <is>
+          <t>Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.pdf</t>
+        </is>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>F1_P8_Aadland, Cattani &amp; Ferriani_2019_AMJ_Friends, Gifts and Cliques.png</t>
+        </is>
+      </c>
+      <c r="C2352" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2352" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2352" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="inlineStr">
+        <is>
+          <t>Bindl_2019_HR_Work Related Productivity through the Lens of Narrative.pdf</t>
+        </is>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>F1_P18_Bindl_2019_HR_Work Related Productivity through the Lens of Narrative.png</t>
+        </is>
+      </c>
+      <c r="C2353" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2353" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2353" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="inlineStr">
+        <is>
+          <t>Christianson_2019_ASQ_More and Less Effective Updating- The Role of Trajectory Management in Making Sense Again.pdf</t>
+        </is>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>F1_P16_Christianson_2019_ASQ_More and Less Effective Updating- The Role of Trajectory Management in Making Sense Again.png</t>
+        </is>
+      </c>
+      <c r="C2354" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2354" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2354" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355" t="inlineStr">
+        <is>
+          <t>Christianson_2019_ASQ_More and Less Effective Updating- The Role of Trajectory Management in Making Sense Again.pdf</t>
+        </is>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>F1_P17_Christianson_2019_ASQ_More and Less Effective Updating- The Role of Trajectory Management in Making Sense Again.png</t>
+        </is>
+      </c>
+      <c r="C2355" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2355" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2355" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356" t="inlineStr">
+        <is>
+          <t>Cunliffe &amp; Locke_2019_OrgStudies_Working with differences in everyday interactions through anticipational fluidity.pdf</t>
+        </is>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>F1_P9_Cunliffe &amp; Locke_2019_OrgStudies_Working with differences in everyday interactions through anticipational fluidity.png</t>
+        </is>
+      </c>
+      <c r="C2356" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2356" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2356" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2356" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="inlineStr">
+        <is>
+          <t>Dahm et al._2019_AMJ_Identity Affirmation as Threat.pdf</t>
+        </is>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>F1_P8_Dahm et al._2019_AMJ_Identity Affirmation as Threat.png</t>
+        </is>
+      </c>
+      <c r="C2357" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2357" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2357" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2357" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="inlineStr">
+        <is>
+          <t>Fernando &amp; Prasad_2019_HR_Sex Based Harrassment and Organizational Silencing.pdf</t>
+        </is>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>F1_P9_Fernando &amp; Prasad_2019_HR_Sex Based Harrassment and Organizational Silencing.png</t>
+        </is>
+      </c>
+      <c r="C2358" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2358" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2358" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2358" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359" t="inlineStr">
+        <is>
+          <t>Gatrell_2019_OrgStudies_Boundary Creatures - Employed breastfeeding Mothers and abjection as practice.pdf</t>
+        </is>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>F1_P10_Gatrell_2019_OrgStudies_Boundary Creatures - Employed breastfeeding Mothers and abjection as practice.png</t>
+        </is>
+      </c>
+      <c r="C2359" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2359" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2359" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2359" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360" t="inlineStr">
+        <is>
+          <t>Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.pdf</t>
+        </is>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>F1_P11_Giorgi et al._2019_OrgSci_On the Relationship Between Firms and Their Legal Environment - The Role of Cultural Consonance.png</t>
+        </is>
+      </c>
+      <c r="C2360" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2360" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2360" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2360" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361" t="inlineStr">
+        <is>
+          <t>Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.pdf</t>
+        </is>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>F1_P10_Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.png</t>
+        </is>
+      </c>
+      <c r="C2361" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2361" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2361" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2361" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="inlineStr">
+        <is>
+          <t>Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.pdf</t>
+        </is>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>F1_P11_Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.png</t>
+        </is>
+      </c>
+      <c r="C2362" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2362" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2362" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2362" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="inlineStr">
+        <is>
+          <t>Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.pdf</t>
+        </is>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>F1_P12_Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.png</t>
+        </is>
+      </c>
+      <c r="C2363" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2363" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2363" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2363" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364" t="inlineStr">
+        <is>
+          <t>Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.pdf</t>
+        </is>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>F1_P13_Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.png</t>
+        </is>
+      </c>
+      <c r="C2364" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2364" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2364" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2364" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365" t="inlineStr">
+        <is>
+          <t>Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.pdf</t>
+        </is>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>F1_P14_Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.png</t>
+        </is>
+      </c>
+      <c r="C2365" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2365" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2365" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2365" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366" t="inlineStr">
+        <is>
+          <t>Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.pdf</t>
+        </is>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>F1_P15_Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.png</t>
+        </is>
+      </c>
+      <c r="C2366" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2366" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2366" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2366" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367" t="inlineStr">
+        <is>
+          <t>Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.pdf</t>
+        </is>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>F1_P17_Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.png</t>
+        </is>
+      </c>
+      <c r="C2367" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2367" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2367" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2367" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368" t="inlineStr">
+        <is>
+          <t>Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.pdf</t>
+        </is>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>F1_P18_Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.png</t>
+        </is>
+      </c>
+      <c r="C2368" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2368" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2368" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2368" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369" t="inlineStr">
+        <is>
+          <t>Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.pdf</t>
+        </is>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>F1_P19_Glimmerveen, Ybema &amp; Nies_2019_HR_Engaged Yet Excluded.png</t>
+        </is>
+      </c>
+      <c r="C2369" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2369" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2369" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2369" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370" t="inlineStr">
+        <is>
+          <t>Jansen &amp; Shipp_2019_HR_Fitting as a Temporal Sensemaking Process.pdf</t>
+        </is>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>F1_P12_Jansen &amp; Shipp_2019_HR_Fitting as a Temporal Sensemaking Process.png</t>
+        </is>
+      </c>
+      <c r="C2370" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2370" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2370" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2370" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371" t="inlineStr">
+        <is>
+          <t>Jarzabkowski, Le &amp; Balogun_2019_The Social Practice of Coevolving Strategy and Structure to Realize Mandated Radical Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>F1_P8_Jarzabkowski, Le &amp; Balogun_2019_The Social Practice of Coevolving Strategy and Structure to Realize Mandated Radical Change.png</t>
+        </is>
+      </c>
+      <c r="C2371" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2371" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2371" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2371" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372" t="inlineStr">
+        <is>
+          <t>Jarzabkowski, Le &amp; Balogun_2019_The Social Practice of Coevolving Strategy and Structure to Realize Mandated Radical Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>F1_P19_Jarzabkowski, Le &amp; Balogun_2019_The Social Practice of Coevolving Strategy and Structure to Realize Mandated Radical Change.png</t>
+        </is>
+      </c>
+      <c r="C2372" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2372" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2372" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2372" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373" t="inlineStr">
+        <is>
+          <t>Jarzabkowski, Le &amp; Balogun_2019_The Social Practice of Coevolving Strategy and Structure to Realize Mandated Radical Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>F1_P23_Jarzabkowski, Le &amp; Balogun_2019_The Social Practice of Coevolving Strategy and Structure to Realize Mandated Radical Change.png</t>
+        </is>
+      </c>
+      <c r="C2373" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2373" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2373" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2373" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="inlineStr">
+        <is>
+          <t>Kahn_2019_AMJ_Dynamics and Implications of Distressing Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>F1_P6_Kahn_2019_AMJ_Dynamics and Implications of Distressing Organizing.png</t>
+        </is>
+      </c>
+      <c r="C2374" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2374" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2374" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2374" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375" t="inlineStr">
+        <is>
+          <t>Kellogg_2019_ASQ_Subordinate Activation Tactics - Semi-professionals and Micro-level Institutional Change in Professional Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>F1_P30_Kellogg_2019_ASQ_Subordinate Activation Tactics - Semi-professionals and Micro-level Institutional Change in Professional Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2375" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2375" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2375" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2375" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376" t="inlineStr">
+        <is>
+          <t>Kim, Bansal &amp; Haugh_2019_AMJ_No Time Like the Present - How a Present Time Perspective can Foster Sustainable Development.pdf</t>
+        </is>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>F1_P11_Kim, Bansal &amp; Haugh_2019_AMJ_No Time Like the Present - How a Present Time Perspective can Foster Sustainable Development.png</t>
+        </is>
+      </c>
+      <c r="C2376" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2376" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2376" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2376" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="inlineStr">
+        <is>
+          <t>Lingo &amp; Elmes_2019_OrgStudies_Institutional Preservation Work at A family business in crisis - micro-processes, emotions and nonfamily members.pdf</t>
+        </is>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>F1_P11_Lingo &amp; Elmes_2019_OrgStudies_Institutional Preservation Work at A family business in crisis - micro-processes, emotions and nonfamily members.png</t>
+        </is>
+      </c>
+      <c r="C2377" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2377" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2377" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2377" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="inlineStr">
+        <is>
+          <t>Maher, Valenzuela &amp; Bohm_2019_OrgStudies_The Enduring State - an analysis of goernenace-making in three mining conflicts.pdf</t>
+        </is>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>F1_P7_Maher, Valenzuela &amp; Bohm_2019_OrgStudies_The Enduring State - an analysis of goernenace-making in three mining conflicts.png</t>
+        </is>
+      </c>
+      <c r="C2378" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2378" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2378" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2378" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379" t="inlineStr">
+        <is>
+          <t>Maher, Valenzuela &amp; Bohm_2019_OrgStudies_The Enduring State - an analysis of goernenace-making in three mining conflicts.pdf</t>
+        </is>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>F1_P8_Maher, Valenzuela &amp; Bohm_2019_OrgStudies_The Enduring State - an analysis of goernenace-making in three mining conflicts.png</t>
+        </is>
+      </c>
+      <c r="C2379" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2379" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2379" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2379" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380" t="inlineStr">
+        <is>
+          <t>Pratt et al_2019_ASQ_The Hidden Side of Trust - Supporting and Sustaining Leaps of Faith among Firefighters.pdf</t>
+        </is>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>F1_P24_Pratt et al_2019_ASQ_The Hidden Side of Trust - Supporting and Sustaining Leaps of Faith among Firefighters.png</t>
+        </is>
+      </c>
+      <c r="C2380" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2380" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2380" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2380" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381" t="inlineStr">
+        <is>
+          <t>Sadeh &amp; Zilber_2019_AMJ_Bringing Together - Emotions and Power in Organizational Responses to Institutional Complexity.pdf</t>
+        </is>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>F1_P7_Sadeh &amp; Zilber_2019_AMJ_Bringing Together - Emotions and Power in Organizational Responses to Institutional Complexity.png</t>
+        </is>
+      </c>
+      <c r="C2381" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2381" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2381" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2381" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="inlineStr">
+        <is>
+          <t>Sadeh &amp; Zilber_2019_AMJ_Bringing Together - Emotions and Power in Organizational Responses to Institutional Complexity.pdf</t>
+        </is>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>F1_P15_Sadeh &amp; Zilber_2019_AMJ_Bringing Together - Emotions and Power in Organizational Responses to Institutional Complexity.png</t>
+        </is>
+      </c>
+      <c r="C2382" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2382" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2382" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2382" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="inlineStr">
+        <is>
+          <t>Sadeh &amp; Zilber_2019_AMJ_Bringing Together - Emotions and Power in Organizational Responses to Institutional Complexity.pdf</t>
+        </is>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>F1_P21_Sadeh &amp; Zilber_2019_AMJ_Bringing Together - Emotions and Power in Organizational Responses to Institutional Complexity.png</t>
+        </is>
+      </c>
+      <c r="C2383" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2383" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2383" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2383" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384" t="inlineStr">
+        <is>
+          <t>Sandhu &amp; Kulik_2019_ASQ_Shaping and Being Shaped - How Organizational Structure and Managerial Discretion Co-evolve in New Managerial Roles.pdf</t>
+        </is>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>F1_P13_Sandhu &amp; Kulik_2019_ASQ_Shaping and Being Shaped - How Organizational Structure and Managerial Discretion Co-evolve in New Managerial Roles.png</t>
+        </is>
+      </c>
+      <c r="C2384" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2384" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2384" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2384" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385" t="inlineStr">
+        <is>
+          <t>Sgourev &amp; Operti_2019_AMJ_From Montagues to Capulets Analyzing the Systemic Nature of Rivalry in Career Mobility.pdf</t>
+        </is>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>F1_P9_Sgourev &amp; Operti_2019_AMJ_From Montagues to Capulets Analyzing the Systemic Nature of Rivalry in Career Mobility.png</t>
+        </is>
+      </c>
+      <c r="C2385" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2385" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2385" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2385" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386" t="inlineStr">
+        <is>
+          <t>Ungureanu, Bertolotti, Mattarelli &amp; Bellesia_2019_OrgStudies_Making matters worse by trying to make them better - exploring vicious circles of decision in hybrid partnerships.pdf</t>
+        </is>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>F1_P17_Ungureanu, Bertolotti, Mattarelli &amp; Bellesia_2019_OrgStudies_Making matters worse by trying to make them better - exploring vicious circles of decision in hybrid partnerships.png</t>
+        </is>
+      </c>
+      <c r="C2386" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2386" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2386" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2386" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387" t="inlineStr">
+        <is>
+          <t>Wiedner &amp; Mantere_2019_ASQ_Cutting the Cord - Mutual Respect, Organizational Autonomy and Independence in Organizational Separation Processes.pdf</t>
+        </is>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>F1_P25_Wiedner &amp; Mantere_2019_ASQ_Cutting the Cord - Mutual Respect, Organizational Autonomy and Independence in Organizational Separation Processes.png</t>
+        </is>
+      </c>
+      <c r="C2387" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2387" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2387" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2387" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388" t="inlineStr">
+        <is>
+          <t>Wiedner &amp; Mantere_2019_ASQ_Cutting the Cord - Mutual Respect, Organizational Autonomy and Independence in Organizational Separation Processes.pdf</t>
+        </is>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>F1_P26_Wiedner &amp; Mantere_2019_ASQ_Cutting the Cord - Mutual Respect, Organizational Autonomy and Independence in Organizational Separation Processes.png</t>
+        </is>
+      </c>
+      <c r="C2388" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2388" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2388" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2388" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2389">
+      <c r="A2389" t="inlineStr">
+        <is>
+          <t>Zuzul_2019_AMJ_Matter Battles - Cognitive Representations, Boundary Objects and the Failure of Collaboration in two Smart Cities.pdf</t>
+        </is>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>F1_P6_Zuzul_2019_AMJ_Matter Battles - Cognitive Representations, Boundary Objects and the Failure of Collaboration in two Smart Cities.png</t>
+        </is>
+      </c>
+      <c r="C2389" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2389" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E2389" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2389" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390" t="inlineStr">
+        <is>
+          <t>Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.pdf</t>
+        </is>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>F1_P13_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="C2390" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2390" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2390" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2390" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391" t="inlineStr">
+        <is>
+          <t>Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.pdf</t>
+        </is>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>F1_P24_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="C2391" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2391" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2391" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2391" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392" t="inlineStr">
+        <is>
+          <t>Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.pdf</t>
+        </is>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>F1_P27_Aoki_2020_AMJ_The Roles of Material Artfifacts in Managing the Learning Performance Paradox.png</t>
+        </is>
+      </c>
+      <c r="C2392" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2392" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2392" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2392" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393" t="inlineStr">
+        <is>
+          <t>Bell &amp; Vachhani_2020_OrgStudies_Relational Encounters and Vital Materaility in the Practice of Craft Work.pdf</t>
+        </is>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>F1_P8_Bell &amp; Vachhani_2020_OrgStudies_Relational Encounters and Vital Materaility in the Practice of Craft Work.png</t>
+        </is>
+      </c>
+      <c r="C2393" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2393" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2393" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2393" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394" t="inlineStr">
+        <is>
+          <t>Breuer et al._2020_HR_Trust in Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>F1_P20_Breuer et al._2020_HR_Trust in Teams.png</t>
+        </is>
+      </c>
+      <c r="C2394" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2394" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2394" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2394" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395" t="inlineStr">
+        <is>
+          <t>Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.pdf</t>
+        </is>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>F1_P18_Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="C2395" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2395" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2395" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2395" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396" t="inlineStr">
+        <is>
+          <t>Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.pdf</t>
+        </is>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>F1_P22_Castilla &amp; Ranganathan_2020_OrgSci_The Production of Merit How Managers Understand and Apply Merit in the Workplace.png</t>
+        </is>
+      </c>
+      <c r="C2396" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2396" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2396" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2396" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397" t="inlineStr">
+        <is>
+          <t>Claes &amp; Vissa_2020_OrgSci_Does Social Similary Pay Off.pdf</t>
+        </is>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>F1_P21_Claes &amp; Vissa_2020_OrgSci_Does Social Similary Pay Off.png</t>
+        </is>
+      </c>
+      <c r="C2397" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2397" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2397" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2397" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="inlineStr">
+        <is>
+          <t>Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.pdf</t>
+        </is>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>F1_P7_Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.png</t>
+        </is>
+      </c>
+      <c r="C2398" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2398" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2398" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2398" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="inlineStr">
+        <is>
+          <t>Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.pdf</t>
+        </is>
+      </c>
+      <c r="B2399" t="inlineStr">
+        <is>
+          <t>F1_P14_Claus and Tracey_2020_AMJ_Making Change from Behind a Mask.png</t>
+        </is>
+      </c>
+      <c r="C2399" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2399" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2399" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2399" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="inlineStr">
+        <is>
+          <t>Danbold &amp; Bendersky_2020_OrgSci_Balancing Professional Prototypes Increases the Valuation of Women in Male-Dominated Professions.pdf</t>
+        </is>
+      </c>
+      <c r="B2400" t="inlineStr">
+        <is>
+          <t>F1_P16_Danbold &amp; Bendersky_2020_OrgSci_Balancing Professional Prototypes Increases the Valuation of Women in Male-Dominated Professions.png</t>
+        </is>
+      </c>
+      <c r="C2400" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2400" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2400" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2400" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="inlineStr">
+        <is>
+          <t>DeJordy et al._2020_ASQ_Inhabited Ecosystems - Propelling Transformative Social Change Between and Through Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2401" t="inlineStr">
+        <is>
+          <t>F1_P18_DeJordy et al._2020_ASQ_Inhabited Ecosystems - Propelling Transformative Social Change Between and Through Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2401" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2401" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2401" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2401" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="inlineStr">
+        <is>
+          <t>DeJordy et al._2020_ASQ_Inhabited Ecosystems - Propelling Transformative Social Change Between and Through Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2402" t="inlineStr">
+        <is>
+          <t>F1_P24_DeJordy et al._2020_ASQ_Inhabited Ecosystems - Propelling Transformative Social Change Between and Through Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2402" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2402" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2402" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2402" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403" t="inlineStr">
+        <is>
+          <t>Fairhurst et al._2020_HR_Studying Collective Leadership the Road Ahead.pdf</t>
+        </is>
+      </c>
+      <c r="B2403" t="inlineStr">
+        <is>
+          <t>F1_P3_Fairhurst et al._2020_HR_Studying Collective Leadership the Road Ahead.png</t>
+        </is>
+      </c>
+      <c r="C2403" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2403" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2403" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2403" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="inlineStr">
+        <is>
+          <t>Gonsalves_2020_ASQ_From Frace Time to Flex Time.pdf</t>
+        </is>
+      </c>
+      <c r="B2404" t="inlineStr">
+        <is>
+          <t>F1_P14_Gonsalves_2020_ASQ_From Frace Time to Flex Time.png</t>
+        </is>
+      </c>
+      <c r="C2404" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2404" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2404" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2404" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="inlineStr">
+        <is>
+          <t>Gray et al_2020_OrgSci_On the Emergence of Collective Psychological Ownership in New Creative Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B2405" t="inlineStr">
+        <is>
+          <t>F1_P8_Gray et al_2020_OrgSci_On the Emergence of Collective Psychological Ownership in New Creative Teams.png</t>
+        </is>
+      </c>
+      <c r="C2405" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2405" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2405" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2405" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="inlineStr">
+        <is>
+          <t>Gray et al_2020_OrgSci_On the Emergence of Collective Psychological Ownership in New Creative Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B2406" t="inlineStr">
+        <is>
+          <t>F1_P14_Gray et al_2020_OrgSci_On the Emergence of Collective Psychological Ownership in New Creative Teams.png</t>
+        </is>
+      </c>
+      <c r="C2406" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2406" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2406" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2406" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="inlineStr">
+        <is>
+          <t>Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.pdf</t>
+        </is>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>F1_P8_Gumusay, Smets &amp; Morris_2020_AMJ_God At Work - Engaging Central and Incompatible institutional logics.png</t>
+        </is>
+      </c>
+      <c r="C2407" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2407" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2407" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2407" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="inlineStr">
+        <is>
+          <t>Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.pdf</t>
+        </is>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>F1_P5_Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.png</t>
+        </is>
+      </c>
+      <c r="C2408" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2408" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2408" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2408" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409" t="inlineStr">
+        <is>
+          <t>Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.pdf</t>
+        </is>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>F1_P6_Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.png</t>
+        </is>
+      </c>
+      <c r="C2409" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2409" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2409" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2409" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="inlineStr">
+        <is>
+          <t>Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.pdf</t>
+        </is>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>F1_P16_Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.png</t>
+        </is>
+      </c>
+      <c r="C2410" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2410" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2410" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2410" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="inlineStr">
+        <is>
+          <t>Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.pdf</t>
+        </is>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>F1_P17_Gutierrez, Howard-Grenville &amp; Scully_2020_AMJ_The Faithful Rise Up Split Identification and An Unlikely Change Effort.png</t>
+        </is>
+      </c>
+      <c r="C2411" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2411" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2411" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2411" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="inlineStr">
+        <is>
+          <t>Hampel, Tracey &amp; Weber_2020_AMJ_The Art of the Pivot.pdf</t>
+        </is>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>F1_P6_Hampel, Tracey &amp; Weber_2020_AMJ_The Art of the Pivot.png</t>
+        </is>
+      </c>
+      <c r="C2412" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2412" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2412" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2412" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="inlineStr">
+        <is>
+          <t>Hengst et al._2020_AMJ_Toward a Process Theory of Sustainability Strategies Legitimate in Action.pdf</t>
+        </is>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>F1_P18_Hengst et al._2020_AMJ_Toward a Process Theory of Sustainability Strategies Legitimate in Action.png</t>
+        </is>
+      </c>
+      <c r="C2413" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2413" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2413" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2413" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="inlineStr">
+        <is>
+          <t>Hengst et al._2020_AMJ_Toward a Process Theory of Sustainability Strategies Legitimate in Action.pdf</t>
+        </is>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>F1_P19_Hengst et al._2020_AMJ_Toward a Process Theory of Sustainability Strategies Legitimate in Action.png</t>
+        </is>
+      </c>
+      <c r="C2414" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2414" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2414" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2414" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415" t="inlineStr">
+        <is>
+          <t>Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>F1_P10_Karanovi_2020_J Management Studies _ Regulated Dependence  Platform Workers  Responses to New Forms of Organizing.png</t>
+        </is>
+      </c>
+      <c r="C2415" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2415" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2415" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2415" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416" t="inlineStr">
+        <is>
+          <t>Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.pdf</t>
+        </is>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>F1_P13_Lashley &amp; Pollock_2020_ASQ_Waiting to Inhale - Reducing Stigma in the Medical Cannabis Industry.png</t>
+        </is>
+      </c>
+      <c r="C2416" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2416" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2416" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2416" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417" t="inlineStr">
+        <is>
+          <t>Lee, Mazmanian &amp; Perlow_2020_AMJ_Fostering Positive Relational Dynamics.pdf</t>
+        </is>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>F1_P5_Lee, Mazmanian &amp; Perlow_2020_AMJ_Fostering Positive Relational Dynamics.png</t>
+        </is>
+      </c>
+      <c r="C2417" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2417" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2417" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2417" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418" t="inlineStr">
+        <is>
+          <t>Mikkelsen_2020_J Management Studies _ Unconscious Processes of Organizing  Intergroup Conflict in Mental Health Care.pdf</t>
+        </is>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>F1_P21_Mikkelsen_2020_J Management Studies _ Unconscious Processes of Organizing  Intergroup Conflict in Mental Health Care.png</t>
+        </is>
+      </c>
+      <c r="C2418" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2418" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2418" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2418" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419" t="inlineStr">
+        <is>
+          <t>Montgomery &amp; Dacin_2020_AMJ_Water Wars in Detroit.pdf</t>
+        </is>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>F1_P8_Montgomery &amp; Dacin_2020_AMJ_Water Wars in Detroit.png</t>
+        </is>
+      </c>
+      <c r="C2419" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2419" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2419" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2419" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420" t="inlineStr">
+        <is>
+          <t>Padavic et al._2020_ASQ_Explaining the Persistence of Gender Inequality.pdf</t>
+        </is>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>F1_P34_Padavic et al._2020_ASQ_Explaining the Persistence of Gender Inequality.png</t>
+        </is>
+      </c>
+      <c r="C2420" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2420" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2420" t="n">
+        <v>35</v>
+      </c>
+      <c r="F2420" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421" t="inlineStr">
+        <is>
+          <t>Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.pdf</t>
+        </is>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>F1_P10_Palo, Mason &amp; Roscoe_2020_OrgStudies_Performing a Myth to Make a Market - the construction of the magical world of Santa.png</t>
+        </is>
+      </c>
+      <c r="C2421" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2421" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2421" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2421" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422" t="inlineStr">
+        <is>
+          <t>Ram rez‐Pasillas_2020 _ J Management Studies  - Next Generation External Venturing Practices in Family Owned Businesses.pdf</t>
+        </is>
+      </c>
+      <c r="B2422" t="inlineStr">
+        <is>
+          <t>F1_P10_Ram rez‐Pasillas_2020 _ J Management Studies  - Next Generation External Venturing Practices in Family Owned Businesses.png</t>
+        </is>
+      </c>
+      <c r="C2422" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2422" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2422" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2422" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423" t="inlineStr">
+        <is>
+          <t>Ramarajan &amp; Reid_2020_AMJ_Relational Reconciliation Socializing Others Across Demographic Differences.pdf</t>
+        </is>
+      </c>
+      <c r="B2423" t="inlineStr">
+        <is>
+          <t>F1_P7_Ramarajan &amp; Reid_2020_AMJ_Relational Reconciliation Socializing Others Across Demographic Differences.png</t>
+        </is>
+      </c>
+      <c r="C2423" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2423" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2423" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2423" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424" t="inlineStr">
+        <is>
+          <t>Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.pdf</t>
+        </is>
+      </c>
+      <c r="B2424" t="inlineStr">
+        <is>
+          <t>F1_P9_Raynard, Lu &amp; Jing_2020_AMJ_Reinventing the State-Owned Enterprise Negotiating Change during Profound Environmental Upheaval.png</t>
+        </is>
+      </c>
+      <c r="C2424" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2424" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2424" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2424" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425" t="inlineStr">
+        <is>
+          <t>Schinoff, Ashforth &amp; Corley_2020_AMJ_Virtually InSeparable The Centrality of Relational Cadence in the Formation of Virtual Multiplex Relationships.pdf</t>
+        </is>
+      </c>
+      <c r="B2425" t="inlineStr">
+        <is>
+          <t>F1_P5_Schinoff, Ashforth &amp; Corley_2020_AMJ_Virtually InSeparable The Centrality of Relational Cadence in the Formation of Virtual Multiplex Relationships.png</t>
+        </is>
+      </c>
+      <c r="C2425" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2425" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2425" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2425" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426" t="inlineStr">
+        <is>
+          <t>Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.pdf</t>
+        </is>
+      </c>
+      <c r="B2426" t="inlineStr">
+        <is>
+          <t>F1_P10_Shepherd_2020_J Management Studies _ Rallying the Troops and Defending against Sanctions  A Government Body Breaking.png</t>
+        </is>
+      </c>
+      <c r="C2426" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2426" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2426" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2426" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427" t="inlineStr">
+        <is>
+          <t>Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.pdf</t>
+        </is>
+      </c>
+      <c r="B2427" t="inlineStr">
+        <is>
+          <t>F1_P8_Smets, Morris &amp; Gumusay_2020_AMJ_God at Work - Engaging Central and Compatible Institutional Logics.png</t>
+        </is>
+      </c>
+      <c r="C2427" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2427" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2427" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2427" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428" t="inlineStr">
+        <is>
+          <t>Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.pdf</t>
+        </is>
+      </c>
+      <c r="B2428" t="inlineStr">
+        <is>
+          <t>F1_P18_Soderstrom et al._2020_ASQ_Organizational Structure from Interaction.png</t>
+        </is>
+      </c>
+      <c r="C2428" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2428" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2428" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2428" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429" t="inlineStr">
+        <is>
+          <t>Sundermeier _2020_ J Management Studies _Hubristic Start‐up Founders   The Neglected Bright and Inevitable Dark.pdf</t>
+        </is>
+      </c>
+      <c r="B2429" t="inlineStr">
+        <is>
+          <t>F1_P7_Sundermeier _2020_ J Management Studies _Hubristic Start‐up Founders   The Neglected Bright and Inevitable Dark.png</t>
+        </is>
+      </c>
+      <c r="C2429" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2429" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2429" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2429" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430" t="inlineStr">
+        <is>
+          <t>Wei_2020_J Management Studies _Untangling the Integration Performance Link  Levels of Integration and Functional.pdf</t>
+        </is>
+      </c>
+      <c r="B2430" t="inlineStr">
+        <is>
+          <t>F1_P35_Wei_2020_J Management Studies _Untangling the Integration Performance Link  Levels of Integration and Functional.png</t>
+        </is>
+      </c>
+      <c r="C2430" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2430" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2430" t="n">
+        <v>36</v>
+      </c>
+      <c r="F2430" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431" t="inlineStr">
+        <is>
+          <t>Yan_2020_OrgSci_A Double Edged Sword.pdf</t>
+        </is>
+      </c>
+      <c r="B2431" t="inlineStr">
+        <is>
+          <t>F1_P13_Yan_2020_OrgSci_A Double Edged Sword.png</t>
+        </is>
+      </c>
+      <c r="C2431" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2431" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2431" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2431" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432" t="inlineStr">
+        <is>
+          <t>Zhang et al._2020_AMJ_Playing it Safe for my Family.pdf</t>
+        </is>
+      </c>
+      <c r="B2432" t="inlineStr">
+        <is>
+          <t>F1_P7_Zhang et al._2020_AMJ_Playing it Safe for my Family.png</t>
+        </is>
+      </c>
+      <c r="C2432" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2432" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2432" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2432" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433" t="inlineStr">
+        <is>
+          <t>Zuzul &amp; Tripsas_2020_ASQ_Start-Up Intertia versus Flexibility - The Role of Founder Identity in a Nascent Industry.pdf</t>
+        </is>
+      </c>
+      <c r="B2433" t="inlineStr">
+        <is>
+          <t>F1_P6_Zuzul &amp; Tripsas_2020_ASQ_Start-Up Intertia versus Flexibility - The Role of Founder Identity in a Nascent Industry.png</t>
+        </is>
+      </c>
+      <c r="C2433" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2433" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E2433" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2433" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2433" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
+++ b/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2433"/>
+  <dimension ref="A1:G2497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66134,6 +66134,1734 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2434">
+      <c r="A2434" t="inlineStr">
+        <is>
+          <t>Anthony_2021_ASQ_When Knowledge Work and Analytical Technology Collide.pdf</t>
+        </is>
+      </c>
+      <c r="B2434" t="inlineStr">
+        <is>
+          <t>F1_P7_Anthony_2021_ASQ_When Knowledge Work and Analytical Technology Collide.png</t>
+        </is>
+      </c>
+      <c r="C2434" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2434" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2434" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2434" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435" t="inlineStr">
+        <is>
+          <t>Bloom et al._2021_ASQ_Stories of Calling - How Called Professionals Construct Narrative Identities.pdf</t>
+        </is>
+      </c>
+      <c r="B2435" t="inlineStr">
+        <is>
+          <t>F1_P27_Bloom et al._2021_ASQ_Stories of Calling - How Called Professionals Construct Narrative Identities.png</t>
+        </is>
+      </c>
+      <c r="C2435" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2435" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2435" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2435" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436" t="inlineStr">
+        <is>
+          <t>Buchter_2021_ASQ_Escaping the Ellipsis of Diversity.pdf</t>
+        </is>
+      </c>
+      <c r="B2436" t="inlineStr">
+        <is>
+          <t>F1_P23_Buchter_2021_ASQ_Escaping the Ellipsis of Diversity.png</t>
+        </is>
+      </c>
+      <c r="C2436" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2436" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2436" t="n">
+        <v>24</v>
+      </c>
+      <c r="F2436" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437" t="inlineStr">
+        <is>
+          <t>Cardador et al._2021_ASQ_Unpacking the Status Leveling Burden for Women in Male Dominated occupations.pdf</t>
+        </is>
+      </c>
+      <c r="B2437" t="inlineStr">
+        <is>
+          <t>F1_P13_Cardador et al._2021_ASQ_Unpacking the Status Leveling Burden for Women in Male Dominated occupations.png</t>
+        </is>
+      </c>
+      <c r="C2437" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2437" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2437" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2437" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2438">
+      <c r="A2438" t="inlineStr">
+        <is>
+          <t>Cardador et al._2021_ASQ_Unpacking the Status Leveling Burden for Women in Male Dominated occupations.pdf</t>
+        </is>
+      </c>
+      <c r="B2438" t="inlineStr">
+        <is>
+          <t>F1_P19_Cardador et al._2021_ASQ_Unpacking the Status Leveling Burden for Women in Male Dominated occupations.png</t>
+        </is>
+      </c>
+      <c r="C2438" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2438" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2438" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2438" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2439">
+      <c r="A2439" t="inlineStr">
+        <is>
+          <t>Cardador et al._2021_ASQ_Unpacking the Status Leveling Burden for Women in Male Dominated occupations.pdf</t>
+        </is>
+      </c>
+      <c r="B2439" t="inlineStr">
+        <is>
+          <t>F1_P27_Cardador et al._2021_ASQ_Unpacking the Status Leveling Burden for Women in Male Dominated occupations.png</t>
+        </is>
+      </c>
+      <c r="C2439" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2439" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2439" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2439" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2440">
+      <c r="A2440" t="inlineStr">
+        <is>
+          <t>Cardador et al._2021_ASQ_Unpacking the Status Leveling Burden for Women in Male Dominated occupations.pdf</t>
+        </is>
+      </c>
+      <c r="B2440" t="inlineStr">
+        <is>
+          <t>F1_P30_Cardador et al._2021_ASQ_Unpacking the Status Leveling Burden for Women in Male Dominated occupations.png</t>
+        </is>
+      </c>
+      <c r="C2440" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2440" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2440" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2440" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2441">
+      <c r="A2441" t="inlineStr">
+        <is>
+          <t>Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.pdf</t>
+        </is>
+      </c>
+      <c r="B2441" t="inlineStr">
+        <is>
+          <t>F1_P11_Chown_2021_ASQ_The Unfolding of Control Mechanisms inside Organizations - Pathways of Customization and Transmutation.png</t>
+        </is>
+      </c>
+      <c r="C2441" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2441" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2441" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2441" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2442">
+      <c r="A2442" t="inlineStr">
+        <is>
+          <t>Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.pdf</t>
+        </is>
+      </c>
+      <c r="B2442" t="inlineStr">
+        <is>
+          <t>F1_P16_Evans_2021_ASQ_How Professionals Construct Moral Authority - Expanding Boundaries of Expert Authority in Stem Cell Science.png</t>
+        </is>
+      </c>
+      <c r="C2442" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2442" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2442" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2442" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2443">
+      <c r="A2443" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B2443" t="inlineStr">
+        <is>
+          <t>F1_P15_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C2443" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2443" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2443" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2443" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2444">
+      <c r="A2444" t="inlineStr">
+        <is>
+          <t>Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.pdf</t>
+        </is>
+      </c>
+      <c r="B2444" t="inlineStr">
+        <is>
+          <t>F1_P16_Geiger et al._2021_ASQ_Getting Ahead of Time - Performing Temporal Boundaries to Coordinate Routines under Temporal Uncertainty.png</t>
+        </is>
+      </c>
+      <c r="C2444" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2444" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2444" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2444" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2445">
+      <c r="A2445" t="inlineStr">
+        <is>
+          <t>Fiedler, Casey &amp; Fath_2021_HR_Transnational Employee Voice and Knowledge Exchange.pdf</t>
+        </is>
+      </c>
+      <c r="B2445" t="inlineStr">
+        <is>
+          <t>F1_P13_Fiedler, Casey &amp; Fath_2021_HR_Transnational Employee Voice and Knowledge Exchange.png</t>
+        </is>
+      </c>
+      <c r="C2445" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2445" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2445" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2445" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2446">
+      <c r="A2446" t="inlineStr">
+        <is>
+          <t>Fu_2021_HR_Social action as a total phenomenon.pdf</t>
+        </is>
+      </c>
+      <c r="B2446" t="inlineStr">
+        <is>
+          <t>F1_P17_Fu_2021_HR_Social action as a total phenomenon.png</t>
+        </is>
+      </c>
+      <c r="C2446" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2446" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2446" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2446" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2447">
+      <c r="A2447" t="inlineStr">
+        <is>
+          <t>Harvey &amp; Mueller_2021_OrgSci_Staying Alive Toward a Diverging Consensus Model of Overcoming a Bias Against Novelty in Groups.pdf</t>
+        </is>
+      </c>
+      <c r="B2447" t="inlineStr">
+        <is>
+          <t>F1_P10_Harvey &amp; Mueller_2021_OrgSci_Staying Alive Toward a Diverging Consensus Model of Overcoming a Bias Against Novelty in Groups.png</t>
+        </is>
+      </c>
+      <c r="C2447" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2447" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2447" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2447" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2448">
+      <c r="A2448" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.pdf</t>
+        </is>
+      </c>
+      <c r="B2448" t="inlineStr">
+        <is>
+          <t>F1_P11_Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.png</t>
+        </is>
+      </c>
+      <c r="C2448" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2448" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2448" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2448" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2449">
+      <c r="A2449" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.pdf</t>
+        </is>
+      </c>
+      <c r="B2449" t="inlineStr">
+        <is>
+          <t>F1_P28_Hsu &amp; Grodal_2021_ASQ_The Double Edge Word of Oppositional Category Positioning.png</t>
+        </is>
+      </c>
+      <c r="C2449" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2449" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2449" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2449" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2450">
+      <c r="A2450" t="inlineStr">
+        <is>
+          <t>Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.pdf</t>
+        </is>
+      </c>
+      <c r="B2450" t="inlineStr">
+        <is>
+          <t>F1_P7_Jacobs, Kreutzer &amp; Vaara_2021_AMJ_Political Dynamics in Organizational Identity Breach.png</t>
+        </is>
+      </c>
+      <c r="C2450" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2450" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2450" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2450" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2451">
+      <c r="A2451" t="inlineStr">
+        <is>
+          <t>Jiang_2021_ASQ_Sustaining Meaningful Work in a Crisis - Adopting and Conveying a Situational Purpose.pdf</t>
+        </is>
+      </c>
+      <c r="B2451" t="inlineStr">
+        <is>
+          <t>F1_P35_Jiang_2021_ASQ_Sustaining Meaningful Work in a Crisis - Adopting and Conveying a Situational Purpose.png</t>
+        </is>
+      </c>
+      <c r="C2451" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2451" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2451" t="n">
+        <v>36</v>
+      </c>
+      <c r="F2451" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2452">
+      <c r="A2452" t="inlineStr">
+        <is>
+          <t>Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.pdf</t>
+        </is>
+      </c>
+      <c r="B2452" t="inlineStr">
+        <is>
+          <t>F1_P11_Khoury et al._2021_OrgSci_Stimulating the Cause How Grassroots Organizations Advance Their Credibility.png</t>
+        </is>
+      </c>
+      <c r="C2452" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2452" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2452" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2452" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2453">
+      <c r="A2453" t="inlineStr">
+        <is>
+          <t>Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.pdf</t>
+        </is>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>F1_P11_Kim_2021_ASQ_Frame Restructuration - The Making of an Alternative Business Incubator amid Detroit's Crisis.png</t>
+        </is>
+      </c>
+      <c r="C2453" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2453" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2453" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2453" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2454">
+      <c r="A2454" t="inlineStr">
+        <is>
+          <t>Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.pdf</t>
+        </is>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>F1_P7_Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.png</t>
+        </is>
+      </c>
+      <c r="C2454" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2454" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2454" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2454" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2455">
+      <c r="A2455" t="inlineStr">
+        <is>
+          <t>Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.pdf</t>
+        </is>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>F1_P8_Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.png</t>
+        </is>
+      </c>
+      <c r="C2455" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2455" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2455" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2455" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2456">
+      <c r="A2456" t="inlineStr">
+        <is>
+          <t>Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.pdf</t>
+        </is>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>F1_P9_Kou &amp; Harvey_2021_OrgStudies_A Dialogic Perspective on Managing Knowledge Differences.png</t>
+        </is>
+      </c>
+      <c r="C2456" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2456" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2456" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2456" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2457">
+      <c r="A2457" t="inlineStr">
+        <is>
+          <t>Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.pdf</t>
+        </is>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>F1_P13_Kremser &amp; Blagoev_2021_ASQ_The Dynamics of Prioritizing - How Actors Temporally Pattern Complex Role-Routine Ecologies.png</t>
+        </is>
+      </c>
+      <c r="C2457" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2457" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2457" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2457" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2458">
+      <c r="A2458" t="inlineStr">
+        <is>
+          <t>Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.pdf</t>
+        </is>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>F1_P2_Livne-Tarandach &amp; Jazaieri_2021_AMJ_Swift Sense of Community Resourcing Artifacts for Rapid Community Emergence in a Temporary Organization.png</t>
+        </is>
+      </c>
+      <c r="C2458" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2458" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2458" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2458" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2459">
+      <c r="A2459" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>F1_P5_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C2459" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2459" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2459" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2459" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2460">
+      <c r="A2460" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>F1_P7_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C2460" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2460" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2460" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2460" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2461">
+      <c r="A2461" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>F1_P9_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C2461" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2461" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2461" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2461" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2462">
+      <c r="A2462" t="inlineStr">
+        <is>
+          <t>Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.pdf</t>
+        </is>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>F1_P10_Luciano et al._2021_AMJ_The Double Edged Sword of Leadership Task Transitions in Emergency Response Multiteam Systems.png</t>
+        </is>
+      </c>
+      <c r="C2462" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2462" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2462" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2462" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2463">
+      <c r="A2463" t="inlineStr">
+        <is>
+          <t>Mannucci et al._2021_ASQ_Developing Improvisational Skills.pdf</t>
+        </is>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>F1_P12_Mannucci et al._2021_ASQ_Developing Improvisational Skills.png</t>
+        </is>
+      </c>
+      <c r="C2463" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2463" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2463" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2463" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="inlineStr">
+        <is>
+          <t>Martin et al._2021_Org Studies_Changing Logics in Healthcare and their effects on the Identity Motivates and Identity Work of Doctors.pdf</t>
+        </is>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>F1_P16_Martin et al._2021_Org Studies_Changing Logics in Healthcare and their effects on the Identity Motivates and Identity Work of Doctors.png</t>
+        </is>
+      </c>
+      <c r="C2464" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2464" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2464" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2464" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2465">
+      <c r="A2465" t="inlineStr">
+        <is>
+          <t>Martin et al._2021_Org Studies_Changing Logics in Healthcare and their effects on the Identity Motivates and Identity Work of Doctors.pdf</t>
+        </is>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>F1_P17_Martin et al._2021_Org Studies_Changing Logics in Healthcare and their effects on the Identity Motivates and Identity Work of Doctors.png</t>
+        </is>
+      </c>
+      <c r="C2465" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2465" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2465" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2465" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2466">
+      <c r="A2466" t="inlineStr">
+        <is>
+          <t>Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.pdf</t>
+        </is>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>F1_P10_Massa &amp; O'Mahony_2021_ASQ_Order from Chaos - How Networked Activists Self-Organize by Creating a Participation Architecture.png</t>
+        </is>
+      </c>
+      <c r="C2466" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2466" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2466" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2466" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="inlineStr">
+        <is>
+          <t>Montanari et al._2021_HR_City Context and Subjective Career Success.pdf</t>
+        </is>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>F1_P13_Montanari et al._2021_HR_City Context and Subjective Career Success.png</t>
+        </is>
+      </c>
+      <c r="C2467" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2467" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2467" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2467" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>F1_P12_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C2468" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2468" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2468" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2468" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>F1_P15_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C2469" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2469" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2469" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2469" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>F1_P16_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C2470" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2470" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2470" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2470" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>F1_P17_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C2471" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2471" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2471" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2471" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>F1_P18_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C2472" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2472" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2472" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2472" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="inlineStr">
+        <is>
+          <t>Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.pdf</t>
+        </is>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>F1_P20_Munir et al.,_2021_ASQ_From Patanjali to the Gospel of Sweat - Yoga's Remarkable Transformation.png</t>
+        </is>
+      </c>
+      <c r="C2473" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2473" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2473" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" t="inlineStr">
+        <is>
+          <t>Pascucci et al._2021_Org Studies_Forging Forms of Authority through the Sociomateriality of Food in Partial Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>F1_P8_Pascucci et al._2021_Org Studies_Forging Forms of Authority through the Sociomateriality of Food in Partial Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2474" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2474" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2474" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2474" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" t="inlineStr">
+        <is>
+          <t>Pascucci et al._2021_Org Studies_Forging Forms of Authority through the Sociomateriality of Food in Partial Organizations.pdf</t>
+        </is>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>F1_P15_Pascucci et al._2021_Org Studies_Forging Forms of Authority through the Sociomateriality of Food in Partial Organizations.png</t>
+        </is>
+      </c>
+      <c r="C2475" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2475" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2475" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2475" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" t="inlineStr">
+        <is>
+          <t>Rahman_2021_ASQ_The Invisible Cage - Worker's Reactivity to Opaque Algorithmic Evaluations.pdf</t>
+        </is>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>F1_P16_Rahman_2021_ASQ_The Invisible Cage - Worker's Reactivity to Opaque Algorithmic Evaluations.png</t>
+        </is>
+      </c>
+      <c r="C2476" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2476" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2476" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="inlineStr">
+        <is>
+          <t>Ruebottom &amp; Toubiana_2021_AMJ_Constraints and Opportunities of Stigma Enterpreneurial Emancipation in the Sex Industry.pdf</t>
+        </is>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>F1_P8_Ruebottom &amp; Toubiana_2021_AMJ_Constraints and Opportunities of Stigma Enterpreneurial Emancipation in the Sex Industry.png</t>
+        </is>
+      </c>
+      <c r="C2477" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2477" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2477" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2477" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="inlineStr">
+        <is>
+          <t>Satterstrom et al._2021_ASQ_The Voice Cultivation Process.pdf</t>
+        </is>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>F1_P32_Satterstrom et al._2021_ASQ_The Voice Cultivation Process.png</t>
+        </is>
+      </c>
+      <c r="C2478" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2478" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2478" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2478" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" t="inlineStr">
+        <is>
+          <t>Satterstrom et al._2021_ASQ_The Voice Cultivation Process.pdf</t>
+        </is>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>F1_P33_Satterstrom et al._2021_ASQ_The Voice Cultivation Process.png</t>
+        </is>
+      </c>
+      <c r="C2479" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2479" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2479" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2479" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>F1_P4_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C2480" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2480" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2480" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2480" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" t="inlineStr">
+        <is>
+          <t>Shan et al._2021_ASQ_Things are not Always What They Seem.pdf</t>
+        </is>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>F1_P20_Shan et al._2021_ASQ_Things are not Always What They Seem.png</t>
+        </is>
+      </c>
+      <c r="C2481" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2481" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2481" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2481" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" t="inlineStr">
+        <is>
+          <t>Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.pdf</t>
+        </is>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>F1_P13_Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.png</t>
+        </is>
+      </c>
+      <c r="C2482" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2482" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2482" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" t="inlineStr">
+        <is>
+          <t>Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.pdf</t>
+        </is>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>F1_P15_Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.png</t>
+        </is>
+      </c>
+      <c r="C2483" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2483" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2483" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" t="inlineStr">
+        <is>
+          <t>Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.pdf</t>
+        </is>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>F1_P17_Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.png</t>
+        </is>
+      </c>
+      <c r="C2484" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2484" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2484" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2484" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" t="inlineStr">
+        <is>
+          <t>Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.pdf</t>
+        </is>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>F1_P19_Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.png</t>
+        </is>
+      </c>
+      <c r="C2485" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2485" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2485" t="n">
+        <v>20</v>
+      </c>
+      <c r="F2485" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" t="inlineStr">
+        <is>
+          <t>Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.pdf</t>
+        </is>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>F1_P21_Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.png</t>
+        </is>
+      </c>
+      <c r="C2486" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2486" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2486" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2486" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" t="inlineStr">
+        <is>
+          <t>Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.pdf</t>
+        </is>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>F1_P22_Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.png</t>
+        </is>
+      </c>
+      <c r="C2487" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2487" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2487" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2487" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" t="inlineStr">
+        <is>
+          <t>Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.pdf</t>
+        </is>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>F1_P25_Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.png</t>
+        </is>
+      </c>
+      <c r="C2488" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2488" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2488" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2488" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="inlineStr">
+        <is>
+          <t>Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.pdf</t>
+        </is>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>F1_P26_Stephens_2021_ASQ_How the Show Goes On - Using the Aesthetic Experience of Collective Performance to Adapt while Coordinating.png</t>
+        </is>
+      </c>
+      <c r="C2489" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2489" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2489" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2489" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" t="inlineStr">
+        <is>
+          <t>Vardaman et al._2021_HR_Reframing Childhood Obesity.pdf</t>
+        </is>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>F1_P9_Vardaman et al._2021_HR_Reframing Childhood Obesity.png</t>
+        </is>
+      </c>
+      <c r="C2490" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2490" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2490" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2490" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" t="inlineStr">
+        <is>
+          <t>Veltrop et al._2021_AMJ_Too Unsafe to Monitor.pdf</t>
+        </is>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>F1_P14_Veltrop et al._2021_AMJ_Too Unsafe to Monitor.png</t>
+        </is>
+      </c>
+      <c r="C2491" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2491" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2491" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2491" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="inlineStr">
+        <is>
+          <t>Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.pdf</t>
+        </is>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>F1_P12_Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.png</t>
+        </is>
+      </c>
+      <c r="C2492" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2492" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2492" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="inlineStr">
+        <is>
+          <t>Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.pdf</t>
+        </is>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>F1_P13_Wang, Raynard &amp; Greenwood_2021_AMJ_From Grace to Violence.png</t>
+        </is>
+      </c>
+      <c r="C2493" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2493" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2493" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" t="inlineStr">
+        <is>
+          <t>Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.pdf</t>
+        </is>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>F1_P6_Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.png</t>
+        </is>
+      </c>
+      <c r="C2494" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2494" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2494" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2494" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" t="inlineStr">
+        <is>
+          <t>Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.pdf</t>
+        </is>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>F1_P8_Williams &amp; Shepherd_2021_OrgSci_Bounding and Binding Trajectories of CommunityOrganization Emergence Following a Major Disruption.png</t>
+        </is>
+      </c>
+      <c r="C2495" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2495" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2495" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2495" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2495" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" t="inlineStr">
+        <is>
+          <t>Wright et al._2021_ASQ_Maintaining Places of Social Inclusion - Ebola and the Emergency Department.pdf</t>
+        </is>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>F1_P29_Wright et al._2021_ASQ_Maintaining Places of Social Inclusion - Ebola and the Emergency Department.png</t>
+        </is>
+      </c>
+      <c r="C2496" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2496" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2496" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2496" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2496" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="inlineStr">
+        <is>
+          <t>Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.pdf</t>
+        </is>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>F1_P9_Yi Ren_2021_Org Studies_Beyond the Tipping Point - The Role of Status in Organizations Public Narrative to Mobilize Support for Change.png</t>
+        </is>
+      </c>
+      <c r="C2497" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2497" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E2497" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2497" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2497" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
+++ b/streamlit_cropping_labeling_app/fig_pages_viewed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2497"/>
+  <dimension ref="A1:G2545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67862,6 +67862,1302 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2498">
+      <c r="A2498" t="inlineStr">
+        <is>
+          <t>Azambuja_2022_J Management Studie_Walling in and Walling out  Middle Managers  Boundary Work.pdf</t>
+        </is>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>F1_P24_Azambuja_2022_J Management Studie_Walling in and Walling out  Middle Managers  Boundary Work.png</t>
+        </is>
+      </c>
+      <c r="C2498" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2498" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2498" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2498" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2498" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="inlineStr">
+        <is>
+          <t>Baikovich &amp; Wasserman_2022_OrgSci_Mobilizing National Identity and Othering Practices as Means of Resistance.pdf</t>
+        </is>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>F1_P17_Baikovich &amp; Wasserman_2022_OrgSci_Mobilizing National Identity and Othering Practices as Means of Resistance.png</t>
+        </is>
+      </c>
+      <c r="C2499" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2499" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2499" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2499" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2499" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" t="inlineStr">
+        <is>
+          <t>Baikovich &amp; Wasserman_2022_OrgSci_Mobilizing National Identity and Othering Practices as Means of Resistance.pdf</t>
+        </is>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>F1_P20_Baikovich &amp; Wasserman_2022_OrgSci_Mobilizing National Identity and Othering Practices as Means of Resistance.png</t>
+        </is>
+      </c>
+      <c r="C2500" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2500" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2500" t="n">
+        <v>21</v>
+      </c>
+      <c r="F2500" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2500" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" t="inlineStr">
+        <is>
+          <t>Bhaskar, Baruch &amp; Gupta_2022_HR_Drivers of Career Success Among Visually Impaired.pdf</t>
+        </is>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>F1_P13_Bhaskar, Baruch &amp; Gupta_2022_HR_Drivers of Career Success Among Visually Impaired.png</t>
+        </is>
+      </c>
+      <c r="C2501" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2501" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2501" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2501" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2501" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="inlineStr">
+        <is>
+          <t>Bhaskar, Baruch &amp; Gupta_2022_HR_Drivers of Career Success Among Visually Impaired.pdf</t>
+        </is>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>F1_P25_Bhaskar, Baruch &amp; Gupta_2022_HR_Drivers of Career Success Among Visually Impaired.png</t>
+        </is>
+      </c>
+      <c r="C2502" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2502" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2502" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2502" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2502" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="inlineStr">
+        <is>
+          <t>Chapple, Pollock &amp; D'Adderio_2022_OrgStudies_From Pitching to Briefing - extending entrepreneurial storytelling to new audiences.pdf</t>
+        </is>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>F1_P7_Chapple, Pollock &amp; D'Adderio_2022_OrgStudies_From Pitching to Briefing - extending entrepreneurial storytelling to new audiences.png</t>
+        </is>
+      </c>
+      <c r="C2503" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2503" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2503" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2503" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2503" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" t="inlineStr">
+        <is>
+          <t>Crane et al._2022_HR_Hybrid Unfreedom in Worker Hostels in Garmet Supply Chains.pdf</t>
+        </is>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>F1_P14_Crane et al._2022_HR_Hybrid Unfreedom in Worker Hostels in Garmet Supply Chains.png</t>
+        </is>
+      </c>
+      <c r="C2504" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2504" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2504" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2504" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2504" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" t="inlineStr">
+        <is>
+          <t>DiBenigno_2022_ASQ_How Idealized Professional Identities Can Persist through Client Interactions.pdf</t>
+        </is>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>F1_P28_DiBenigno_2022_ASQ_How Idealized Professional Identities Can Persist through Client Interactions.png</t>
+        </is>
+      </c>
+      <c r="C2505" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2505" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2505" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2505" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2505" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" t="inlineStr">
+        <is>
+          <t>Diaz-Moriana_2022_J Management Studies _ Untangling Goal Tensions in Family Firms  A Sensemaking Approach.pdf</t>
+        </is>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>F1_P13_Diaz-Moriana_2022_J Management Studies _ Untangling Goal Tensions in Family Firms  A Sensemaking Approach.png</t>
+        </is>
+      </c>
+      <c r="C2506" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2506" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2506" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2506" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2506" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="inlineStr">
+        <is>
+          <t>Foy &amp; Gruber_2022_AMJ_Identity Society Mis Alignment and the Instrumentalization of Firm Creation.pdf</t>
+        </is>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>F1_P12_Foy &amp; Gruber_2022_AMJ_Identity Society Mis Alignment and the Instrumentalization of Firm Creation.png</t>
+        </is>
+      </c>
+      <c r="C2507" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2507" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2507" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2507" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="inlineStr">
+        <is>
+          <t>Foy &amp; Gruber_2022_AMJ_Identity Society Mis Alignment and the Instrumentalization of Firm Creation.pdf</t>
+        </is>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>F1_P13_Foy &amp; Gruber_2022_AMJ_Identity Society Mis Alignment and the Instrumentalization of Firm Creation.png</t>
+        </is>
+      </c>
+      <c r="C2508" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2508" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2508" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2508" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2508" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" t="inlineStr">
+        <is>
+          <t>Foy &amp; Gruber_2022_AMJ_Identity Society Mis Alignment and the Instrumentalization of Firm Creation.pdf</t>
+        </is>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>F1_P18_Foy &amp; Gruber_2022_AMJ_Identity Society Mis Alignment and the Instrumentalization of Firm Creation.png</t>
+        </is>
+      </c>
+      <c r="C2509" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2509" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2509" t="n">
+        <v>19</v>
+      </c>
+      <c r="F2509" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2509" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" t="inlineStr">
+        <is>
+          <t>Foy &amp; Gruber_2022_AMJ_Identity Society Mis Alignment and the Instrumentalization of Firm Creation.pdf</t>
+        </is>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>F1_P21_Foy &amp; Gruber_2022_AMJ_Identity Society Mis Alignment and the Instrumentalization of Firm Creation.png</t>
+        </is>
+      </c>
+      <c r="C2510" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2510" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2510" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2510" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" t="inlineStr">
+        <is>
+          <t>Foy &amp; Gruber_2022_AMJ_Identity Society Mis Alignment and the Instrumentalization of Firm Creation.pdf</t>
+        </is>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>F1_P24_Foy &amp; Gruber_2022_AMJ_Identity Society Mis Alignment and the Instrumentalization of Firm Creation.png</t>
+        </is>
+      </c>
+      <c r="C2511" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2511" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2511" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2511" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2511" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" t="inlineStr">
+        <is>
+          <t>Foy &amp; Gruber_2022_AMJ_Identity Society Mis Alignment and the Instrumentalization of Firm Creation.pdf</t>
+        </is>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>F1_P28_Foy &amp; Gruber_2022_AMJ_Identity Society Mis Alignment and the Instrumentalization of Firm Creation.png</t>
+        </is>
+      </c>
+      <c r="C2512" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2512" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2512" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2512" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2512" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" t="inlineStr">
+        <is>
+          <t>Foy &amp; Gruber_2022_AMJ_Identity Society Mis Alignment and the Instrumentalization of Firm Creation.pdf</t>
+        </is>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>F1_P30_Foy &amp; Gruber_2022_AMJ_Identity Society Mis Alignment and the Instrumentalization of Firm Creation.png</t>
+        </is>
+      </c>
+      <c r="C2513" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2513" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2513" t="n">
+        <v>31</v>
+      </c>
+      <c r="F2513" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2513" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" t="inlineStr">
+        <is>
+          <t>Frey_2022_AMJ_I Go Here but I Don't Necessarily Belong.pdf</t>
+        </is>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>F1_P8_Frey_2022_AMJ_I Go Here but I Don't Necessarily Belong.png</t>
+        </is>
+      </c>
+      <c r="C2514" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2514" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2514" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2514" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" t="inlineStr">
+        <is>
+          <t>Frey_2022_AMJ_I Go Here but I Don't Necessarily Belong.pdf</t>
+        </is>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>F1_P22_Frey_2022_AMJ_I Go Here but I Don't Necessarily Belong.png</t>
+        </is>
+      </c>
+      <c r="C2515" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2515" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2515" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2515" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" t="inlineStr">
+        <is>
+          <t>Gibson_2022_AMJ_Investing in Communities Forging New Ground in Corporate Community Development through Relational and Psychological Pathways.pdf</t>
+        </is>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>F1_P10_Gibson_2022_AMJ_Investing in Communities Forging New Ground in Corporate Community Development through Relational and Psychological Pathways.png</t>
+        </is>
+      </c>
+      <c r="C2516" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2516" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2516" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2516" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2516" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" t="inlineStr">
+        <is>
+          <t>Hennekam_2022_J Management Studies _ How Social Structures Influence the Labour Market Participation of Individuals.pdf</t>
+        </is>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>F1_P11_Hennekam_2022_J Management Studies _ How Social Structures Influence the Labour Market Participation of Individuals.png</t>
+        </is>
+      </c>
+      <c r="C2517" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2517" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2517" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2517" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2517" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" t="inlineStr">
+        <is>
+          <t>Karunakaran_2022_ASQ_Status- Authority Asymmetry between Professions.pdf</t>
+        </is>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>F1_P31_Karunakaran_2022_ASQ_Status- Authority Asymmetry between Professions.png</t>
+        </is>
+      </c>
+      <c r="C2518" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2518" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2518" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2518" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2518" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" t="inlineStr">
+        <is>
+          <t>Karunakaran_2022_ASQ_Status- Authority Asymmetry between Professions.pdf</t>
+        </is>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>F1_P32_Karunakaran_2022_ASQ_Status- Authority Asymmetry between Professions.png</t>
+        </is>
+      </c>
+      <c r="C2519" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2519" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2519" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2519" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2519" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" t="inlineStr">
+        <is>
+          <t>Kellogg_2022_OrgSci_Local Adaptation without Work Intensification.pdf</t>
+        </is>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>F1_P12_Kellogg_2022_OrgSci_Local Adaptation without Work Intensification.png</t>
+        </is>
+      </c>
+      <c r="C2520" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2520" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2520" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2520" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2520" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" t="inlineStr">
+        <is>
+          <t>Kellogg_2022_OrgSci_Local Adaptation without Work Intensification.pdf</t>
+        </is>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>F1_P13_Kellogg_2022_OrgSci_Local Adaptation without Work Intensification.png</t>
+        </is>
+      </c>
+      <c r="C2521" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2521" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2521" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2521" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2521" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" t="inlineStr">
+        <is>
+          <t>Kellogg_2022_OrgSci_Local Adaptation without Work Intensification.pdf</t>
+        </is>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>F1_P14_Kellogg_2022_OrgSci_Local Adaptation without Work Intensification.png</t>
+        </is>
+      </c>
+      <c r="C2522" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2522" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2522" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2522" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2522" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" t="inlineStr">
+        <is>
+          <t>Kodeih, Schildt &amp; Lawrence_2022_OrgStudies_Countering Indeterminate Temporariness - Sheltering work in refugee camps.pdf</t>
+        </is>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>F1_P17_Kodeih, Schildt &amp; Lawrence_2022_OrgStudies_Countering Indeterminate Temporariness - Sheltering work in refugee camps.png</t>
+        </is>
+      </c>
+      <c r="C2523" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2523" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2523" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2523" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2523" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" t="inlineStr">
+        <is>
+          <t>Lingo_2022_OrgStudies_Digital Curation and Creative Brokering - Managing information overload in open organizing.pdf</t>
+        </is>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>F1_P7_Lingo_2022_OrgStudies_Digital Curation and Creative Brokering - Managing information overload in open organizing.png</t>
+        </is>
+      </c>
+      <c r="C2524" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2524" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2524" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2524" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2524" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" t="inlineStr">
+        <is>
+          <t>Macpherson, Breslin &amp; Akinci_2022_OrgStudies_Organizational Learning from Hidden Improvisation.pdf</t>
+        </is>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>F1_P13_Macpherson, Breslin &amp; Akinci_2022_OrgStudies_Organizational Learning from Hidden Improvisation.png</t>
+        </is>
+      </c>
+      <c r="C2525" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2525" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2525" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2525" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2525" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" t="inlineStr">
+        <is>
+          <t>Macpherson, Breslin &amp; Akinci_2022_OrgStudies_Organizational Learning from Hidden Improvisation.pdf</t>
+        </is>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>F1_P14_Macpherson, Breslin &amp; Akinci_2022_OrgStudies_Organizational Learning from Hidden Improvisation.png</t>
+        </is>
+      </c>
+      <c r="C2526" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2526" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2526" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2526" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2526" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" t="inlineStr">
+        <is>
+          <t>Macpherson, Breslin &amp; Akinci_2022_OrgStudies_Organizational Learning from Hidden Improvisation.pdf</t>
+        </is>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>F1_P15_Macpherson, Breslin &amp; Akinci_2022_OrgStudies_Organizational Learning from Hidden Improvisation.png</t>
+        </is>
+      </c>
+      <c r="C2527" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2527" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2527" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2527" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2527" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" t="inlineStr">
+        <is>
+          <t>Macpherson, Breslin &amp; Akinci_2022_OrgStudies_Organizational Learning from Hidden Improvisation.pdf</t>
+        </is>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>F1_P16_Macpherson, Breslin &amp; Akinci_2022_OrgStudies_Organizational Learning from Hidden Improvisation.png</t>
+        </is>
+      </c>
+      <c r="C2528" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2528" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2528" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2528" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2528" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" t="inlineStr">
+        <is>
+          <t>Mayo_2022_ASSQ_Syncing Up A Process Model of Emergent Interdependence in Dynamic Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>F1_P7_Mayo_2022_ASSQ_Syncing Up A Process Model of Emergent Interdependence in Dynamic Teams.png</t>
+        </is>
+      </c>
+      <c r="C2529" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2529" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2529" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2529" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2529" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" t="inlineStr">
+        <is>
+          <t>Mayo_2022_ASSQ_Syncing Up A Process Model of Emergent Interdependence in Dynamic Teams.pdf</t>
+        </is>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>F1_P21_Mayo_2022_ASSQ_Syncing Up A Process Model of Emergent Interdependence in Dynamic Teams.png</t>
+        </is>
+      </c>
+      <c r="C2530" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2530" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2530" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2530" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2530" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" t="inlineStr">
+        <is>
+          <t>Mukherjee &amp; Thomas_2022_OrgStudies_Feeling Rule Management.pdf</t>
+        </is>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>F1_P8_Mukherjee &amp; Thomas_2022_OrgStudies_Feeling Rule Management.png</t>
+        </is>
+      </c>
+      <c r="C2531" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2531" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2531" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2531" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2531" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" t="inlineStr">
+        <is>
+          <t>Myers_2022_ASQ_Storytelling as a Tool for Vicarious Learning among Air Medical Transport Crews.pdf</t>
+        </is>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>F1_P26_Myers_2022_ASQ_Storytelling as a Tool for Vicarious Learning among Air Medical Transport Crews.png</t>
+        </is>
+      </c>
+      <c r="C2532" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2532" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2532" t="n">
+        <v>27</v>
+      </c>
+      <c r="F2532" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2532" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" t="inlineStr">
+        <is>
+          <t>Pamphile_2022_AMJ_Paradox Peers.pdf</t>
+        </is>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>F1_P6_Pamphile_2022_AMJ_Paradox Peers.png</t>
+        </is>
+      </c>
+      <c r="C2533" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2533" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2533" t="n">
+        <v>7</v>
+      </c>
+      <c r="F2533" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2533" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" t="inlineStr">
+        <is>
+          <t>Petriglieri &amp; Peshkam_2022_AMJ_Stranger Leaders.pdf</t>
+        </is>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>F1_P25_Petriglieri &amp; Peshkam_2022_AMJ_Stranger Leaders.png</t>
+        </is>
+      </c>
+      <c r="C2534" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2534" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2534" t="n">
+        <v>26</v>
+      </c>
+      <c r="F2534" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2534" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" t="inlineStr">
+        <is>
+          <t>Pollock_2022_J Management Studies_ The Valorising Pitch  How Digital Start‐ups Leverage Intermediary Coverage.pdf</t>
+        </is>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>F1_P9_Pollock_2022_J Management Studies_ The Valorising Pitch  How Digital Start‐ups Leverage Intermediary Coverage.png</t>
+        </is>
+      </c>
+      <c r="C2535" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2535" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2535" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2535" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2535" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" t="inlineStr">
+        <is>
+          <t>Risberg &amp; Romani_2022_HR_Underemploying Hihgly Skilled Migrants.pdf</t>
+        </is>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>F1_P10_Risberg &amp; Romani_2022_HR_Underemploying Hihgly Skilled Migrants.png</t>
+        </is>
+      </c>
+      <c r="C2536" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2536" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2536" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2536" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2536" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" t="inlineStr">
+        <is>
+          <t>Sawyer &amp; Clair_ASQ_2022_Hope Cultures in Organizations - Tackling the Grand Challenge of Commercial Sex Exploitation.pdf</t>
+        </is>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>F1_P14_Sawyer &amp; Clair_ASQ_2022_Hope Cultures in Organizations - Tackling the Grand Challenge of Commercial Sex Exploitation.png</t>
+        </is>
+      </c>
+      <c r="C2537" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2537" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2537" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2537" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2537" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" t="inlineStr">
+        <is>
+          <t>Slavova &amp; Metiu_2022_OrgSci_Relational Work and the Knowledge Transfer Process Rituals in Rural Ghana.pdf</t>
+        </is>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>F1_P10_Slavova &amp; Metiu_2022_OrgSci_Relational Work and the Knowledge Transfer Process Rituals in Rural Ghana.png</t>
+        </is>
+      </c>
+      <c r="C2538" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2538" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2538" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2538" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2538" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" t="inlineStr">
+        <is>
+          <t>Traeger, Haski-Leventhal &amp; Alfes_2022_HR_Extending Organizational Socialization Theory.pdf</t>
+        </is>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>F1_P9_Traeger, Haski-Leventhal &amp; Alfes_2022_HR_Extending Organizational Socialization Theory.png</t>
+        </is>
+      </c>
+      <c r="C2539" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2539" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2539" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2539" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2539" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" t="inlineStr">
+        <is>
+          <t>Traeger, Haski-Leventhal &amp; Alfes_2022_HR_Extending Organizational Socialization Theory.pdf</t>
+        </is>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>F1_P10_Traeger, Haski-Leventhal &amp; Alfes_2022_HR_Extending Organizational Socialization Theory.png</t>
+        </is>
+      </c>
+      <c r="C2540" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2540" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2540" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2540" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2540" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" t="inlineStr">
+        <is>
+          <t>Traeger, Haski-Leventhal &amp; Alfes_2022_HR_Extending Organizational Socialization Theory.pdf</t>
+        </is>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>F1_P12_Traeger, Haski-Leventhal &amp; Alfes_2022_HR_Extending Organizational Socialization Theory.png</t>
+        </is>
+      </c>
+      <c r="C2541" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2541" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2541" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2541" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2541" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" t="inlineStr">
+        <is>
+          <t>Waldorff &amp; Madsen_2022_OrgStudies_Translating to Maintain Existing Practices.pdf</t>
+        </is>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>F1_P7_Waldorff &amp; Madsen_2022_OrgStudies_Translating to Maintain Existing Practices.png</t>
+        </is>
+      </c>
+      <c r="C2542" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2542" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2542" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2542" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G2542" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" t="inlineStr">
+        <is>
+          <t>de Vries et al._2022_OrgSci_Managing Boundaries in Multiteam Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>F1_P7_de Vries et al._2022_OrgSci_Managing Boundaries in Multiteam Structures.png</t>
+        </is>
+      </c>
+      <c r="C2543" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2543" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2543" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2543" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2543" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" t="inlineStr">
+        <is>
+          <t>de Vries et al._2022_OrgSci_Managing Boundaries in Multiteam Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>F1_P13_de Vries et al._2022_OrgSci_Managing Boundaries in Multiteam Structures.png</t>
+        </is>
+      </c>
+      <c r="C2544" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2544" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2544" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2544" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2544" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" t="inlineStr">
+        <is>
+          <t>de Vries et al._2022_OrgSci_Managing Boundaries in Multiteam Structures.pdf</t>
+        </is>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>F1_P17_de Vries et al._2022_OrgSci_Managing Boundaries in Multiteam Structures.png</t>
+        </is>
+      </c>
+      <c r="C2545" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2545" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2545" t="n">
+        <v>18</v>
+      </c>
+      <c r="F2545" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2545" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
